--- a/QuantLibXL/Data2/XLS/GBP_YC3MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP_YC3MBootstrapping.xlsx
@@ -53,7 +53,7 @@
     <definedName name="Index6M">#REF!</definedName>
     <definedName name="IndexTenor">'General Settings'!$D$6</definedName>
     <definedName name="InterpolatorID">'General Settings'!$D$25</definedName>
-    <definedName name="MinDistance">RateHelpers!$J$2:$J$161</definedName>
+    <definedName name="MinDistance">RateHelpers!$J$2:$J$158</definedName>
     <definedName name="MoneyMarketDayCounter" localSheetId="4">#REF!</definedName>
     <definedName name="MoneyMarketDayCounter" localSheetId="5">'General Settings'!$M$51</definedName>
     <definedName name="MoneyMarketDayCounter">#REF!</definedName>
@@ -75,9 +75,9 @@
     <definedName name="RateHelperPrefix" localSheetId="3">#REF!</definedName>
     <definedName name="RateHelperPrefix" localSheetId="4">#REF!</definedName>
     <definedName name="RateHelperPrefix">'General Settings'!$D$9</definedName>
-    <definedName name="RateHelpers">RateHelpers!$E$2:$E$161</definedName>
-    <definedName name="RateHelpersIncluded">RateHelpers!$H$2:$H$161</definedName>
-    <definedName name="RateHelpersPriority">RateHelpers!$I$2:$I$161</definedName>
+    <definedName name="RateHelpers">RateHelpers!$E$2:$E$158</definedName>
+    <definedName name="RateHelpersIncluded">RateHelpers!$H$2:$H$158</definedName>
+    <definedName name="RateHelpersPriority">RateHelpers!$I$2:$I$158</definedName>
     <definedName name="RateHelpersSelected">Selected!$A$7</definedName>
     <definedName name="ReutersFloatingLegCode" localSheetId="4">#REF!</definedName>
     <definedName name="ReutersFloatingLegCode">#REF!</definedName>
@@ -270,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="176">
   <si>
     <t>60Y</t>
   </si>
@@ -820,7 +820,7 @@
     <numFmt numFmtId="175" formatCode="General_)"/>
     <numFmt numFmtId="176" formatCode="#,##0.0;#,##0.0"/>
     <numFmt numFmtId="177" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
-    <numFmt numFmtId="181" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -1474,7 +1474,7 @@
     <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1859,6 +1859,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1889,13 +1897,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2467,19 +2468,19 @@
       </c>
     </row>
     <row r="2" spans="1:33" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="191" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="189"/>
-      <c r="K2" s="184" t="s">
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="193"/>
+      <c r="K2" s="188" t="s">
         <v>153</v>
       </c>
-      <c r="L2" s="185"/>
-      <c r="M2" s="185"/>
-      <c r="N2" s="186"/>
+      <c r="L2" s="189"/>
+      <c r="M2" s="189"/>
+      <c r="N2" s="190"/>
     </row>
     <row r="3" spans="1:33" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
@@ -2839,7 +2840,7 @@
         <v>92</v>
       </c>
       <c r="D11" s="87">
-        <v>41653.193090277775</v>
+        <v>41653.202928240738</v>
       </c>
       <c r="E11" s="59"/>
       <c r="F11" s="58"/>
@@ -2886,12 +2887,12 @@
       <c r="H12" s="54"/>
       <c r="I12" s="54"/>
       <c r="J12" s="54"/>
-      <c r="K12" s="184" t="s">
+      <c r="K12" s="188" t="s">
         <v>149</v>
       </c>
-      <c r="L12" s="185"/>
-      <c r="M12" s="185"/>
-      <c r="N12" s="186"/>
+      <c r="L12" s="189"/>
+      <c r="M12" s="189"/>
+      <c r="N12" s="190"/>
       <c r="O12" s="54"/>
       <c r="P12" s="54"/>
       <c r="Q12" s="54"/>
@@ -2955,7 +2956,7 @@
       </c>
       <c r="D14" s="84" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_GBPYC3M#0015</v>
+        <v>_GBPYC3M#0009</v>
       </c>
       <c r="E14" s="59"/>
       <c r="F14" s="58"/>
@@ -3170,12 +3171,12 @@
       <c r="H19" s="54"/>
       <c r="I19" s="54"/>
       <c r="J19" s="54"/>
-      <c r="K19" s="184" t="s">
+      <c r="K19" s="188" t="s">
         <v>153</v>
       </c>
-      <c r="L19" s="185"/>
-      <c r="M19" s="185"/>
-      <c r="N19" s="186"/>
+      <c r="L19" s="189"/>
+      <c r="M19" s="189"/>
+      <c r="N19" s="190"/>
       <c r="O19" s="54"/>
       <c r="P19" s="54"/>
       <c r="Q19" s="54"/>
@@ -3599,12 +3600,12 @@
       <c r="H29" s="54"/>
       <c r="I29" s="54"/>
       <c r="J29" s="54"/>
-      <c r="K29" s="184" t="s">
+      <c r="K29" s="188" t="s">
         <v>149</v>
       </c>
-      <c r="L29" s="185"/>
-      <c r="M29" s="185"/>
-      <c r="N29" s="186"/>
+      <c r="L29" s="189"/>
+      <c r="M29" s="189"/>
+      <c r="N29" s="190"/>
       <c r="O29" s="54"/>
       <c r="P29" s="54"/>
       <c r="Q29" s="54"/>
@@ -3858,12 +3859,12 @@
       <c r="H36" s="54"/>
       <c r="I36" s="54"/>
       <c r="J36" s="54"/>
-      <c r="K36" s="184" t="s">
+      <c r="K36" s="188" t="s">
         <v>153</v>
       </c>
-      <c r="L36" s="185"/>
-      <c r="M36" s="185"/>
-      <c r="N36" s="186"/>
+      <c r="L36" s="189"/>
+      <c r="M36" s="189"/>
+      <c r="N36" s="190"/>
       <c r="O36" s="54"/>
       <c r="P36" s="54"/>
       <c r="Q36" s="54"/>
@@ -4233,12 +4234,12 @@
       <c r="H46" s="54"/>
       <c r="I46" s="54"/>
       <c r="J46" s="54"/>
-      <c r="K46" s="184" t="s">
+      <c r="K46" s="188" t="s">
         <v>149</v>
       </c>
-      <c r="L46" s="185"/>
-      <c r="M46" s="185"/>
-      <c r="N46" s="186"/>
+      <c r="L46" s="189"/>
+      <c r="M46" s="189"/>
+      <c r="N46" s="190"/>
       <c r="O46" s="54"/>
       <c r="P46" s="54"/>
       <c r="Q46" s="54"/>
@@ -5113,11 +5114,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:N162"/>
+  <dimension ref="A1:N159"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5125,7 +5124,7 @@
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="4.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -5134,17 +5133,15 @@
     <col min="12" max="12" width="14.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="190" t="s">
+      <c r="B1" s="194" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="191"/>
-      <c r="D1" s="192"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="196"/>
       <c r="E1" s="31" t="s">
         <v>66</v>
       </c>
@@ -5178,7 +5175,7 @@
       </c>
       <c r="E2" s="8" t="str">
         <f>'3M_Deposits'!F3</f>
-        <v>GBP_YC3MRH_SWD#0003</v>
+        <v>GBP_YC3MRH_SWD#0001</v>
       </c>
       <c r="F2" s="7">
         <f>_xll.qlRateHelperQuoteValue($E2,Trigger)</f>
@@ -5217,7 +5214,7 @@
       </c>
       <c r="E3" s="8" t="str">
         <f>'3M_Deposits'!F4</f>
-        <v>GBP_YC3MRH_2WD#0003</v>
+        <v>GBP_YC3MRH_2WD#0001</v>
       </c>
       <c r="F3" s="7">
         <f>_xll.qlRateHelperQuoteValue($E3,Trigger)</f>
@@ -5256,7 +5253,7 @@
       </c>
       <c r="E4" s="8" t="str">
         <f>'3M_Deposits'!F5</f>
-        <v>GBP_YC3MRH_3WD#0003</v>
+        <v>GBP_YC3MRH_3WD#0001</v>
       </c>
       <c r="F4" s="7">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
@@ -5295,7 +5292,7 @@
       </c>
       <c r="E5" s="8" t="str">
         <f>'3M_Deposits'!F6</f>
-        <v>GBP_YC3MRH_1MD#0003</v>
+        <v>GBP_YC3MRH_1MD#0001</v>
       </c>
       <c r="F5" s="7">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
@@ -5334,7 +5331,7 @@
       </c>
       <c r="E6" s="8" t="str">
         <f>'3M_Deposits'!F7</f>
-        <v>GBP_YC3MRH_2MD#0003</v>
+        <v>GBP_YC3MRH_2MD#0001</v>
       </c>
       <c r="F6" s="7">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
@@ -5373,7 +5370,7 @@
       </c>
       <c r="E7" s="8" t="str">
         <f>'3M_Deposits'!F8</f>
-        <v>GBP_YC3MRH_3MD#0003</v>
+        <v>GBP_YC3MRH_3MD#0001</v>
       </c>
       <c r="F7" s="7">
         <f>_xll.qlRateHelperQuoteValue($E7,Trigger)</f>
@@ -5416,7 +5413,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="23" t="str">
-        <f t="shared" ref="E2:E25" si="0">RateHelperPrefix&amp;"_"&amp;$B8&amp;$C8&amp;$D8</f>
+        <f t="shared" ref="E8:E25" si="0">RateHelperPrefix&amp;"_"&amp;$B8&amp;$C8&amp;$D8</f>
         <v>GBP_YC3MRH_T3F1</v>
       </c>
       <c r="F8" s="22" t="e">
@@ -6106,7 +6103,7 @@
         <v>20F</v>
       </c>
       <c r="E26" s="8" t="str">
-        <f t="shared" ref="E26:E57" si="2">RateHelperPrefix&amp;"_"&amp;$B26&amp;$C26&amp;$D26</f>
+        <f t="shared" ref="E26:E27" si="2">RateHelperPrefix&amp;"_"&amp;$B26&amp;$C26&amp;$D26</f>
         <v>GBP_YC3MRH_17x20F</v>
       </c>
       <c r="F26" s="7" t="e">
@@ -6184,8 +6181,8 @@
         <v>F4</v>
       </c>
       <c r="E28" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YC3MRH_FUT3MF4</v>
+        <f>'3M_Futures'!I3</f>
+        <v>GBP_YC3MRH_FUT3MF4#0001</v>
       </c>
       <c r="F28" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E28,Trigger)</f>
@@ -6195,7 +6192,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E28,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H28" s="196" t="b">
+      <c r="H28" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I28" s="6">
@@ -6226,8 +6223,8 @@
         <v>G4</v>
       </c>
       <c r="E29" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YC3MRH_FUT3MG4</v>
+        <f>'3M_Futures'!I4</f>
+        <v>GBP_YC3MRH_FUT3MG4#0001</v>
       </c>
       <c r="F29" s="29">
         <f>_xll.qlRateHelperQuoteValue($E29,Trigger)</f>
@@ -6237,7 +6234,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E29,Trigger)</f>
         <v>8.9366675969727194E-7</v>
       </c>
-      <c r="H29" s="196" t="b">
+      <c r="H29" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I29" s="6">
@@ -6268,8 +6265,8 @@
         <v>H4</v>
       </c>
       <c r="E30" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YC3MRH_FUT3MH4</v>
+        <f>'3M_Futures'!I5</f>
+        <v>GBP_YC3MRH_FUT3MH4#0001</v>
       </c>
       <c r="F30" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E30,Trigger)</f>
@@ -6279,7 +6276,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E30,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H30" s="196" t="b">
+      <c r="H30" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I30" s="6">
@@ -6310,8 +6307,8 @@
         <v>J4</v>
       </c>
       <c r="E31" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YC3MRH_FUT3MJ4</v>
+        <f>'3M_Futures'!I6</f>
+        <v>GBP_YC3MRH_FUT3MJ4#0001</v>
       </c>
       <c r="F31" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E31,Trigger)</f>
@@ -6321,7 +6318,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E31,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H31" s="196" t="b">
+      <c r="H31" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I31" s="6">
@@ -6352,8 +6349,8 @@
         <v>K4</v>
       </c>
       <c r="E32" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YC3MRH_FUT3MK4</v>
+        <f>'3M_Futures'!I7</f>
+        <v>GBP_YC3MRH_FUT3MK4#0001</v>
       </c>
       <c r="F32" s="29">
         <f>_xll.qlRateHelperQuoteValue($E32,Trigger)</f>
@@ -6363,7 +6360,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E32,Trigger)</f>
         <v>4.5511097454801462E-6</v>
       </c>
-      <c r="H32" s="196" t="b">
+      <c r="H32" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I32" s="6">
@@ -6394,8 +6391,8 @@
         <v>M4</v>
       </c>
       <c r="E33" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YC3MRH_FUT3MM4</v>
+        <f>'3M_Futures'!I8</f>
+        <v>GBP_YC3MRH_FUT3MM4#0001</v>
       </c>
       <c r="F33" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E33,Trigger)</f>
@@ -6405,7 +6402,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E33,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H33" s="196" t="b">
+      <c r="H33" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I33" s="6">
@@ -6436,8 +6433,8 @@
         <v>N4</v>
       </c>
       <c r="E34" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YC3MRH_FUT3MN4</v>
+        <f>'3M_Futures'!I9</f>
+        <v>GBP_YC3MRH_FUT3MN4#0001</v>
       </c>
       <c r="F34" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E34,Trigger)</f>
@@ -6447,7 +6444,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E34,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H34" s="196" t="b">
+      <c r="H34" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I34" s="6">
@@ -6478,8 +6475,8 @@
         <v>Q4</v>
       </c>
       <c r="E35" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YC3MRH_FUT3MQ4</v>
+        <f>'3M_Futures'!I10</f>
+        <v>GBP_YC3MRH_FUT3MQ4#0001</v>
       </c>
       <c r="F35" s="29">
         <f>_xll.qlRateHelperQuoteValue($E35,Trigger)</f>
@@ -6489,7 +6486,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E35,Trigger)</f>
         <v>1.0028201943633485E-5</v>
       </c>
-      <c r="H35" s="196" t="b">
+      <c r="H35" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I35" s="6">
@@ -6520,8 +6517,8 @@
         <v>U4</v>
       </c>
       <c r="E36" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YC3MRH_FUT3MU4</v>
+        <f>'3M_Futures'!I11</f>
+        <v>GBP_YC3MRH_FUT3MU4#0001</v>
       </c>
       <c r="F36" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
@@ -6531,7 +6528,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E36,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H36" s="196" t="b">
+      <c r="H36" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I36" s="6">
@@ -6562,8 +6559,8 @@
         <v>V4</v>
       </c>
       <c r="E37" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YC3MRH_FUT3MV4</v>
+        <f>'3M_Futures'!I12</f>
+        <v>GBP_YC3MRH_FUT3MV4#0001</v>
       </c>
       <c r="F37" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
@@ -6573,7 +6570,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E37,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H37" s="196" t="b">
+      <c r="H37" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I37" s="6">
@@ -6604,8 +6601,8 @@
         <v>X4</v>
       </c>
       <c r="E38" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YC3MRH_FUT3MX4</v>
+        <f>'3M_Futures'!I13</f>
+        <v>GBP_YC3MRH_FUT3MX4#0001</v>
       </c>
       <c r="F38" s="29">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
@@ -6615,7 +6612,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E38,Trigger)</f>
         <v>1.7309250856406797E-5</v>
       </c>
-      <c r="H38" s="196" t="b">
+      <c r="H38" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I38" s="6">
@@ -6646,8 +6643,8 @@
         <v>Z4</v>
       </c>
       <c r="E39" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YC3MRH_FUT3MZ4</v>
+        <f>'3M_Futures'!I14</f>
+        <v>GBP_YC3MRH_FUT3MZ4#0001</v>
       </c>
       <c r="F39" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
@@ -6657,7 +6654,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E39,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H39" s="196" t="b">
+      <c r="H39" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I39" s="6">
@@ -6688,8 +6685,8 @@
         <v>H5</v>
       </c>
       <c r="E40" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YC3MRH_FUT3MH5</v>
+        <f>'3M_Futures'!I15</f>
+        <v>GBP_YC3MRH_FUT3MH5#0001</v>
       </c>
       <c r="F40" s="29">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
@@ -6699,7 +6696,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E40,Trigger)</f>
         <v>2.9484762016936334E-5</v>
       </c>
-      <c r="H40" s="196" t="b">
+      <c r="H40" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I40" s="6">
@@ -6730,8 +6727,8 @@
         <v>M5</v>
       </c>
       <c r="E41" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YC3MRH_FUT3MM5</v>
+        <f>'3M_Futures'!I16</f>
+        <v>GBP_YC3MRH_FUT3MM5#0001</v>
       </c>
       <c r="F41" s="29">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
@@ -6741,7 +6738,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E41,Trigger)</f>
         <v>4.0777397257116945E-5</v>
       </c>
-      <c r="H41" s="196" t="b">
+      <c r="H41" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I41" s="6">
@@ -6772,8 +6769,8 @@
         <v>U5</v>
       </c>
       <c r="E42" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YC3MRH_FUT3MU5</v>
+        <f>'3M_Futures'!I17</f>
+        <v>GBP_YC3MRH_FUT3MU5#0001</v>
       </c>
       <c r="F42" s="29">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
@@ -6783,7 +6780,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E42,Trigger)</f>
         <v>5.3610802592238644E-5</v>
       </c>
-      <c r="H42" s="196" t="b">
+      <c r="H42" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I42" s="6">
@@ -6814,8 +6811,8 @@
         <v>Z5</v>
       </c>
       <c r="E43" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YC3MRH_FUT3MZ5</v>
+        <f>'3M_Futures'!I18</f>
+        <v>GBP_YC3MRH_FUT3MZ5#0001</v>
       </c>
       <c r="F43" s="29">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
@@ -6825,7 +6822,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E43,Trigger)</f>
         <v>6.8198371780715521E-5</v>
       </c>
-      <c r="H43" s="196" t="b">
+      <c r="H43" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I43" s="6">
@@ -6856,8 +6853,8 @@
         <v>H6</v>
       </c>
       <c r="E44" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YC3MRH_FUT3MH6</v>
+        <f>'3M_Futures'!I19</f>
+        <v>GBP_YC3MRH_FUT3MH6#0001</v>
       </c>
       <c r="F44" s="29">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
@@ -6867,7 +6864,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E44,Trigger)</f>
         <v>8.4557340455810107E-5</v>
       </c>
-      <c r="H44" s="196" t="b">
+      <c r="H44" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I44" s="6">
@@ -6898,8 +6895,8 @@
         <v>M6</v>
       </c>
       <c r="E45" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YC3MRH_FUT3MM6</v>
+        <f>'3M_Futures'!I20</f>
+        <v>GBP_YC3MRH_FUT3MM6#0001</v>
       </c>
       <c r="F45" s="29">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
@@ -6909,7 +6906,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E45,Trigger)</f>
         <v>1.0233355146663395E-4</v>
       </c>
-      <c r="H45" s="196" t="b">
+      <c r="H45" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I45" s="6">
@@ -6940,8 +6937,8 @@
         <v>U6</v>
       </c>
       <c r="E46" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YC3MRH_FUT3MU6</v>
+        <f>'3M_Futures'!I21</f>
+        <v>GBP_YC3MRH_FUT3MU6#0001</v>
       </c>
       <c r="F46" s="29">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
@@ -6951,7 +6948,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E46,Trigger)</f>
         <v>1.2298009269079831E-4</v>
       </c>
-      <c r="H46" s="196" t="b">
+      <c r="H46" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I46" s="6">
@@ -6982,8 +6979,8 @@
         <v>Z6</v>
       </c>
       <c r="E47" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YC3MRH_FUT3MZ6</v>
+        <f>'3M_Futures'!I22</f>
+        <v>GBP_YC3MRH_FUT3MZ6#0001</v>
       </c>
       <c r="F47" s="29">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
@@ -6993,7 +6990,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E47,Trigger)</f>
         <v>1.4365853870375688E-4</v>
       </c>
-      <c r="H47" s="196" t="b">
+      <c r="H47" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I47" s="6">
@@ -7024,8 +7021,8 @@
         <v>H7</v>
       </c>
       <c r="E48" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YC3MRH_FUT3MH7</v>
+        <f>'3M_Futures'!I23</f>
+        <v>GBP_YC3MRH_FUT3MH7#0001</v>
       </c>
       <c r="F48" s="29">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
@@ -7035,7 +7032,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E48,Trigger)</f>
         <v>1.6472603077439979E-4</v>
       </c>
-      <c r="H48" s="196" t="b">
+      <c r="H48" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I48" s="6">
@@ -7066,8 +7063,8 @@
         <v>M7</v>
       </c>
       <c r="E49" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YC3MRH_FUT3MM7</v>
+        <f>'3M_Futures'!I24</f>
+        <v>GBP_YC3MRH_FUT3MM7#0001</v>
       </c>
       <c r="F49" s="29">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
@@ -7077,7 +7074,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E49,Trigger)</f>
         <v>1.9031139310161588E-4</v>
       </c>
-      <c r="H49" s="196" t="b">
+      <c r="H49" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I49" s="6">
@@ -7108,8 +7105,8 @@
         <v>U7</v>
       </c>
       <c r="E50" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YC3MRH_FUT3MU7</v>
+        <f>'3M_Futures'!I25</f>
+        <v>GBP_YC3MRH_FUT3MU7#0001</v>
       </c>
       <c r="F50" s="29">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
@@ -7119,7 +7116,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E50,Trigger)</f>
         <v>2.1524035239512188E-4</v>
       </c>
-      <c r="H50" s="196" t="b">
+      <c r="H50" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I50" s="6">
@@ -7150,8 +7147,8 @@
         <v>Z7</v>
       </c>
       <c r="E51" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YC3MRH_FUT3MZ7</v>
+        <f>'3M_Futures'!I26</f>
+        <v>GBP_YC3MRH_FUT3MZ7#0001</v>
       </c>
       <c r="F51" s="29">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
@@ -7161,7 +7158,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E51,Trigger)</f>
         <v>2.4151168956712443E-4</v>
       </c>
-      <c r="H51" s="196" t="b">
+      <c r="H51" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I51" s="6">
@@ -7192,8 +7189,8 @@
         <v>H8</v>
       </c>
       <c r="E52" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YC3MRH_FUT3MH8</v>
+        <f>'3M_Futures'!I27</f>
+        <v>GBP_YC3MRH_FUT3MH8#0001</v>
       </c>
       <c r="F52" s="29">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
@@ -7203,7 +7200,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E52,Trigger)</f>
         <v>2.7001520002261118E-4</v>
       </c>
-      <c r="H52" s="196" t="b">
+      <c r="H52" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I52" s="6">
@@ -7234,8 +7231,8 @@
         <v>M8</v>
       </c>
       <c r="E53" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YC3MRH_FUT3MM8</v>
+        <f>'3M_Futures'!I28</f>
+        <v>GBP_YC3MRH_FUT3MM8#0001</v>
       </c>
       <c r="F53" s="29">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
@@ -7245,7 +7242,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E53,Trigger)</f>
         <v>2.9922387628462461E-4</v>
       </c>
-      <c r="H53" s="196" t="b">
+      <c r="H53" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I53" s="6">
@@ -7276,8 +7273,8 @@
         <v>U8</v>
       </c>
       <c r="E54" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YC3MRH_FUT3MU8</v>
+        <f>'3M_Futures'!I29</f>
+        <v>GBP_YC3MRH_FUT3MU8#0001</v>
       </c>
       <c r="F54" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
@@ -7287,7 +7284,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E54,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H54" s="196" t="b">
+      <c r="H54" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I54" s="6">
@@ -7318,8 +7315,8 @@
         <v>Z8</v>
       </c>
       <c r="E55" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YC3MRH_FUT3MZ8</v>
+        <f>'3M_Futures'!I30</f>
+        <v>GBP_YC3MRH_FUT3MZ8#0001</v>
       </c>
       <c r="F55" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
@@ -7329,7 +7326,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E55,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H55" s="196" t="b">
+      <c r="H55" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I55" s="6">
@@ -7360,8 +7357,8 @@
         <v>H9</v>
       </c>
       <c r="E56" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YC3MRH_FUT3MH9</v>
+        <f>'3M_Futures'!I31</f>
+        <v>GBP_YC3MRH_FUT3MH9#0001</v>
       </c>
       <c r="F56" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
@@ -7371,7 +7368,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E56,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H56" s="196" t="b">
+      <c r="H56" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I56" s="6">
@@ -7402,8 +7399,8 @@
         <v>M9</v>
       </c>
       <c r="E57" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>GBP_YC3MRH_FUT3MM9</v>
+        <f>'3M_Futures'!I32</f>
+        <v>GBP_YC3MRH_FUT3MM9#0001</v>
       </c>
       <c r="F57" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
@@ -7413,7 +7410,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E57,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H57" s="196" t="b">
+      <c r="H57" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I57" s="6">
@@ -7444,8 +7441,8 @@
         <v>U9</v>
       </c>
       <c r="E58" s="8" t="str">
-        <f t="shared" ref="E58:E89" si="4">RateHelperPrefix&amp;"_"&amp;$B58&amp;$C58&amp;$D58</f>
-        <v>GBP_YC3MRH_FUT3MU9</v>
+        <f>'3M_Futures'!I33</f>
+        <v>GBP_YC3MRH_FUT3MU9#0001</v>
       </c>
       <c r="F58" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
@@ -7455,7 +7452,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E58,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H58" s="196" t="b">
+      <c r="H58" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I58" s="6">
@@ -7486,8 +7483,8 @@
         <v>Z9</v>
       </c>
       <c r="E59" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>GBP_YC3MRH_FUT3MZ9</v>
+        <f>'3M_Futures'!I34</f>
+        <v>GBP_YC3MRH_FUT3MZ9#0001</v>
       </c>
       <c r="F59" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
@@ -7497,7 +7494,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E59,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H59" s="196" t="b">
+      <c r="H59" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I59" s="6">
@@ -7528,8 +7525,8 @@
         <v>H0</v>
       </c>
       <c r="E60" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>GBP_YC3MRH_FUT3MH0</v>
+        <f>'3M_Futures'!I35</f>
+        <v>GBP_YC3MRH_FUT3MH0#0001</v>
       </c>
       <c r="F60" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
@@ -7539,7 +7536,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E60,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H60" s="196" t="b">
+      <c r="H60" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I60" s="6">
@@ -7570,8 +7567,8 @@
         <v>M0</v>
       </c>
       <c r="E61" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>GBP_YC3MRH_FUT3MM0</v>
+        <f>'3M_Futures'!I36</f>
+        <v>GBP_YC3MRH_FUT3MM0#0001</v>
       </c>
       <c r="F61" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
@@ -7581,7 +7578,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E61,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H61" s="196" t="b">
+      <c r="H61" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I61" s="6">
@@ -7612,8 +7609,8 @@
         <v>U0</v>
       </c>
       <c r="E62" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>GBP_YC3MRH_FUT3MU0</v>
+        <f>'3M_Futures'!I37</f>
+        <v>GBP_YC3MRH_FUT3MU0#0001</v>
       </c>
       <c r="F62" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
@@ -7623,7 +7620,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E62,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H62" s="196" t="b">
+      <c r="H62" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I62" s="6">
@@ -7654,8 +7651,8 @@
         <v>Z0</v>
       </c>
       <c r="E63" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>GBP_YC3MRH_FUT3MZ0</v>
+        <f>'3M_Futures'!I38</f>
+        <v>GBP_YC3MRH_FUT3MZ0#0001</v>
       </c>
       <c r="F63" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
@@ -7665,7 +7662,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E63,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H63" s="196" t="b">
+      <c r="H63" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I63" s="6">
@@ -7696,8 +7693,8 @@
         <v>H1</v>
       </c>
       <c r="E64" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>GBP_YC3MRH_FUT3MH1</v>
+        <f>'3M_Futures'!I39</f>
+        <v>GBP_YC3MRH_FUT3MH1#0001</v>
       </c>
       <c r="F64" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
@@ -7707,7 +7704,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E64,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H64" s="196" t="b">
+      <c r="H64" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I64" s="6">
@@ -7738,8 +7735,8 @@
         <v>M1</v>
       </c>
       <c r="E65" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>GBP_YC3MRH_FUT3MM1</v>
+        <f>'3M_Futures'!I40</f>
+        <v>GBP_YC3MRH_FUT3MM1#0001</v>
       </c>
       <c r="F65" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
@@ -7749,7 +7746,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E65,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H65" s="196" t="b">
+      <c r="H65" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I65" s="6">
@@ -7780,8 +7777,8 @@
         <v>U1</v>
       </c>
       <c r="E66" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>GBP_YC3MRH_FUT3MU1</v>
+        <f>'3M_Futures'!I41</f>
+        <v>GBP_YC3MRH_FUT3MU1#0001</v>
       </c>
       <c r="F66" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
@@ -7791,7 +7788,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E66,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H66" s="196" t="b">
+      <c r="H66" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I66" s="6">
@@ -7822,8 +7819,8 @@
         <v>Z1</v>
       </c>
       <c r="E67" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>GBP_YC3MRH_FUT3MZ1</v>
+        <f>'3M_Futures'!I42</f>
+        <v>GBP_YC3MRH_FUT3MZ1#0001</v>
       </c>
       <c r="F67" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
@@ -7833,7 +7830,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E67,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H67" s="196" t="b">
+      <c r="H67" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I67" s="6">
@@ -7864,8 +7861,8 @@
         <v>H2</v>
       </c>
       <c r="E68" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>GBP_YC3MRH_FUT3MH2</v>
+        <f>'3M_Futures'!I43</f>
+        <v>GBP_YC3MRH_FUT3MH2#0001</v>
       </c>
       <c r="F68" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
@@ -7875,7 +7872,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E68,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H68" s="196" t="b">
+      <c r="H68" s="185" t="b">
         <v>0</v>
       </c>
       <c r="I68" s="6">
@@ -7906,8 +7903,8 @@
         <v>M2</v>
       </c>
       <c r="E69" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>GBP_YC3MRH_FUT3MM2</v>
+        <f>'3M_Futures'!I44</f>
+        <v>GBP_YC3MRH_FUT3MM2#0001</v>
       </c>
       <c r="F69" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
@@ -7917,7 +7914,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E69,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H69" s="197" t="b">
+      <c r="H69" s="186" t="b">
         <v>0</v>
       </c>
       <c r="I69" s="17">
@@ -7945,7 +7942,7 @@
         <v>41</v>
       </c>
       <c r="E70" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E70:E89" si="4">RateHelperPrefix&amp;"_"&amp;$B70&amp;$C70&amp;$D70</f>
         <v>GBP_YC3MRH_2X1S</v>
       </c>
       <c r="F70" s="22" t="e">
@@ -8664,7 +8661,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N88" s="14" t="e">
-        <f t="shared" ref="N88:N124" si="7">IF(G88=G125,F88-F125,"--")</f>
+        <f t="shared" ref="N88" si="7">IF(G88=G125,F88-F125,"--")</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -8710,7 +8707,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N89" s="14" t="e">
-        <f t="shared" si="7"/>
+        <f>IF(G89=#REF!,F89-#REF!,"--")</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -8756,7 +8753,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N90" s="14" t="e">
-        <f t="shared" si="7"/>
+        <f>IF(G90=#REF!,F90-#REF!,"--")</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -8802,7 +8799,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N91" s="14" t="e">
-        <f t="shared" si="7"/>
+        <f>IF(G91=#REF!,F91-#REF!,"--")</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -8848,7 +8845,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N92" s="14" t="e">
-        <f t="shared" si="7"/>
+        <f>IF(G92=G126,F92-F126,"--")</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -8894,7 +8891,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N93" s="14" t="e">
-        <f t="shared" si="7"/>
+        <f>IF(G93=G127,F93-F127,"--")</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -8940,7 +8937,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N94" s="14" t="e">
-        <f t="shared" si="7"/>
+        <f>IF(G94=G128,F94-F128,"--")</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -8986,7 +8983,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N95" s="14" t="e">
-        <f t="shared" si="7"/>
+        <f>IF(G95=G129,F95-F129,"--")</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -9032,7 +9029,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N96" s="14" t="e">
-        <f t="shared" si="7"/>
+        <f>IF(G96=G130,F96-F130,"--")</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -9078,7 +9075,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N97" s="14" t="e">
-        <f t="shared" si="7"/>
+        <f>IF(G97=G131,F97-F131,"--")</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -9124,7 +9121,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N98" s="14" t="e">
-        <f t="shared" si="7"/>
+        <f>IF(G98=G132,F98-F132,"--")</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -9170,7 +9167,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N99" s="14" t="e">
-        <f t="shared" si="7"/>
+        <f>IF(G99=G133,F99-F133,"--")</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -9216,7 +9213,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N100" s="14" t="e">
-        <f t="shared" si="7"/>
+        <f>IF(G100=G134,F100-F134,"--")</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -9262,7 +9259,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N101" s="14" t="e">
-        <f t="shared" si="7"/>
+        <f>IF(G101=G135,F101-F135,"--")</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -9308,7 +9305,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N102" s="14" t="e">
-        <f t="shared" si="7"/>
+        <f>IF(G102=G136,F102-F136,"--")</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -9354,7 +9351,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N103" s="14" t="e">
-        <f t="shared" si="7"/>
+        <f>IF(G103=G137,F103-F137,"--")</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -9400,7 +9397,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N104" s="14" t="e">
-        <f t="shared" si="7"/>
+        <f>IF(G104=G138,F104-F138,"--")</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -9446,7 +9443,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N105" s="14" t="e">
-        <f t="shared" si="7"/>
+        <f>IF(G105=G139,F105-F139,"--")</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -9492,7 +9489,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N106" s="14" t="e">
-        <f t="shared" si="7"/>
+        <f>IF(G106=G140,F106-F140,"--")</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -9538,7 +9535,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N107" s="14" t="e">
-        <f t="shared" si="7"/>
+        <f>IF(G107=G141,F107-F141,"--")</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -9584,7 +9581,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N108" s="14" t="e">
-        <f t="shared" si="7"/>
+        <f>IF(G108=G142,F108-F142,"--")</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -9630,7 +9627,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N109" s="14" t="e">
-        <f t="shared" si="7"/>
+        <f>IF(G109=G143,F109-F143,"--")</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -9676,7 +9673,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N110" s="14" t="e">
-        <f t="shared" si="7"/>
+        <f>IF(G110=G144,F110-F144,"--")</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -9722,7 +9719,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N111" s="14" t="e">
-        <f t="shared" si="7"/>
+        <f>IF(G111=G145,F111-F145,"--")</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -9768,7 +9765,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N112" s="14" t="e">
-        <f t="shared" si="7"/>
+        <f>IF(G112=G146,F112-F146,"--")</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -9814,7 +9811,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N113" s="14" t="e">
-        <f t="shared" si="7"/>
+        <f>IF(G113=G147,F113-F147,"--")</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -9860,7 +9857,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N114" s="14" t="e">
-        <f t="shared" si="7"/>
+        <f>IF(G114=G148,F114-F148,"--")</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -9906,7 +9903,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N115" s="14" t="e">
-        <f t="shared" si="7"/>
+        <f>IF(G115=G149,F115-F149,"--")</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -9952,7 +9949,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N116" s="14" t="e">
-        <f t="shared" si="7"/>
+        <f>IF(G116=G150,F116-F150,"--")</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -9998,7 +9995,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N117" s="14" t="e">
-        <f t="shared" si="7"/>
+        <f>IF(G117=G151,F117-F151,"--")</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -10044,7 +10041,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N118" s="14" t="e">
-        <f t="shared" si="7"/>
+        <f>IF(G118=G152,F118-F152,"--")</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -10090,13 +10087,13 @@
         <v>#NUM!</v>
       </c>
       <c r="N119" s="14" t="e">
-        <f t="shared" si="7"/>
+        <f>IF(G119=G153,F119-F153,"--")</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="120" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B120" s="13" t="str">
-        <f t="shared" ref="B120:B151" si="9">SwapFixedFreq</f>
+        <f t="shared" ref="B120:B148" si="9">SwapFixedFreq</f>
         <v>SB</v>
       </c>
       <c r="C120" s="12" t="str">
@@ -10136,7 +10133,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N120" s="14" t="e">
-        <f t="shared" si="7"/>
+        <f>IF(G120=G154,F120-F154,"--")</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -10182,7 +10179,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N121" s="14" t="e">
-        <f t="shared" si="7"/>
+        <f>IF(G121=G155,F121-F155,"--")</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -10199,7 +10196,7 @@
         <v>2</v>
       </c>
       <c r="E122" s="8" t="str">
-        <f t="shared" ref="E122:E153" si="10">RateHelperPrefix&amp;"_"&amp;$B122&amp;$C122&amp;$D122</f>
+        <f t="shared" ref="E122:E124" si="10">RateHelperPrefix&amp;"_"&amp;$B122&amp;$C122&amp;$D122</f>
         <v>GBP_YC3MRH_SB3L40Y</v>
       </c>
       <c r="F122" s="7" t="e">
@@ -10228,7 +10225,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N122" s="14" t="e">
-        <f t="shared" si="7"/>
+        <f>IF(G122=G156,F122-F156,"--")</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -10274,7 +10271,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N123" s="14" t="e">
-        <f t="shared" si="7"/>
+        <f>IF(G123=G157,F123-F157,"--")</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -10320,7 +10317,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N124" s="14" t="e">
-        <f t="shared" si="7"/>
+        <f>IF(G124=G158,F124-F158,"--")</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -10330,15 +10327,15 @@
         <v>SB</v>
       </c>
       <c r="C125" s="12" t="str">
-        <f t="shared" ref="C125:C161" si="11">IborType&amp;"BASIS"</f>
+        <f t="shared" ref="C125:C158" si="11">IborType&amp;"BASIS"</f>
         <v>3LBASIS</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E125" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>GBP_YC3MRH_SB3LBASIS1Y</v>
+        <f>'3M_SwapsFromBasis'!L6</f>
+        <v>GBP_YC3MRH_SB3LBASIS1Y#0001</v>
       </c>
       <c r="F125" s="7" t="e">
         <f>_xll.qlRateHelperQuoteValue($E125,Trigger)</f>
@@ -10376,19 +10373,19 @@
         <v>3LBASIS</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E126" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>GBP_YC3MRH_SB3LBASIS15M</v>
-      </c>
-      <c r="F126" s="7" t="e">
+        <f>'3M_SwapsFromBasis'!L7</f>
+        <v>GBP_YC3MRH_SB3LBASIS2Y#0001</v>
+      </c>
+      <c r="F126" s="7">
         <f>_xll.qlRateHelperQuoteValue($E126,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G126" s="7" t="e">
+        <v>6.6749999999999995E-3</v>
+      </c>
+      <c r="G126" s="7">
         <f>_xll.qlSwapRateHelperSpread($E126,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.25E-3</v>
       </c>
       <c r="H126" s="6" t="b">
         <v>0</v>
@@ -10399,13 +10396,13 @@
       <c r="J126" s="6">
         <v>1</v>
       </c>
-      <c r="K126" s="5" t="e">
+      <c r="K126" s="5">
         <f>_xll.qlRateHelperEarliestDate($E126,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L126" s="4" t="e">
+        <v>41653</v>
+      </c>
+      <c r="L126" s="4">
         <f>_xll.qlRateHelperLatestDate($E126,Trigger)</f>
-        <v>#NUM!</v>
+        <v>42383</v>
       </c>
     </row>
     <row r="127" spans="2:14" x14ac:dyDescent="0.2">
@@ -10418,22 +10415,22 @@
         <v>3LBASIS</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E127" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>GBP_YC3MRH_SB3LBASIS18M</v>
-      </c>
-      <c r="F127" s="7" t="e">
+        <f>'3M_SwapsFromBasis'!L8</f>
+        <v>GBP_YC3MRH_SB3LBASIS3Y#0001</v>
+      </c>
+      <c r="F127" s="7">
         <f>_xll.qlRateHelperQuoteValue($E127,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G127" s="7" t="e">
+        <v>7.3250000000000008E-3</v>
+      </c>
+      <c r="G127" s="7">
         <f>_xll.qlSwapRateHelperSpread($E127,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.2375000000000001E-3</v>
       </c>
       <c r="H127" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" s="6">
         <v>40</v>
@@ -10441,13 +10438,13 @@
       <c r="J127" s="6">
         <v>1</v>
       </c>
-      <c r="K127" s="5" t="e">
+      <c r="K127" s="5">
         <f>_xll.qlRateHelperEarliestDate($E127,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L127" s="4" t="e">
+        <v>41653</v>
+      </c>
+      <c r="L127" s="4">
         <f>_xll.qlRateHelperLatestDate($E127,Trigger)</f>
-        <v>#NUM!</v>
+        <v>42751</v>
       </c>
     </row>
     <row r="128" spans="2:14" x14ac:dyDescent="0.2">
@@ -10460,22 +10457,22 @@
         <v>3LBASIS</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E128" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>GBP_YC3MRH_SB3LBASIS21M</v>
-      </c>
-      <c r="F128" s="7" t="e">
+        <f>'3M_SwapsFromBasis'!L9</f>
+        <v>GBP_YC3MRH_SB3LBASIS4Y#0001</v>
+      </c>
+      <c r="F128" s="7">
         <f>_xll.qlRateHelperQuoteValue($E128,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G128" s="7" t="e">
+        <v>8.4499999999999992E-3</v>
+      </c>
+      <c r="G128" s="7">
         <f>_xll.qlSwapRateHelperSpread($E128,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.225E-3</v>
       </c>
       <c r="H128" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" s="6">
         <v>40</v>
@@ -10483,13 +10480,13 @@
       <c r="J128" s="6">
         <v>1</v>
       </c>
-      <c r="K128" s="5" t="e">
+      <c r="K128" s="5">
         <f>_xll.qlRateHelperEarliestDate($E128,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L128" s="4" t="e">
+        <v>41653</v>
+      </c>
+      <c r="L128" s="4">
         <f>_xll.qlRateHelperLatestDate($E128,Trigger)</f>
-        <v>#NUM!</v>
+        <v>43115</v>
       </c>
     </row>
     <row r="129" spans="2:12" x14ac:dyDescent="0.2">
@@ -10502,22 +10499,22 @@
         <v>3LBASIS</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E129" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>GBP_YC3MRH_SB3LBASIS2Y</v>
+        <f>'3M_SwapsFromBasis'!L10</f>
+        <v>GBP_YC3MRH_SB3LBASIS5Y#0001</v>
       </c>
       <c r="F129" s="7">
         <f>_xll.qlRateHelperQuoteValue($E129,Trigger)</f>
-        <v>6.6749999999999995E-3</v>
+        <v>9.9500000000000005E-3</v>
       </c>
       <c r="G129" s="7">
         <f>_xll.qlSwapRateHelperSpread($E129,Trigger)</f>
-        <v>1.25E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="H129" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" s="6">
         <v>40</v>
@@ -10531,7 +10528,7 @@
       </c>
       <c r="L129" s="4">
         <f>_xll.qlRateHelperLatestDate($E129,Trigger)</f>
-        <v>42383</v>
+        <v>43479</v>
       </c>
     </row>
     <row r="130" spans="2:12" x14ac:dyDescent="0.2">
@@ -10544,19 +10541,19 @@
         <v>3LBASIS</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E130" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>GBP_YC3MRH_SB3LBASIS3Y</v>
+        <f>'3M_SwapsFromBasis'!L11</f>
+        <v>GBP_YC3MRH_SB3LBASIS6Y#0001</v>
       </c>
       <c r="F130" s="7">
         <f>_xll.qlRateHelperQuoteValue($E130,Trigger)</f>
-        <v>7.3250000000000008E-3</v>
+        <v>1.1650000000000001E-2</v>
       </c>
       <c r="G130" s="7">
         <f>_xll.qlSwapRateHelperSpread($E130,Trigger)</f>
-        <v>1.2375000000000001E-3</v>
+        <v>1.175E-3</v>
       </c>
       <c r="H130" s="6" t="b">
         <v>1</v>
@@ -10573,7 +10570,7 @@
       </c>
       <c r="L130" s="4">
         <f>_xll.qlRateHelperLatestDate($E130,Trigger)</f>
-        <v>42751</v>
+        <v>43844</v>
       </c>
     </row>
     <row r="131" spans="2:12" x14ac:dyDescent="0.2">
@@ -10586,19 +10583,19 @@
         <v>3LBASIS</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E131" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>GBP_YC3MRH_SB3LBASIS4Y</v>
+        <f>'3M_SwapsFromBasis'!L12</f>
+        <v>GBP_YC3MRH_SB3LBASIS7Y#0001</v>
       </c>
       <c r="F131" s="7">
         <f>_xll.qlRateHelperQuoteValue($E131,Trigger)</f>
-        <v>8.4499999999999992E-3</v>
+        <v>1.3474999999999999E-2</v>
       </c>
       <c r="G131" s="7">
         <f>_xll.qlSwapRateHelperSpread($E131,Trigger)</f>
-        <v>1.225E-3</v>
+        <v>1.1375000000000001E-3</v>
       </c>
       <c r="H131" s="6" t="b">
         <v>1</v>
@@ -10615,7 +10612,7 @@
       </c>
       <c r="L131" s="4">
         <f>_xll.qlRateHelperLatestDate($E131,Trigger)</f>
-        <v>43115</v>
+        <v>44210</v>
       </c>
     </row>
     <row r="132" spans="2:12" x14ac:dyDescent="0.2">
@@ -10628,19 +10625,19 @@
         <v>3LBASIS</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E132" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>GBP_YC3MRH_SB3LBASIS5Y</v>
+        <f>'3M_SwapsFromBasis'!L13</f>
+        <v>GBP_YC3MRH_SB3LBASIS8Y#0001</v>
       </c>
       <c r="F132" s="7">
         <f>_xll.qlRateHelperQuoteValue($E132,Trigger)</f>
-        <v>9.9500000000000005E-3</v>
+        <v>1.5300000000000001E-2</v>
       </c>
       <c r="G132" s="7">
         <f>_xll.qlSwapRateHelperSpread($E132,Trigger)</f>
-        <v>1.1999999999999999E-3</v>
+        <v>1.0874999999999999E-3</v>
       </c>
       <c r="H132" s="6" t="b">
         <v>1</v>
@@ -10657,7 +10654,7 @@
       </c>
       <c r="L132" s="4">
         <f>_xll.qlRateHelperLatestDate($E132,Trigger)</f>
-        <v>43479</v>
+        <v>44575</v>
       </c>
     </row>
     <row r="133" spans="2:12" x14ac:dyDescent="0.2">
@@ -10670,19 +10667,19 @@
         <v>3LBASIS</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E133" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>GBP_YC3MRH_SB3LBASIS6Y</v>
+        <f>'3M_SwapsFromBasis'!L14</f>
+        <v>GBP_YC3MRH_SB3LBASIS9Y#0001</v>
       </c>
       <c r="F133" s="7">
         <f>_xll.qlRateHelperQuoteValue($E133,Trigger)</f>
-        <v>1.1650000000000001E-2</v>
+        <v>1.7075E-2</v>
       </c>
       <c r="G133" s="7">
         <f>_xll.qlSwapRateHelperSpread($E133,Trigger)</f>
-        <v>1.175E-3</v>
+        <v>1.0499999999999999E-3</v>
       </c>
       <c r="H133" s="6" t="b">
         <v>1</v>
@@ -10699,7 +10696,7 @@
       </c>
       <c r="L133" s="4">
         <f>_xll.qlRateHelperLatestDate($E133,Trigger)</f>
-        <v>43844</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="134" spans="2:12" x14ac:dyDescent="0.2">
@@ -10712,19 +10709,19 @@
         <v>3LBASIS</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E134" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>GBP_YC3MRH_SB3LBASIS7Y</v>
+        <f>'3M_SwapsFromBasis'!L15</f>
+        <v>GBP_YC3MRH_SB3LBASIS10Y#0001</v>
       </c>
       <c r="F134" s="7">
         <f>_xll.qlRateHelperQuoteValue($E134,Trigger)</f>
-        <v>1.3474999999999999E-2</v>
+        <v>1.8725000000000002E-2</v>
       </c>
       <c r="G134" s="7">
         <f>_xll.qlSwapRateHelperSpread($E134,Trigger)</f>
-        <v>1.1375000000000001E-3</v>
+        <v>1.0124999999999999E-3</v>
       </c>
       <c r="H134" s="6" t="b">
         <v>1</v>
@@ -10741,7 +10738,7 @@
       </c>
       <c r="L134" s="4">
         <f>_xll.qlRateHelperLatestDate($E134,Trigger)</f>
-        <v>44210</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="135" spans="2:12" x14ac:dyDescent="0.2">
@@ -10754,22 +10751,22 @@
         <v>3LBASIS</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E135" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>GBP_YC3MRH_SB3LBASIS8Y</v>
-      </c>
-      <c r="F135" s="7">
+        <f>'3M_SwapsFromBasis'!L16</f>
+        <v>GBP_YC3MRH_SB3LBASIS11Y#0001</v>
+      </c>
+      <c r="F135" s="7" t="e">
         <f>_xll.qlRateHelperQuoteValue($E135,Trigger)</f>
-        <v>1.5300000000000001E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G135" s="7">
         <f>_xll.qlSwapRateHelperSpread($E135,Trigger)</f>
-        <v>1.0874999999999999E-3</v>
+        <v>9.7895284739868763E-4</v>
       </c>
       <c r="H135" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" s="6">
         <v>40</v>
@@ -10783,7 +10780,7 @@
       </c>
       <c r="L135" s="4">
         <f>_xll.qlRateHelperLatestDate($E135,Trigger)</f>
-        <v>44575</v>
+        <v>45671</v>
       </c>
     </row>
     <row r="136" spans="2:12" x14ac:dyDescent="0.2">
@@ -10796,19 +10793,19 @@
         <v>3LBASIS</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E136" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>GBP_YC3MRH_SB3LBASIS9Y</v>
+        <f>'3M_SwapsFromBasis'!L17</f>
+        <v>GBP_YC3MRH_SB3LBASIS12Y#0001</v>
       </c>
       <c r="F136" s="7">
         <f>_xll.qlRateHelperQuoteValue($E136,Trigger)</f>
-        <v>1.7075E-2</v>
+        <v>2.1425E-2</v>
       </c>
       <c r="G136" s="7">
         <f>_xll.qlSwapRateHelperSpread($E136,Trigger)</f>
-        <v>1.0499999999999999E-3</v>
+        <v>9.5E-4</v>
       </c>
       <c r="H136" s="6" t="b">
         <v>1</v>
@@ -10825,7 +10822,7 @@
       </c>
       <c r="L136" s="4">
         <f>_xll.qlRateHelperLatestDate($E136,Trigger)</f>
-        <v>44942</v>
+        <v>46036</v>
       </c>
     </row>
     <row r="137" spans="2:12" x14ac:dyDescent="0.2">
@@ -10838,22 +10835,22 @@
         <v>3LBASIS</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E137" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>GBP_YC3MRH_SB3LBASIS10Y</v>
-      </c>
-      <c r="F137" s="7">
+        <f>'3M_SwapsFromBasis'!L18</f>
+        <v>GBP_YC3MRH_SB3LBASIS13Y#0001</v>
+      </c>
+      <c r="F137" s="7" t="e">
         <f>_xll.qlRateHelperQuoteValue($E137,Trigger)</f>
-        <v>1.8725000000000002E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G137" s="7">
         <f>_xll.qlSwapRateHelperSpread($E137,Trigger)</f>
-        <v>1.0124999999999999E-3</v>
+        <v>9.2364426637802949E-4</v>
       </c>
       <c r="H137" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" s="6">
         <v>40</v>
@@ -10867,7 +10864,7 @@
       </c>
       <c r="L137" s="4">
         <f>_xll.qlRateHelperLatestDate($E137,Trigger)</f>
-        <v>45306</v>
+        <v>46401</v>
       </c>
     </row>
     <row r="138" spans="2:12" x14ac:dyDescent="0.2">
@@ -10880,11 +10877,11 @@
         <v>3LBASIS</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E138" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>GBP_YC3MRH_SB3LBASIS11Y</v>
+        <f>'3M_SwapsFromBasis'!L19</f>
+        <v>GBP_YC3MRH_SB3LBASIS14Y#0001</v>
       </c>
       <c r="F138" s="7" t="e">
         <f>_xll.qlRateHelperQuoteValue($E138,Trigger)</f>
@@ -10892,7 +10889,7 @@
       </c>
       <c r="G138" s="7">
         <f>_xll.qlSwapRateHelperSpread($E138,Trigger)</f>
-        <v>9.7895284739868763E-4</v>
+        <v>8.9889189633966641E-4</v>
       </c>
       <c r="H138" s="6" t="b">
         <v>0</v>
@@ -10909,7 +10906,7 @@
       </c>
       <c r="L138" s="4">
         <f>_xll.qlRateHelperLatestDate($E138,Trigger)</f>
-        <v>45671</v>
+        <v>46766</v>
       </c>
     </row>
     <row r="139" spans="2:12" x14ac:dyDescent="0.2">
@@ -10922,19 +10919,19 @@
         <v>3LBASIS</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E139" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>GBP_YC3MRH_SB3LBASIS12Y</v>
+        <f>'3M_SwapsFromBasis'!L20</f>
+        <v>GBP_YC3MRH_SB3LBASIS15Y#0001</v>
       </c>
       <c r="F139" s="7">
         <f>_xll.qlRateHelperQuoteValue($E139,Trigger)</f>
-        <v>2.1425E-2</v>
+        <v>2.4324999999999999E-2</v>
       </c>
       <c r="G139" s="7">
         <f>_xll.qlSwapRateHelperSpread($E139,Trigger)</f>
-        <v>9.5E-4</v>
+        <v>8.7500000000000002E-4</v>
       </c>
       <c r="H139" s="6" t="b">
         <v>1</v>
@@ -10951,7 +10948,7 @@
       </c>
       <c r="L139" s="4">
         <f>_xll.qlRateHelperLatestDate($E139,Trigger)</f>
-        <v>46036</v>
+        <v>47133</v>
       </c>
     </row>
     <row r="140" spans="2:12" x14ac:dyDescent="0.2">
@@ -10964,11 +10961,11 @@
         <v>3LBASIS</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E140" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>GBP_YC3MRH_SB3LBASIS13Y</v>
+        <f>'3M_SwapsFromBasis'!L21</f>
+        <v>GBP_YC3MRH_SB3LBASIS16Y#0001</v>
       </c>
       <c r="F140" s="7" t="e">
         <f>_xll.qlRateHelperQuoteValue($E140,Trigger)</f>
@@ -10976,7 +10973,7 @@
       </c>
       <c r="G140" s="7">
         <f>_xll.qlSwapRateHelperSpread($E140,Trigger)</f>
-        <v>9.2364426637802949E-4</v>
+        <v>8.5138611565163788E-4</v>
       </c>
       <c r="H140" s="6" t="b">
         <v>0</v>
@@ -10993,7 +10990,7 @@
       </c>
       <c r="L140" s="4">
         <f>_xll.qlRateHelperLatestDate($E140,Trigger)</f>
-        <v>46401</v>
+        <v>47497</v>
       </c>
     </row>
     <row r="141" spans="2:12" x14ac:dyDescent="0.2">
@@ -11006,11 +11003,11 @@
         <v>3LBASIS</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E141" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>GBP_YC3MRH_SB3LBASIS14Y</v>
+        <f>'3M_SwapsFromBasis'!L22</f>
+        <v>GBP_YC3MRH_SB3LBASIS17Y#0001</v>
       </c>
       <c r="F141" s="7" t="e">
         <f>_xll.qlRateHelperQuoteValue($E141,Trigger)</f>
@@ -11018,7 +11015,7 @@
       </c>
       <c r="G141" s="7">
         <f>_xll.qlSwapRateHelperSpread($E141,Trigger)</f>
-        <v>8.9889189633966641E-4</v>
+        <v>8.2810949429725942E-4</v>
       </c>
       <c r="H141" s="6" t="b">
         <v>0</v>
@@ -11035,7 +11032,7 @@
       </c>
       <c r="L141" s="4">
         <f>_xll.qlRateHelperLatestDate($E141,Trigger)</f>
-        <v>46766</v>
+        <v>47862</v>
       </c>
     </row>
     <row r="142" spans="2:12" x14ac:dyDescent="0.2">
@@ -11048,22 +11045,22 @@
         <v>3LBASIS</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E142" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>GBP_YC3MRH_SB3LBASIS15Y</v>
-      </c>
-      <c r="F142" s="7">
+        <f>'3M_SwapsFromBasis'!L23</f>
+        <v>GBP_YC3MRH_SB3LBASIS18Y#0001</v>
+      </c>
+      <c r="F142" s="7" t="e">
         <f>_xll.qlRateHelperQuoteValue($E142,Trigger)</f>
-        <v>2.4324999999999999E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G142" s="7">
         <f>_xll.qlSwapRateHelperSpread($E142,Trigger)</f>
-        <v>8.7500000000000002E-4</v>
+        <v>8.0538981511706173E-4</v>
       </c>
       <c r="H142" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" s="6">
         <v>40</v>
@@ -11077,7 +11074,7 @@
       </c>
       <c r="L142" s="4">
         <f>_xll.qlRateHelperLatestDate($E142,Trigger)</f>
-        <v>47133</v>
+        <v>48227</v>
       </c>
     </row>
     <row r="143" spans="2:12" x14ac:dyDescent="0.2">
@@ -11090,11 +11087,11 @@
         <v>3LBASIS</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E143" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>GBP_YC3MRH_SB3LBASIS16Y</v>
+        <f>'3M_SwapsFromBasis'!L24</f>
+        <v>GBP_YC3MRH_SB3LBASIS19Y#0001</v>
       </c>
       <c r="F143" s="7" t="e">
         <f>_xll.qlRateHelperQuoteValue($E143,Trigger)</f>
@@ -11102,7 +11099,7 @@
       </c>
       <c r="G143" s="7">
         <f>_xll.qlSwapRateHelperSpread($E143,Trigger)</f>
-        <v>8.5138611565163788E-4</v>
+        <v>7.8344675729124288E-4</v>
       </c>
       <c r="H143" s="6" t="b">
         <v>0</v>
@@ -11119,7 +11116,7 @@
       </c>
       <c r="L143" s="4">
         <f>_xll.qlRateHelperLatestDate($E143,Trigger)</f>
-        <v>47497</v>
+        <v>48593</v>
       </c>
     </row>
     <row r="144" spans="2:12" x14ac:dyDescent="0.2">
@@ -11132,22 +11129,22 @@
         <v>3LBASIS</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E144" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>GBP_YC3MRH_SB3LBASIS17Y</v>
-      </c>
-      <c r="F144" s="7" t="e">
+        <f>'3M_SwapsFromBasis'!L25</f>
+        <v>GBP_YC3MRH_SB3LBASIS20Y#0001</v>
+      </c>
+      <c r="F144" s="7">
         <f>_xll.qlRateHelperQuoteValue($E144,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.7300000000000001E-2</v>
       </c>
       <c r="G144" s="7">
         <f>_xll.qlSwapRateHelperSpread($E144,Trigger)</f>
-        <v>8.2810949429725942E-4</v>
+        <v>7.6250000000000005E-4</v>
       </c>
       <c r="H144" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" s="6">
         <v>40</v>
@@ -11161,7 +11158,7 @@
       </c>
       <c r="L144" s="4">
         <f>_xll.qlRateHelperLatestDate($E144,Trigger)</f>
-        <v>47862</v>
+        <v>48960</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.2">
@@ -11174,11 +11171,11 @@
         <v>3LBASIS</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E145" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>GBP_YC3MRH_SB3LBASIS18Y</v>
+        <f>'3M_SwapsFromBasis'!L26</f>
+        <v>GBP_YC3MRH_SB3LBASIS21Y#0001</v>
       </c>
       <c r="F145" s="7" t="e">
         <f>_xll.qlRateHelperQuoteValue($E145,Trigger)</f>
@@ -11186,7 +11183,7 @@
       </c>
       <c r="G145" s="7">
         <f>_xll.qlSwapRateHelperSpread($E145,Trigger)</f>
-        <v>8.0538981511706173E-4</v>
+        <v>7.4272602648057585E-4</v>
       </c>
       <c r="H145" s="6" t="b">
         <v>0</v>
@@ -11203,7 +11200,7 @@
       </c>
       <c r="L145" s="4">
         <f>_xll.qlRateHelperLatestDate($E145,Trigger)</f>
-        <v>48227</v>
+        <v>49324</v>
       </c>
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.2">
@@ -11216,11 +11213,11 @@
         <v>3LBASIS</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E146" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>GBP_YC3MRH_SB3LBASIS19Y</v>
+        <f>'3M_SwapsFromBasis'!L27</f>
+        <v>GBP_YC3MRH_SB3LBASIS22Y#0001</v>
       </c>
       <c r="F146" s="7" t="e">
         <f>_xll.qlRateHelperQuoteValue($E146,Trigger)</f>
@@ -11228,7 +11225,7 @@
       </c>
       <c r="G146" s="7">
         <f>_xll.qlSwapRateHelperSpread($E146,Trigger)</f>
-        <v>7.8344675729124288E-4</v>
+        <v>7.2412853619839449E-4</v>
       </c>
       <c r="H146" s="6" t="b">
         <v>0</v>
@@ -11245,7 +11242,7 @@
       </c>
       <c r="L146" s="4">
         <f>_xll.qlRateHelperLatestDate($E146,Trigger)</f>
-        <v>48593</v>
+        <v>49688</v>
       </c>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.2">
@@ -11258,22 +11255,22 @@
         <v>3LBASIS</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E147" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>GBP_YC3MRH_SB3LBASIS20Y</v>
-      </c>
-      <c r="F147" s="7">
+        <f>'3M_SwapsFromBasis'!L28</f>
+        <v>GBP_YC3MRH_SB3LBASIS23Y#0001</v>
+      </c>
+      <c r="F147" s="7" t="e">
         <f>_xll.qlRateHelperQuoteValue($E147,Trigger)</f>
-        <v>2.7300000000000001E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G147" s="7">
         <f>_xll.qlSwapRateHelperSpread($E147,Trigger)</f>
-        <v>7.6250000000000005E-4</v>
+        <v>7.0666803267592504E-4</v>
       </c>
       <c r="H147" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" s="6">
         <v>40</v>
@@ -11287,7 +11284,7 @@
       </c>
       <c r="L147" s="4">
         <f>_xll.qlRateHelperLatestDate($E147,Trigger)</f>
-        <v>48960</v>
+        <v>50054</v>
       </c>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.2">
@@ -11300,11 +11297,11 @@
         <v>3LBASIS</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E148" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>GBP_YC3MRH_SB3LBASIS21Y</v>
+        <f>'3M_SwapsFromBasis'!L29</f>
+        <v>GBP_YC3MRH_SB3LBASIS24Y#0001</v>
       </c>
       <c r="F148" s="7" t="e">
         <f>_xll.qlRateHelperQuoteValue($E148,Trigger)</f>
@@ -11312,7 +11309,7 @@
       </c>
       <c r="G148" s="7">
         <f>_xll.qlSwapRateHelperSpread($E148,Trigger)</f>
-        <v>7.4272602648057585E-4</v>
+        <v>6.9030501943563723E-4</v>
       </c>
       <c r="H148" s="6" t="b">
         <v>0</v>
@@ -11329,12 +11326,12 @@
       </c>
       <c r="L148" s="4">
         <f>_xll.qlRateHelperLatestDate($E148,Trigger)</f>
-        <v>49324</v>
+        <v>50419</v>
       </c>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B149" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="B149:B158" si="12">SwapFixedFreq</f>
         <v>SB</v>
       </c>
       <c r="C149" s="12" t="str">
@@ -11342,22 +11339,22 @@
         <v>3LBASIS</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E149" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>GBP_YC3MRH_SB3LBASIS22Y</v>
-      </c>
-      <c r="F149" s="7" t="e">
+        <f>'3M_SwapsFromBasis'!L30</f>
+        <v>GBP_YC3MRH_SB3LBASIS25Y#0001</v>
+      </c>
+      <c r="F149" s="7">
         <f>_xll.qlRateHelperQuoteValue($E149,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.8875000000000001E-2</v>
       </c>
       <c r="G149" s="7">
         <f>_xll.qlSwapRateHelperSpread($E149,Trigger)</f>
-        <v>7.2412853619839449E-4</v>
+        <v>6.7500000000000004E-4</v>
       </c>
       <c r="H149" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" s="6">
         <v>40</v>
@@ -11371,12 +11368,12 @@
       </c>
       <c r="L149" s="4">
         <f>_xll.qlRateHelperLatestDate($E149,Trigger)</f>
-        <v>49688</v>
+        <v>50784</v>
       </c>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B150" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>SB</v>
       </c>
       <c r="C150" s="12" t="str">
@@ -11384,11 +11381,11 @@
         <v>3LBASIS</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E150" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>GBP_YC3MRH_SB3LBASIS23Y</v>
+        <f>'3M_SwapsFromBasis'!L31</f>
+        <v>GBP_YC3MRH_SB3LBASIS26Y#0001</v>
       </c>
       <c r="F150" s="7" t="e">
         <f>_xll.qlRateHelperQuoteValue($E150,Trigger)</f>
@@ -11396,7 +11393,7 @@
       </c>
       <c r="G150" s="7">
         <f>_xll.qlSwapRateHelperSpread($E150,Trigger)</f>
-        <v>7.0666803267592504E-4</v>
+        <v>6.6070977842605885E-4</v>
       </c>
       <c r="H150" s="6" t="b">
         <v>0</v>
@@ -11413,12 +11410,12 @@
       </c>
       <c r="L150" s="4">
         <f>_xll.qlRateHelperLatestDate($E150,Trigger)</f>
-        <v>50054</v>
+        <v>51151</v>
       </c>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B151" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>SB</v>
       </c>
       <c r="C151" s="12" t="str">
@@ -11426,11 +11423,11 @@
         <v>3LBASIS</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E151" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>GBP_YC3MRH_SB3LBASIS24Y</v>
+        <f>'3M_SwapsFromBasis'!L32</f>
+        <v>GBP_YC3MRH_SB3LBASIS27Y#0001</v>
       </c>
       <c r="F151" s="7" t="e">
         <f>_xll.qlRateHelperQuoteValue($E151,Trigger)</f>
@@ -11438,7 +11435,7 @@
       </c>
       <c r="G151" s="7">
         <f>_xll.qlSwapRateHelperSpread($E151,Trigger)</f>
-        <v>6.9030501943563723E-4</v>
+        <v>6.4737636090916309E-4</v>
       </c>
       <c r="H151" s="6" t="b">
         <v>0</v>
@@ -11455,12 +11452,12 @@
       </c>
       <c r="L151" s="4">
         <f>_xll.qlRateHelperLatestDate($E151,Trigger)</f>
-        <v>50419</v>
+        <v>51515</v>
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B152" s="13" t="str">
-        <f t="shared" ref="B152:B161" si="12">SwapFixedFreq</f>
+        <f t="shared" si="12"/>
         <v>SB</v>
       </c>
       <c r="C152" s="12" t="str">
@@ -11468,22 +11465,22 @@
         <v>3LBASIS</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E152" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>GBP_YC3MRH_SB3LBASIS25Y</v>
-      </c>
-      <c r="F152" s="7">
+        <f>'3M_SwapsFromBasis'!L33</f>
+        <v>GBP_YC3MRH_SB3LBASIS28Y#0001</v>
+      </c>
+      <c r="F152" s="7" t="e">
         <f>_xll.qlRateHelperQuoteValue($E152,Trigger)</f>
-        <v>2.8875000000000001E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G152" s="7">
         <f>_xll.qlSwapRateHelperSpread($E152,Trigger)</f>
-        <v>6.7500000000000004E-4</v>
+        <v>6.3493805417923785E-4</v>
       </c>
       <c r="H152" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" s="6">
         <v>40</v>
@@ -11497,7 +11494,7 @@
       </c>
       <c r="L152" s="4">
         <f>_xll.qlRateHelperLatestDate($E152,Trigger)</f>
-        <v>50784</v>
+        <v>51880</v>
       </c>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.2">
@@ -11510,11 +11507,11 @@
         <v>3LBASIS</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E153" s="8" t="str">
-        <f t="shared" si="10"/>
-        <v>GBP_YC3MRH_SB3LBASIS26Y</v>
+        <f>'3M_SwapsFromBasis'!L34</f>
+        <v>GBP_YC3MRH_SB3LBASIS29Y#0001</v>
       </c>
       <c r="F153" s="7" t="e">
         <f>_xll.qlRateHelperQuoteValue($E153,Trigger)</f>
@@ -11522,7 +11519,7 @@
       </c>
       <c r="G153" s="7">
         <f>_xll.qlSwapRateHelperSpread($E153,Trigger)</f>
-        <v>6.6070977842605885E-4</v>
+        <v>6.2333316496620834E-4</v>
       </c>
       <c r="H153" s="6" t="b">
         <v>0</v>
@@ -11539,7 +11536,7 @@
       </c>
       <c r="L153" s="4">
         <f>_xll.qlRateHelperLatestDate($E153,Trigger)</f>
-        <v>51151</v>
+        <v>52245</v>
       </c>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.2">
@@ -11552,22 +11549,22 @@
         <v>3LBASIS</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E154" s="8" t="str">
-        <f t="shared" ref="E154:E161" si="13">RateHelperPrefix&amp;"_"&amp;$B154&amp;$C154&amp;$D154</f>
-        <v>GBP_YC3MRH_SB3LBASIS27Y</v>
-      </c>
-      <c r="F154" s="7" t="e">
+        <f>'3M_SwapsFromBasis'!L35</f>
+        <v>GBP_YC3MRH_SB3LBASIS30Y#0001</v>
+      </c>
+      <c r="F154" s="7">
         <f>_xll.qlRateHelperQuoteValue($E154,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.9575000000000001E-2</v>
       </c>
       <c r="G154" s="7">
         <f>_xll.qlSwapRateHelperSpread($E154,Trigger)</f>
-        <v>6.4737636090916309E-4</v>
+        <v>6.1249999999999998E-4</v>
       </c>
       <c r="H154" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" s="6">
         <v>40</v>
@@ -11581,7 +11578,7 @@
       </c>
       <c r="L154" s="4">
         <f>_xll.qlRateHelperLatestDate($E154,Trigger)</f>
-        <v>51515</v>
+        <v>52610</v>
       </c>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.2">
@@ -11594,11 +11591,11 @@
         <v>3LBASIS</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E155" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>GBP_YC3MRH_SB3LBASIS28Y</v>
+        <f>'3M_SwapsFromBasis'!L36</f>
+        <v>GBP_YC3MRH_SB3LBASIS35Y#0001</v>
       </c>
       <c r="F155" s="7" t="e">
         <f>_xll.qlRateHelperQuoteValue($E155,Trigger)</f>
@@ -11606,7 +11603,7 @@
       </c>
       <c r="G155" s="7">
         <f>_xll.qlSwapRateHelperSpread($E155,Trigger)</f>
-        <v>6.3493805417923785E-4</v>
+        <v>6.1249999999999998E-4</v>
       </c>
       <c r="H155" s="6" t="b">
         <v>0</v>
@@ -11623,7 +11620,7 @@
       </c>
       <c r="L155" s="4">
         <f>_xll.qlRateHelperLatestDate($E155,Trigger)</f>
-        <v>51880</v>
+        <v>54437</v>
       </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.2">
@@ -11636,22 +11633,22 @@
         <v>3LBASIS</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E156" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>GBP_YC3MRH_SB3LBASIS29Y</v>
-      </c>
-      <c r="F156" s="7" t="e">
+        <f>'3M_SwapsFromBasis'!L37</f>
+        <v>GBP_YC3MRH_SB3LBASIS40Y#0001</v>
+      </c>
+      <c r="F156" s="7">
         <f>_xll.qlRateHelperQuoteValue($E156,Trigger)</f>
-        <v>#NUM!</v>
+        <v>3.0374999999999999E-2</v>
       </c>
       <c r="G156" s="7">
         <f>_xll.qlSwapRateHelperSpread($E156,Trigger)</f>
-        <v>6.2333316496620834E-4</v>
+        <v>6.1249999999999998E-4</v>
       </c>
       <c r="H156" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" s="6">
         <v>40</v>
@@ -11665,7 +11662,7 @@
       </c>
       <c r="L156" s="4">
         <f>_xll.qlRateHelperLatestDate($E156,Trigger)</f>
-        <v>52245</v>
+        <v>56263</v>
       </c>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.2">
@@ -11678,15 +11675,15 @@
         <v>3LBASIS</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E157" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>GBP_YC3MRH_SB3LBASIS30Y</v>
+        <f>'3M_SwapsFromBasis'!L38</f>
+        <v>GBP_YC3MRH_SB3LBASIS50Y#0001</v>
       </c>
       <c r="F157" s="7">
         <f>_xll.qlRateHelperQuoteValue($E157,Trigger)</f>
-        <v>2.9575000000000001E-2</v>
+        <v>3.0550000000000001E-2</v>
       </c>
       <c r="G157" s="7">
         <f>_xll.qlSwapRateHelperSpread($E157,Trigger)</f>
@@ -11707,35 +11704,35 @@
       </c>
       <c r="L157" s="4">
         <f>_xll.qlRateHelperLatestDate($E157,Trigger)</f>
-        <v>52610</v>
+        <v>59915</v>
       </c>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B158" s="13" t="str">
+      <c r="B158" s="11" t="str">
         <f t="shared" si="12"/>
         <v>SB</v>
       </c>
-      <c r="C158" s="12" t="str">
+      <c r="C158" s="10" t="str">
         <f t="shared" si="11"/>
         <v>3LBASIS</v>
       </c>
-      <c r="D158" s="8" t="s">
-        <v>3</v>
+      <c r="D158" s="9" t="s">
+        <v>0</v>
       </c>
       <c r="E158" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>GBP_YC3MRH_SB3LBASIS35Y</v>
-      </c>
-      <c r="F158" s="7" t="e">
+        <f>'3M_SwapsFromBasis'!L39</f>
+        <v>GBP_YC3MRH_SB3LBASIS60Y#0001</v>
+      </c>
+      <c r="F158" s="7">
         <f>_xll.qlRateHelperQuoteValue($E158,Trigger)</f>
-        <v>#NUM!</v>
+        <v>3.0800000000000001E-2</v>
       </c>
       <c r="G158" s="7">
         <f>_xll.qlSwapRateHelperSpread($E158,Trigger)</f>
         <v>6.1249999999999998E-4</v>
       </c>
       <c r="H158" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" s="6">
         <v>40</v>
@@ -11749,144 +11746,18 @@
       </c>
       <c r="L158" s="4">
         <f>_xll.qlRateHelperLatestDate($E158,Trigger)</f>
-        <v>54437</v>
+        <v>63569</v>
       </c>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B159" s="13" t="str">
-        <f t="shared" si="12"/>
-        <v>SB</v>
-      </c>
-      <c r="C159" s="12" t="str">
-        <f t="shared" si="11"/>
-        <v>3LBASIS</v>
-      </c>
-      <c r="D159" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E159" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>GBP_YC3MRH_SB3LBASIS40Y</v>
-      </c>
-      <c r="F159" s="7">
-        <f>_xll.qlRateHelperQuoteValue($E159,Trigger)</f>
-        <v>3.0374999999999999E-2</v>
-      </c>
-      <c r="G159" s="7">
-        <f>_xll.qlSwapRateHelperSpread($E159,Trigger)</f>
-        <v>6.1249999999999998E-4</v>
-      </c>
-      <c r="H159" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I159" s="6">
-        <v>40</v>
-      </c>
-      <c r="J159" s="6">
-        <v>1</v>
-      </c>
-      <c r="K159" s="5">
-        <f>_xll.qlRateHelperEarliestDate($E159,Trigger)</f>
-        <v>41653</v>
-      </c>
-      <c r="L159" s="4">
-        <f>_xll.qlRateHelperLatestDate($E159,Trigger)</f>
-        <v>56263</v>
-      </c>
-    </row>
-    <row r="160" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B160" s="13" t="str">
-        <f t="shared" si="12"/>
-        <v>SB</v>
-      </c>
-      <c r="C160" s="12" t="str">
-        <f t="shared" si="11"/>
-        <v>3LBASIS</v>
-      </c>
-      <c r="D160" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E160" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>GBP_YC3MRH_SB3LBASIS50Y</v>
-      </c>
-      <c r="F160" s="7">
-        <f>_xll.qlRateHelperQuoteValue($E160,Trigger)</f>
-        <v>3.0550000000000001E-2</v>
-      </c>
-      <c r="G160" s="7">
-        <f>_xll.qlSwapRateHelperSpread($E160,Trigger)</f>
-        <v>6.1249999999999998E-4</v>
-      </c>
-      <c r="H160" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I160" s="6">
-        <v>40</v>
-      </c>
-      <c r="J160" s="6">
-        <v>1</v>
-      </c>
-      <c r="K160" s="5">
-        <f>_xll.qlRateHelperEarliestDate($E160,Trigger)</f>
-        <v>41653</v>
-      </c>
-      <c r="L160" s="4">
-        <f>_xll.qlRateHelperLatestDate($E160,Trigger)</f>
-        <v>59915</v>
-      </c>
-    </row>
-    <row r="161" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B161" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v>SB</v>
-      </c>
-      <c r="C161" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>3LBASIS</v>
-      </c>
-      <c r="D161" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E161" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>GBP_YC3MRH_SB3LBASIS60Y</v>
-      </c>
-      <c r="F161" s="7">
-        <f>_xll.qlRateHelperQuoteValue($E161,Trigger)</f>
-        <v>3.0800000000000001E-2</v>
-      </c>
-      <c r="G161" s="7">
-        <f>_xll.qlSwapRateHelperSpread($E161,Trigger)</f>
-        <v>6.1249999999999998E-4</v>
-      </c>
-      <c r="H161" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I161" s="6">
-        <v>40</v>
-      </c>
-      <c r="J161" s="6">
-        <v>1</v>
-      </c>
-      <c r="K161" s="5">
-        <f>_xll.qlRateHelperEarliestDate($E161,Trigger)</f>
-        <v>41653</v>
-      </c>
-      <c r="L161" s="4">
-        <f>_xll.qlRateHelperLatestDate($E161,Trigger)</f>
-        <v>63569</v>
-      </c>
-    </row>
-    <row r="162" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="E162" s="3"/>
-      <c r="F162" s="3"/>
-      <c r="G162" s="3"/>
-      <c r="H162" s="3"/>
-      <c r="I162" s="3"/>
-      <c r="J162" s="3"/>
-      <c r="K162" s="3"/>
-      <c r="L162" s="3"/>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="3"/>
+      <c r="I159" s="3"/>
+      <c r="J159" s="3"/>
+      <c r="K159" s="3"/>
+      <c r="L159" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11924,10 +11795,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="197" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="194"/>
+      <c r="B1" s="198"/>
       <c r="D1" s="52" t="s">
         <v>75</v>
       </c>
@@ -12131,7 +12002,7 @@
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_RateHelpersSelected#0015</v>
+        <v>GBP_YC3MRH_RateHelpersSelected#0009</v>
       </c>
       <c r="B7" s="42" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -15253,7 +15124,7 @@
       </c>
       <c r="F3" s="105" t="str">
         <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SWD#0003</v>
+        <v>GBP_YC3MRH_SWD#0001</v>
       </c>
       <c r="G3" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -15284,7 +15155,7 @@
       </c>
       <c r="F4" s="105" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_2WD#0003</v>
+        <v>GBP_YC3MRH_2WD#0001</v>
       </c>
       <c r="G4" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -15315,7 +15186,7 @@
       </c>
       <c r="F5" s="105" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_3WD#0003</v>
+        <v>GBP_YC3MRH_3WD#0001</v>
       </c>
       <c r="G5" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -15346,7 +15217,7 @@
       </c>
       <c r="F6" s="105" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_1MD#0003</v>
+        <v>GBP_YC3MRH_1MD#0001</v>
       </c>
       <c r="G6" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -15377,7 +15248,7 @@
       </c>
       <c r="F7" s="105" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_2MD#0003</v>
+        <v>GBP_YC3MRH_2MD#0001</v>
       </c>
       <c r="G7" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -15408,7 +15279,7 @@
       </c>
       <c r="F8" s="105" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_3MD#0003</v>
+        <v>GBP_YC3MRH_3MD#0001</v>
       </c>
       <c r="G8" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -15440,7 +15311,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:L123"/>
+  <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15505,7 +15376,7 @@
         <v>GBP_YC3MRH_Futures3M.xml</v>
       </c>
       <c r="I2" s="112" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I44,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
         <v>#VALUE!</v>
       </c>
       <c r="J2" s="111" t="str">
@@ -15523,7 +15394,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="142" t="str">
-        <f t="array" ref="D3:D122">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$C3:$C122)</f>
+        <f t="array" ref="D3:D44">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,C3:C44)</f>
         <v>F4</v>
       </c>
       <c r="E3" s="142" t="str">
@@ -15544,7 +15415,7 @@
       </c>
       <c r="I3" s="147" t="str">
         <f>_xll.qlFuturesRateHelper(H3,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MF4#0003</v>
+        <v>GBP_YC3MRH_FUT3MF4#0001</v>
       </c>
       <c r="J3" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -15582,7 +15453,7 @@
       </c>
       <c r="I4" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H4,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MG4#0003</v>
+        <v>GBP_YC3MRH_FUT3MG4#0001</v>
       </c>
       <c r="J4" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -15620,7 +15491,7 @@
       </c>
       <c r="I5" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H5,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MH4#0003</v>
+        <v>GBP_YC3MRH_FUT3MH4#0001</v>
       </c>
       <c r="J5" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -15658,7 +15529,7 @@
       </c>
       <c r="I6" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H6,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MJ4#0003</v>
+        <v>GBP_YC3MRH_FUT3MJ4#0001</v>
       </c>
       <c r="J6" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -15696,7 +15567,7 @@
       </c>
       <c r="I7" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H7,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MK4#0003</v>
+        <v>GBP_YC3MRH_FUT3MK4#0001</v>
       </c>
       <c r="J7" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -15734,7 +15605,7 @@
       </c>
       <c r="I8" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H8,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MM4#0003</v>
+        <v>GBP_YC3MRH_FUT3MM4#0001</v>
       </c>
       <c r="J8" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -15772,7 +15643,7 @@
       </c>
       <c r="I9" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H9,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MN4#0003</v>
+        <v>GBP_YC3MRH_FUT3MN4#0001</v>
       </c>
       <c r="J9" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -15810,7 +15681,7 @@
       </c>
       <c r="I10" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H10,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MQ4#0003</v>
+        <v>GBP_YC3MRH_FUT3MQ4#0001</v>
       </c>
       <c r="J10" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -15848,7 +15719,7 @@
       </c>
       <c r="I11" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H11,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MU4#0003</v>
+        <v>GBP_YC3MRH_FUT3MU4#0001</v>
       </c>
       <c r="J11" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -15886,7 +15757,7 @@
       </c>
       <c r="I12" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H12,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MV4#0003</v>
+        <v>GBP_YC3MRH_FUT3MV4#0001</v>
       </c>
       <c r="J12" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -15924,7 +15795,7 @@
       </c>
       <c r="I13" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H13,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MX4#0003</v>
+        <v>GBP_YC3MRH_FUT3MX4#0001</v>
       </c>
       <c r="J13" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -15962,7 +15833,7 @@
       </c>
       <c r="I14" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H14,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MZ4#0003</v>
+        <v>GBP_YC3MRH_FUT3MZ4#0001</v>
       </c>
       <c r="J14" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -15977,10 +15848,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="143" t="str">
-        <v>F5</v>
+        <v>H5</v>
       </c>
       <c r="E15" s="142" t="str">
         <f t="shared" si="0"/>
@@ -15988,23 +15859,23 @@
       </c>
       <c r="F15" s="141" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MF5_Quote</v>
+        <v>GBPFUT3MH5_Quote</v>
       </c>
       <c r="G15" s="141" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MF5ConvAdj_Quote</v>
+        <v>GBPFUT3MH5ConvAdj_Quote</v>
       </c>
       <c r="H15" s="141" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YC3MRH_FUT3MF5</v>
-      </c>
-      <c r="I15" s="140" t="e">
+        <v>GBP_YC3MRH_FUT3MH5</v>
+      </c>
+      <c r="I15" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H15,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YC3MRH_FUT3MH5#0001</v>
       </c>
       <c r="J15" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I15)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MF5_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I15)</f>
+        <v/>
       </c>
       <c r="K15" s="103"/>
       <c r="L15" s="145"/>
@@ -16015,10 +15886,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="143" t="str">
-        <v>G5</v>
+        <v>M5</v>
       </c>
       <c r="E16" s="142" t="str">
         <f t="shared" si="0"/>
@@ -16026,37 +15897,37 @@
       </c>
       <c r="F16" s="141" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MG5_Quote</v>
+        <v>GBPFUT3MM5_Quote</v>
       </c>
       <c r="G16" s="141" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MG5ConvAdj_Quote</v>
+        <v>GBPFUT3MM5ConvAdj_Quote</v>
       </c>
       <c r="H16" s="141" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YC3MRH_FUT3MG5</v>
-      </c>
-      <c r="I16" s="140" t="e">
+        <v>GBP_YC3MRH_FUT3MM5</v>
+      </c>
+      <c r="I16" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H16,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YC3MRH_FUT3MM5#0001</v>
       </c>
       <c r="J16" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I16)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MG5_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I16)</f>
+        <v/>
       </c>
       <c r="K16" s="103"/>
       <c r="L16" s="145"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="144"/>
       <c r="B17" s="109">
         <v>15</v>
       </c>
       <c r="C17" s="143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="143" t="str">
-        <v>H5</v>
+        <v>U5</v>
       </c>
       <c r="E17" s="142" t="str">
         <f t="shared" si="0"/>
@@ -16064,19 +15935,19 @@
       </c>
       <c r="F17" s="141" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MH5_Quote</v>
+        <v>GBPFUT3MU5_Quote</v>
       </c>
       <c r="G17" s="141" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MH5ConvAdj_Quote</v>
+        <v>GBPFUT3MU5ConvAdj_Quote</v>
       </c>
       <c r="H17" s="141" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YC3MRH_FUT3MH5</v>
+        <v>GBP_YC3MRH_FUT3MU5</v>
       </c>
       <c r="I17" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H17,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MH5#0003</v>
+        <v>GBP_YC3MRH_FUT3MU5#0001</v>
       </c>
       <c r="J17" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -16085,16 +15956,16 @@
       <c r="K17" s="103"/>
       <c r="L17" s="145"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="144"/>
       <c r="B18" s="109">
         <v>16</v>
       </c>
       <c r="C18" s="143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="143" t="str">
-        <v>J5</v>
+        <v>Z5</v>
       </c>
       <c r="E18" s="142" t="str">
         <f t="shared" si="0"/>
@@ -16102,37 +15973,37 @@
       </c>
       <c r="F18" s="141" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MJ5_Quote</v>
+        <v>GBPFUT3MZ5_Quote</v>
       </c>
       <c r="G18" s="141" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MJ5ConvAdj_Quote</v>
+        <v>GBPFUT3MZ5ConvAdj_Quote</v>
       </c>
       <c r="H18" s="141" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YC3MRH_FUT3MJ5</v>
-      </c>
-      <c r="I18" s="140" t="e">
+        <v>GBP_YC3MRH_FUT3MZ5</v>
+      </c>
+      <c r="I18" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H18,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YC3MRH_FUT3MZ5#0001</v>
       </c>
       <c r="J18" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I18)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MJ5_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I18)</f>
+        <v/>
       </c>
       <c r="K18" s="103"/>
       <c r="L18" s="145"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="144"/>
       <c r="B19" s="109">
         <v>17</v>
       </c>
       <c r="C19" s="143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="143" t="str">
-        <v>K5</v>
+        <v>H6</v>
       </c>
       <c r="E19" s="142" t="str">
         <f t="shared" si="0"/>
@@ -16140,37 +16011,37 @@
       </c>
       <c r="F19" s="141" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MK5_Quote</v>
+        <v>GBPFUT3MH6_Quote</v>
       </c>
       <c r="G19" s="141" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MK5ConvAdj_Quote</v>
+        <v>GBPFUT3MH6ConvAdj_Quote</v>
       </c>
       <c r="H19" s="141" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YC3MRH_FUT3MK5</v>
-      </c>
-      <c r="I19" s="140" t="e">
+        <v>GBP_YC3MRH_FUT3MH6</v>
+      </c>
+      <c r="I19" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H19,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YC3MRH_FUT3MH6#0001</v>
       </c>
       <c r="J19" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I19)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MK5_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I19)</f>
+        <v/>
       </c>
       <c r="K19" s="103"/>
       <c r="L19" s="145"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="144"/>
       <c r="B20" s="109">
         <v>18</v>
       </c>
       <c r="C20" s="143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="143" t="str">
-        <v>M5</v>
+        <v>M6</v>
       </c>
       <c r="E20" s="142" t="str">
         <f t="shared" si="0"/>
@@ -16178,19 +16049,19 @@
       </c>
       <c r="F20" s="141" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MM5_Quote</v>
+        <v>GBPFUT3MM6_Quote</v>
       </c>
       <c r="G20" s="141" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MM5ConvAdj_Quote</v>
+        <v>GBPFUT3MM6ConvAdj_Quote</v>
       </c>
       <c r="H20" s="141" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YC3MRH_FUT3MM5</v>
+        <v>GBP_YC3MRH_FUT3MM6</v>
       </c>
       <c r="I20" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H20,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MM5#0003</v>
+        <v>GBP_YC3MRH_FUT3MM6#0001</v>
       </c>
       <c r="J20" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -16199,16 +16070,16 @@
       <c r="K20" s="103"/>
       <c r="L20" s="145"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="144"/>
       <c r="B21" s="109">
         <v>19</v>
       </c>
       <c r="C21" s="143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="143" t="str">
-        <v>N5</v>
+        <v>U6</v>
       </c>
       <c r="E21" s="142" t="str">
         <f t="shared" si="0"/>
@@ -16216,37 +16087,37 @@
       </c>
       <c r="F21" s="141" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MN5_Quote</v>
+        <v>GBPFUT3MU6_Quote</v>
       </c>
       <c r="G21" s="141" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MN5ConvAdj_Quote</v>
+        <v>GBPFUT3MU6ConvAdj_Quote</v>
       </c>
       <c r="H21" s="141" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YC3MRH_FUT3MN5</v>
-      </c>
-      <c r="I21" s="140" t="e">
+        <v>GBP_YC3MRH_FUT3MU6</v>
+      </c>
+      <c r="I21" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H21,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YC3MRH_FUT3MU6#0001</v>
       </c>
       <c r="J21" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I21)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MN5_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I21)</f>
+        <v/>
       </c>
       <c r="K21" s="103"/>
       <c r="L21" s="145"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="144"/>
       <c r="B22" s="109">
         <v>20</v>
       </c>
       <c r="C22" s="143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="143" t="str">
-        <v>Q5</v>
+        <v>Z6</v>
       </c>
       <c r="E22" s="142" t="str">
         <f t="shared" si="0"/>
@@ -16254,37 +16125,37 @@
       </c>
       <c r="F22" s="141" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MQ5_Quote</v>
+        <v>GBPFUT3MZ6_Quote</v>
       </c>
       <c r="G22" s="141" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MQ5ConvAdj_Quote</v>
+        <v>GBPFUT3MZ6ConvAdj_Quote</v>
       </c>
       <c r="H22" s="141" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YC3MRH_FUT3MQ5</v>
-      </c>
-      <c r="I22" s="140" t="e">
+        <v>GBP_YC3MRH_FUT3MZ6</v>
+      </c>
+      <c r="I22" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H22,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YC3MRH_FUT3MZ6#0001</v>
       </c>
       <c r="J22" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I22)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MQ5_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I22)</f>
+        <v/>
       </c>
       <c r="K22" s="103"/>
       <c r="L22" s="145"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="144"/>
       <c r="B23" s="109">
         <v>21</v>
       </c>
       <c r="C23" s="143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="143" t="str">
-        <v>U5</v>
+        <v>H7</v>
       </c>
       <c r="E23" s="142" t="str">
         <f t="shared" si="0"/>
@@ -16292,19 +16163,19 @@
       </c>
       <c r="F23" s="141" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MU5_Quote</v>
+        <v>GBPFUT3MH7_Quote</v>
       </c>
       <c r="G23" s="141" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MU5ConvAdj_Quote</v>
+        <v>GBPFUT3MH7ConvAdj_Quote</v>
       </c>
       <c r="H23" s="141" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YC3MRH_FUT3MU5</v>
+        <v>GBP_YC3MRH_FUT3MH7</v>
       </c>
       <c r="I23" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H23,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MU5#0003</v>
+        <v>GBP_YC3MRH_FUT3MH7#0001</v>
       </c>
       <c r="J23" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
@@ -16313,16 +16184,16 @@
       <c r="K23" s="103"/>
       <c r="L23" s="145"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="144"/>
       <c r="B24" s="109">
         <v>22</v>
       </c>
       <c r="C24" s="143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="143" t="str">
-        <v>V5</v>
+        <v>M7</v>
       </c>
       <c r="E24" s="142" t="str">
         <f t="shared" si="0"/>
@@ -16330,37 +16201,37 @@
       </c>
       <c r="F24" s="141" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MV5_Quote</v>
+        <v>GBPFUT3MM7_Quote</v>
       </c>
       <c r="G24" s="141" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MV5ConvAdj_Quote</v>
+        <v>GBPFUT3MM7ConvAdj_Quote</v>
       </c>
       <c r="H24" s="141" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YC3MRH_FUT3MV5</v>
-      </c>
-      <c r="I24" s="140" t="e">
+        <v>GBP_YC3MRH_FUT3MM7</v>
+      </c>
+      <c r="I24" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H24,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YC3MRH_FUT3MM7#0001</v>
       </c>
       <c r="J24" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I24)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MV5_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I24)</f>
+        <v/>
       </c>
       <c r="K24" s="103"/>
       <c r="L24" s="145"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="144"/>
       <c r="B25" s="109">
         <v>23</v>
       </c>
       <c r="C25" s="143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="143" t="str">
-        <v>X5</v>
+        <v>U7</v>
       </c>
       <c r="E25" s="142" t="str">
         <f t="shared" si="0"/>
@@ -16368,37 +16239,37 @@
       </c>
       <c r="F25" s="141" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MX5_Quote</v>
+        <v>GBPFUT3MU7_Quote</v>
       </c>
       <c r="G25" s="141" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MX5ConvAdj_Quote</v>
+        <v>GBPFUT3MU7ConvAdj_Quote</v>
       </c>
       <c r="H25" s="141" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YC3MRH_FUT3MX5</v>
-      </c>
-      <c r="I25" s="140" t="e">
+        <v>GBP_YC3MRH_FUT3MU7</v>
+      </c>
+      <c r="I25" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H25,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YC3MRH_FUT3MU7#0001</v>
       </c>
       <c r="J25" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I25)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MX5_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I25)</f>
+        <v/>
       </c>
       <c r="K25" s="103"/>
       <c r="L25" s="145"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="144"/>
       <c r="B26" s="109">
         <v>24</v>
       </c>
       <c r="C26" s="143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="143" t="str">
-        <v>Z5</v>
+        <v>Z7</v>
       </c>
       <c r="E26" s="142" t="str">
         <f t="shared" si="0"/>
@@ -16406,19 +16277,19 @@
       </c>
       <c r="F26" s="141" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MZ5_Quote</v>
+        <v>GBPFUT3MZ7_Quote</v>
       </c>
       <c r="G26" s="141" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MZ5ConvAdj_Quote</v>
+        <v>GBPFUT3MZ7ConvAdj_Quote</v>
       </c>
       <c r="H26" s="141" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YC3MRH_FUT3MZ5</v>
+        <v>GBP_YC3MRH_FUT3MZ7</v>
       </c>
       <c r="I26" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H26,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MZ5#0003</v>
+        <v>GBP_YC3MRH_FUT3MZ7#0001</v>
       </c>
       <c r="J26" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
@@ -16427,16 +16298,16 @@
       <c r="K26" s="103"/>
       <c r="L26" s="145"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="144"/>
       <c r="B27" s="109">
         <v>25</v>
       </c>
       <c r="C27" s="143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="143" t="str">
-        <v>F6</v>
+        <v>H8</v>
       </c>
       <c r="E27" s="142" t="str">
         <f t="shared" si="0"/>
@@ -16444,37 +16315,37 @@
       </c>
       <c r="F27" s="141" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MF6_Quote</v>
+        <v>GBPFUT3MH8_Quote</v>
       </c>
       <c r="G27" s="141" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MF6ConvAdj_Quote</v>
+        <v>GBPFUT3MH8ConvAdj_Quote</v>
       </c>
       <c r="H27" s="141" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YC3MRH_FUT3MF6</v>
-      </c>
-      <c r="I27" s="140" t="e">
+        <v>GBP_YC3MRH_FUT3MH8</v>
+      </c>
+      <c r="I27" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H27,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YC3MRH_FUT3MH8#0001</v>
       </c>
       <c r="J27" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I27)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MF6_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I27)</f>
+        <v/>
       </c>
       <c r="K27" s="103"/>
       <c r="L27" s="145"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="144"/>
       <c r="B28" s="109">
         <v>26</v>
       </c>
       <c r="C28" s="143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="143" t="str">
-        <v>G6</v>
+        <v>M8</v>
       </c>
       <c r="E28" s="142" t="str">
         <f t="shared" si="0"/>
@@ -16482,37 +16353,37 @@
       </c>
       <c r="F28" s="141" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MG6_Quote</v>
+        <v>GBPFUT3MM8_Quote</v>
       </c>
       <c r="G28" s="141" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MG6ConvAdj_Quote</v>
+        <v>GBPFUT3MM8ConvAdj_Quote</v>
       </c>
       <c r="H28" s="141" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YC3MRH_FUT3MG6</v>
-      </c>
-      <c r="I28" s="140" t="e">
+        <v>GBP_YC3MRH_FUT3MM8</v>
+      </c>
+      <c r="I28" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H28,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YC3MRH_FUT3MM8#0001</v>
       </c>
       <c r="J28" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I28)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MG6_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I28)</f>
+        <v/>
       </c>
       <c r="K28" s="103"/>
       <c r="L28" s="145"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="144"/>
       <c r="B29" s="109">
         <v>27</v>
       </c>
       <c r="C29" s="143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="143" t="str">
-        <v>H6</v>
+        <v>U8</v>
       </c>
       <c r="E29" s="142" t="str">
         <f t="shared" si="0"/>
@@ -16520,19 +16391,19 @@
       </c>
       <c r="F29" s="141" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MH6_Quote</v>
+        <v>GBPFUT3MU8_Quote</v>
       </c>
       <c r="G29" s="141" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MH6ConvAdj_Quote</v>
+        <v>GBPFUT3MU8ConvAdj_Quote</v>
       </c>
       <c r="H29" s="141" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YC3MRH_FUT3MH6</v>
+        <v>GBP_YC3MRH_FUT3MU8</v>
       </c>
       <c r="I29" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H29,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MH6#0003</v>
+        <v>GBP_YC3MRH_FUT3MU8#0001</v>
       </c>
       <c r="J29" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(I29)</f>
@@ -16541,16 +16412,16 @@
       <c r="K29" s="103"/>
       <c r="L29" s="145"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="144"/>
       <c r="B30" s="109">
         <v>28</v>
       </c>
       <c r="C30" s="143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="143" t="str">
-        <v>J6</v>
+        <v>Z8</v>
       </c>
       <c r="E30" s="142" t="str">
         <f t="shared" si="0"/>
@@ -16558,37 +16429,37 @@
       </c>
       <c r="F30" s="141" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MJ6_Quote</v>
+        <v>GBPFUT3MZ8_Quote</v>
       </c>
       <c r="G30" s="141" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MJ6ConvAdj_Quote</v>
+        <v>GBPFUT3MZ8ConvAdj_Quote</v>
       </c>
       <c r="H30" s="141" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YC3MRH_FUT3MJ6</v>
-      </c>
-      <c r="I30" s="140" t="e">
+        <v>GBP_YC3MRH_FUT3MZ8</v>
+      </c>
+      <c r="I30" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H30,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YC3MRH_FUT3MZ8#0001</v>
       </c>
       <c r="J30" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I30)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MJ6_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I30)</f>
+        <v/>
       </c>
       <c r="K30" s="103"/>
       <c r="L30" s="145"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="144"/>
       <c r="B31" s="109">
         <v>29</v>
       </c>
       <c r="C31" s="143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="143" t="str">
-        <v>K6</v>
+        <v>H9</v>
       </c>
       <c r="E31" s="142" t="str">
         <f t="shared" si="0"/>
@@ -16596,37 +16467,37 @@
       </c>
       <c r="F31" s="141" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MK6_Quote</v>
+        <v>GBPFUT3MH9_Quote</v>
       </c>
       <c r="G31" s="141" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MK6ConvAdj_Quote</v>
+        <v>GBPFUT3MH9ConvAdj_Quote</v>
       </c>
       <c r="H31" s="141" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YC3MRH_FUT3MK6</v>
-      </c>
-      <c r="I31" s="140" t="e">
+        <v>GBP_YC3MRH_FUT3MH9</v>
+      </c>
+      <c r="I31" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H31,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YC3MRH_FUT3MH9#0001</v>
       </c>
       <c r="J31" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I31)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MK6_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I31)</f>
+        <v/>
       </c>
       <c r="K31" s="103"/>
       <c r="L31" s="145"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="144"/>
       <c r="B32" s="109">
         <v>30</v>
       </c>
       <c r="C32" s="143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="143" t="str">
-        <v>M6</v>
+        <v>M9</v>
       </c>
       <c r="E32" s="142" t="str">
         <f t="shared" si="0"/>
@@ -16634,19 +16505,19 @@
       </c>
       <c r="F32" s="141" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MM6_Quote</v>
+        <v>GBPFUT3MM9_Quote</v>
       </c>
       <c r="G32" s="141" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MM6ConvAdj_Quote</v>
+        <v>GBPFUT3MM9ConvAdj_Quote</v>
       </c>
       <c r="H32" s="141" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YC3MRH_FUT3MM6</v>
+        <v>GBP_YC3MRH_FUT3MM9</v>
       </c>
       <c r="I32" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H32,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MM6#0003</v>
+        <v>GBP_YC3MRH_FUT3MM9#0001</v>
       </c>
       <c r="J32" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(I32)</f>
@@ -16654,6 +16525,7 @@
       </c>
       <c r="K32" s="103"/>
       <c r="L32" s="145"/>
+      <c r="U32" s="187"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="144"/>
@@ -16661,10 +16533,10 @@
         <v>31</v>
       </c>
       <c r="C33" s="143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="143" t="str">
-        <v>N6</v>
+        <v>U9</v>
       </c>
       <c r="E33" s="142" t="str">
         <f t="shared" si="0"/>
@@ -16672,23 +16544,23 @@
       </c>
       <c r="F33" s="141" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MN6_Quote</v>
+        <v>GBPFUT3MU9_Quote</v>
       </c>
       <c r="G33" s="141" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MN6ConvAdj_Quote</v>
+        <v>GBPFUT3MU9ConvAdj_Quote</v>
       </c>
       <c r="H33" s="141" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YC3MRH_FUT3MN6</v>
-      </c>
-      <c r="I33" s="140" t="e">
+        <v>GBP_YC3MRH_FUT3MU9</v>
+      </c>
+      <c r="I33" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H33,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YC3MRH_FUT3MU9#0001</v>
       </c>
       <c r="J33" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I33)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MN6_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I33)</f>
+        <v/>
       </c>
       <c r="K33" s="103"/>
       <c r="L33" s="145"/>
@@ -16699,10 +16571,10 @@
         <v>32</v>
       </c>
       <c r="C34" s="143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="143" t="str">
-        <v>Q6</v>
+        <v>Z9</v>
       </c>
       <c r="E34" s="142" t="str">
         <f t="shared" si="0"/>
@@ -16710,23 +16582,23 @@
       </c>
       <c r="F34" s="141" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MQ6_Quote</v>
+        <v>GBPFUT3MZ9_Quote</v>
       </c>
       <c r="G34" s="141" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MQ6ConvAdj_Quote</v>
+        <v>GBPFUT3MZ9ConvAdj_Quote</v>
       </c>
       <c r="H34" s="141" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YC3MRH_FUT3MQ6</v>
-      </c>
-      <c r="I34" s="140" t="e">
+        <v>GBP_YC3MRH_FUT3MZ9</v>
+      </c>
+      <c r="I34" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H34,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YC3MRH_FUT3MZ9#0001</v>
       </c>
       <c r="J34" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I34)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MQ6_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I34)</f>
+        <v/>
       </c>
       <c r="K34" s="103"/>
       <c r="L34" s="145"/>
@@ -16737,30 +16609,30 @@
         <v>33</v>
       </c>
       <c r="C35" s="143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="143" t="str">
-        <v>U6</v>
+        <v>H0</v>
       </c>
       <c r="E35" s="142" t="str">
-        <f t="shared" ref="E35:E66" si="4">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
+        <f t="shared" ref="E35:E44" si="4">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
         <v>GbpLibor3M</v>
       </c>
       <c r="F35" s="141" t="str">
-        <f t="shared" ref="F35:F66" si="5">Currency&amp;"FUT"&amp;$E$1&amp;$D35&amp;QuoteSuffix</f>
-        <v>GBPFUT3MU6_Quote</v>
+        <f t="shared" ref="F35:F44" si="5">Currency&amp;"FUT"&amp;$E$1&amp;$D35&amp;QuoteSuffix</f>
+        <v>GBPFUT3MH0_Quote</v>
       </c>
       <c r="G35" s="141" t="str">
-        <f t="shared" ref="G35:G66" si="6">Currency&amp;"FUT"&amp;$E$1&amp;$D35&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MU6ConvAdj_Quote</v>
+        <f t="shared" ref="G35:G44" si="6">Currency&amp;"FUT"&amp;$E$1&amp;$D35&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <v>GBPFUT3MH0ConvAdj_Quote</v>
       </c>
       <c r="H35" s="141" t="str">
-        <f t="shared" ref="H35:H66" si="7">$H$1&amp;"_FUT"&amp;$E$1&amp;$D35</f>
-        <v>GBP_YC3MRH_FUT3MU6</v>
+        <f t="shared" ref="H35:H44" si="7">$H$1&amp;"_FUT"&amp;$E$1&amp;$D35</f>
+        <v>GBP_YC3MRH_FUT3MH0</v>
       </c>
       <c r="I35" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H35,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MU6#0003</v>
+        <v>GBP_YC3MRH_FUT3MH0#0001</v>
       </c>
       <c r="J35" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
@@ -16775,10 +16647,10 @@
         <v>34</v>
       </c>
       <c r="C36" s="143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="143" t="str">
-        <v>V6</v>
+        <v>M0</v>
       </c>
       <c r="E36" s="142" t="str">
         <f t="shared" si="4"/>
@@ -16786,23 +16658,23 @@
       </c>
       <c r="F36" s="141" t="str">
         <f t="shared" si="5"/>
-        <v>GBPFUT3MV6_Quote</v>
+        <v>GBPFUT3MM0_Quote</v>
       </c>
       <c r="G36" s="141" t="str">
         <f t="shared" si="6"/>
-        <v>GBPFUT3MV6ConvAdj_Quote</v>
+        <v>GBPFUT3MM0ConvAdj_Quote</v>
       </c>
       <c r="H36" s="141" t="str">
         <f t="shared" si="7"/>
-        <v>GBP_YC3MRH_FUT3MV6</v>
-      </c>
-      <c r="I36" s="140" t="e">
+        <v>GBP_YC3MRH_FUT3MM0</v>
+      </c>
+      <c r="I36" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H36,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YC3MRH_FUT3MM0#0001</v>
       </c>
       <c r="J36" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I36)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MV6_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I36)</f>
+        <v/>
       </c>
       <c r="K36" s="103"/>
       <c r="L36" s="145"/>
@@ -16813,10 +16685,10 @@
         <v>35</v>
       </c>
       <c r="C37" s="143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="143" t="str">
-        <v>X6</v>
+        <v>U0</v>
       </c>
       <c r="E37" s="142" t="str">
         <f t="shared" si="4"/>
@@ -16824,23 +16696,23 @@
       </c>
       <c r="F37" s="141" t="str">
         <f t="shared" si="5"/>
-        <v>GBPFUT3MX6_Quote</v>
+        <v>GBPFUT3MU0_Quote</v>
       </c>
       <c r="G37" s="141" t="str">
         <f t="shared" si="6"/>
-        <v>GBPFUT3MX6ConvAdj_Quote</v>
+        <v>GBPFUT3MU0ConvAdj_Quote</v>
       </c>
       <c r="H37" s="141" t="str">
         <f t="shared" si="7"/>
-        <v>GBP_YC3MRH_FUT3MX6</v>
-      </c>
-      <c r="I37" s="140" t="e">
+        <v>GBP_YC3MRH_FUT3MU0</v>
+      </c>
+      <c r="I37" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H37,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YC3MRH_FUT3MU0#0001</v>
       </c>
       <c r="J37" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I37)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MX6_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I37)</f>
+        <v/>
       </c>
       <c r="K37" s="103"/>
       <c r="L37" s="145"/>
@@ -16851,10 +16723,10 @@
         <v>36</v>
       </c>
       <c r="C38" s="143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="143" t="str">
-        <v>Z6</v>
+        <v>Z0</v>
       </c>
       <c r="E38" s="142" t="str">
         <f t="shared" si="4"/>
@@ -16862,19 +16734,19 @@
       </c>
       <c r="F38" s="141" t="str">
         <f t="shared" si="5"/>
-        <v>GBPFUT3MZ6_Quote</v>
+        <v>GBPFUT3MZ0_Quote</v>
       </c>
       <c r="G38" s="141" t="str">
         <f t="shared" si="6"/>
-        <v>GBPFUT3MZ6ConvAdj_Quote</v>
+        <v>GBPFUT3MZ0ConvAdj_Quote</v>
       </c>
       <c r="H38" s="141" t="str">
         <f t="shared" si="7"/>
-        <v>GBP_YC3MRH_FUT3MZ6</v>
+        <v>GBP_YC3MRH_FUT3MZ0</v>
       </c>
       <c r="I38" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H38,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MZ6#0003</v>
+        <v>GBP_YC3MRH_FUT3MZ0#0001</v>
       </c>
       <c r="J38" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
@@ -16889,10 +16761,10 @@
         <v>37</v>
       </c>
       <c r="C39" s="143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="143" t="str">
-        <v>F7</v>
+        <v>H1</v>
       </c>
       <c r="E39" s="142" t="str">
         <f t="shared" si="4"/>
@@ -16900,23 +16772,23 @@
       </c>
       <c r="F39" s="141" t="str">
         <f t="shared" si="5"/>
-        <v>GBPFUT3MF7_Quote</v>
+        <v>GBPFUT3MH1_Quote</v>
       </c>
       <c r="G39" s="141" t="str">
         <f t="shared" si="6"/>
-        <v>GBPFUT3MF7ConvAdj_Quote</v>
+        <v>GBPFUT3MH1ConvAdj_Quote</v>
       </c>
       <c r="H39" s="141" t="str">
         <f t="shared" si="7"/>
-        <v>GBP_YC3MRH_FUT3MF7</v>
-      </c>
-      <c r="I39" s="140" t="e">
+        <v>GBP_YC3MRH_FUT3MH1</v>
+      </c>
+      <c r="I39" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H39,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YC3MRH_FUT3MH1#0001</v>
       </c>
       <c r="J39" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I39)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MF7_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I39)</f>
+        <v/>
       </c>
       <c r="K39" s="103"/>
       <c r="L39" s="145"/>
@@ -16927,10 +16799,10 @@
         <v>38</v>
       </c>
       <c r="C40" s="143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="143" t="str">
-        <v>G7</v>
+        <v>M1</v>
       </c>
       <c r="E40" s="142" t="str">
         <f t="shared" si="4"/>
@@ -16938,23 +16810,23 @@
       </c>
       <c r="F40" s="141" t="str">
         <f t="shared" si="5"/>
-        <v>GBPFUT3MG7_Quote</v>
+        <v>GBPFUT3MM1_Quote</v>
       </c>
       <c r="G40" s="141" t="str">
         <f t="shared" si="6"/>
-        <v>GBPFUT3MG7ConvAdj_Quote</v>
+        <v>GBPFUT3MM1ConvAdj_Quote</v>
       </c>
       <c r="H40" s="141" t="str">
         <f t="shared" si="7"/>
-        <v>GBP_YC3MRH_FUT3MG7</v>
-      </c>
-      <c r="I40" s="140" t="e">
+        <v>GBP_YC3MRH_FUT3MM1</v>
+      </c>
+      <c r="I40" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H40,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YC3MRH_FUT3MM1#0001</v>
       </c>
       <c r="J40" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I40)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MG7_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I40)</f>
+        <v/>
       </c>
       <c r="K40" s="103"/>
     </row>
@@ -16964,10 +16836,10 @@
         <v>39</v>
       </c>
       <c r="C41" s="143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="143" t="str">
-        <v>H7</v>
+        <v>U1</v>
       </c>
       <c r="E41" s="142" t="str">
         <f t="shared" si="4"/>
@@ -16975,19 +16847,19 @@
       </c>
       <c r="F41" s="141" t="str">
         <f t="shared" si="5"/>
-        <v>GBPFUT3MH7_Quote</v>
+        <v>GBPFUT3MU1_Quote</v>
       </c>
       <c r="G41" s="141" t="str">
         <f t="shared" si="6"/>
-        <v>GBPFUT3MH7ConvAdj_Quote</v>
+        <v>GBPFUT3MU1ConvAdj_Quote</v>
       </c>
       <c r="H41" s="141" t="str">
         <f t="shared" si="7"/>
-        <v>GBP_YC3MRH_FUT3MH7</v>
+        <v>GBP_YC3MRH_FUT3MU1</v>
       </c>
       <c r="I41" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H41,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MH7#0003</v>
+        <v>GBP_YC3MRH_FUT3MU1#0001</v>
       </c>
       <c r="J41" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
@@ -17001,10 +16873,10 @@
         <v>40</v>
       </c>
       <c r="C42" s="143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="143" t="str">
-        <v>J7</v>
+        <v>Z1</v>
       </c>
       <c r="E42" s="142" t="str">
         <f t="shared" si="4"/>
@@ -17012,23 +16884,23 @@
       </c>
       <c r="F42" s="141" t="str">
         <f t="shared" si="5"/>
-        <v>GBPFUT3MJ7_Quote</v>
+        <v>GBPFUT3MZ1_Quote</v>
       </c>
       <c r="G42" s="141" t="str">
         <f t="shared" si="6"/>
-        <v>GBPFUT3MJ7ConvAdj_Quote</v>
+        <v>GBPFUT3MZ1ConvAdj_Quote</v>
       </c>
       <c r="H42" s="141" t="str">
         <f t="shared" si="7"/>
-        <v>GBP_YC3MRH_FUT3MJ7</v>
-      </c>
-      <c r="I42" s="140" t="e">
+        <v>GBP_YC3MRH_FUT3MZ1</v>
+      </c>
+      <c r="I42" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H42,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YC3MRH_FUT3MZ1#0001</v>
       </c>
       <c r="J42" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I42)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MJ7_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I42)</f>
+        <v/>
       </c>
       <c r="K42" s="103"/>
     </row>
@@ -17038,10 +16910,10 @@
         <v>41</v>
       </c>
       <c r="C43" s="143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="143" t="str">
-        <v>K7</v>
+        <v>H2</v>
       </c>
       <c r="E43" s="142" t="str">
         <f t="shared" si="4"/>
@@ -17049,23 +16921,23 @@
       </c>
       <c r="F43" s="141" t="str">
         <f t="shared" si="5"/>
-        <v>GBPFUT3MK7_Quote</v>
+        <v>GBPFUT3MH2_Quote</v>
       </c>
       <c r="G43" s="141" t="str">
         <f t="shared" si="6"/>
-        <v>GBPFUT3MK7ConvAdj_Quote</v>
+        <v>GBPFUT3MH2ConvAdj_Quote</v>
       </c>
       <c r="H43" s="141" t="str">
         <f t="shared" si="7"/>
-        <v>GBP_YC3MRH_FUT3MK7</v>
-      </c>
-      <c r="I43" s="140" t="e">
+        <v>GBP_YC3MRH_FUT3MH2</v>
+      </c>
+      <c r="I43" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H43,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>GBP_YC3MRH_FUT3MH2#0001</v>
       </c>
       <c r="J43" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I43)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MK7_Quote'</v>
+        <f>_xll.ohRangeRetrieveError(I43)</f>
+        <v/>
       </c>
       <c r="K43" s="103"/>
     </row>
@@ -17075,10 +16947,10 @@
         <v>42</v>
       </c>
       <c r="C44" s="143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="143" t="str">
-        <v>M7</v>
+        <v>M2</v>
       </c>
       <c r="E44" s="142" t="str">
         <f t="shared" si="4"/>
@@ -17086,19 +16958,19 @@
       </c>
       <c r="F44" s="141" t="str">
         <f t="shared" si="5"/>
-        <v>GBPFUT3MM7_Quote</v>
+        <v>GBPFUT3MM2_Quote</v>
       </c>
       <c r="G44" s="141" t="str">
         <f t="shared" si="6"/>
-        <v>GBPFUT3MM7ConvAdj_Quote</v>
+        <v>GBPFUT3MM2ConvAdj_Quote</v>
       </c>
       <c r="H44" s="141" t="str">
         <f t="shared" si="7"/>
-        <v>GBP_YC3MRH_FUT3MM7</v>
+        <v>GBP_YC3MRH_FUT3MM2</v>
       </c>
       <c r="I44" s="140" t="str">
         <f>_xll.qlFuturesRateHelper(H44,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MM7#0003</v>
+        <v>GBP_YC3MRH_FUT3MM2#0001</v>
       </c>
       <c r="J44" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(I44)</f>
@@ -17106,2904 +16978,18 @@
       </c>
       <c r="K44" s="103"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="144"/>
-      <c r="B45" s="109">
-        <v>43</v>
-      </c>
-      <c r="C45" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D45" s="143" t="str">
-        <v>N7</v>
-      </c>
-      <c r="E45" s="142" t="str">
-        <f t="shared" si="4"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F45" s="141" t="str">
-        <f t="shared" si="5"/>
-        <v>GBPFUT3MN7_Quote</v>
-      </c>
-      <c r="G45" s="141" t="str">
-        <f t="shared" si="6"/>
-        <v>GBPFUT3MN7ConvAdj_Quote</v>
-      </c>
-      <c r="H45" s="141" t="str">
-        <f t="shared" si="7"/>
-        <v>GBP_YC3MRH_FUT3MN7</v>
-      </c>
-      <c r="I45" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H45,$F45,$D45,$E45,$G45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J45" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I45)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MN7_Quote'</v>
-      </c>
-      <c r="K45" s="103"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="144"/>
-      <c r="B46" s="109">
-        <v>44</v>
-      </c>
-      <c r="C46" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D46" s="143" t="str">
-        <v>Q7</v>
-      </c>
-      <c r="E46" s="142" t="str">
-        <f t="shared" si="4"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F46" s="141" t="str">
-        <f t="shared" si="5"/>
-        <v>GBPFUT3MQ7_Quote</v>
-      </c>
-      <c r="G46" s="141" t="str">
-        <f t="shared" si="6"/>
-        <v>GBPFUT3MQ7ConvAdj_Quote</v>
-      </c>
-      <c r="H46" s="141" t="str">
-        <f t="shared" si="7"/>
-        <v>GBP_YC3MRH_FUT3MQ7</v>
-      </c>
-      <c r="I46" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H46,$F46,$D46,$E46,$G46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J46" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I46)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MQ7_Quote'</v>
-      </c>
-      <c r="K46" s="103"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="144"/>
-      <c r="B47" s="109">
-        <v>45</v>
-      </c>
-      <c r="C47" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D47" s="143" t="str">
-        <v>U7</v>
-      </c>
-      <c r="E47" s="142" t="str">
-        <f t="shared" si="4"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F47" s="141" t="str">
-        <f t="shared" si="5"/>
-        <v>GBPFUT3MU7_Quote</v>
-      </c>
-      <c r="G47" s="141" t="str">
-        <f t="shared" si="6"/>
-        <v>GBPFUT3MU7ConvAdj_Quote</v>
-      </c>
-      <c r="H47" s="141" t="str">
-        <f t="shared" si="7"/>
-        <v>GBP_YC3MRH_FUT3MU7</v>
-      </c>
-      <c r="I47" s="140" t="str">
-        <f>_xll.qlFuturesRateHelper(H47,$F47,$D47,$E47,$G47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MU7#0003</v>
-      </c>
-      <c r="J47" s="104" t="str">
-        <f>_xll.ohRangeRetrieveError(I47)</f>
-        <v/>
-      </c>
-      <c r="K47" s="103"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="144"/>
-      <c r="B48" s="109">
-        <v>46</v>
-      </c>
-      <c r="C48" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D48" s="143" t="str">
-        <v>V7</v>
-      </c>
-      <c r="E48" s="142" t="str">
-        <f t="shared" si="4"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F48" s="141" t="str">
-        <f t="shared" si="5"/>
-        <v>GBPFUT3MV7_Quote</v>
-      </c>
-      <c r="G48" s="141" t="str">
-        <f t="shared" si="6"/>
-        <v>GBPFUT3MV7ConvAdj_Quote</v>
-      </c>
-      <c r="H48" s="141" t="str">
-        <f t="shared" si="7"/>
-        <v>GBP_YC3MRH_FUT3MV7</v>
-      </c>
-      <c r="I48" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H48,$F48,$D48,$E48,$G48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J48" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I48)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MV7_Quote'</v>
-      </c>
-      <c r="K48" s="103"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="144"/>
-      <c r="B49" s="109">
-        <v>47</v>
-      </c>
-      <c r="C49" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D49" s="143" t="str">
-        <v>X7</v>
-      </c>
-      <c r="E49" s="142" t="str">
-        <f t="shared" si="4"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F49" s="141" t="str">
-        <f t="shared" si="5"/>
-        <v>GBPFUT3MX7_Quote</v>
-      </c>
-      <c r="G49" s="141" t="str">
-        <f t="shared" si="6"/>
-        <v>GBPFUT3MX7ConvAdj_Quote</v>
-      </c>
-      <c r="H49" s="141" t="str">
-        <f t="shared" si="7"/>
-        <v>GBP_YC3MRH_FUT3MX7</v>
-      </c>
-      <c r="I49" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H49,$F49,$D49,$E49,$G49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J49" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I49)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MX7_Quote'</v>
-      </c>
-      <c r="K49" s="103"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="144"/>
-      <c r="B50" s="109">
-        <v>48</v>
-      </c>
-      <c r="C50" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D50" s="143" t="str">
-        <v>Z7</v>
-      </c>
-      <c r="E50" s="142" t="str">
-        <f t="shared" si="4"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F50" s="141" t="str">
-        <f t="shared" si="5"/>
-        <v>GBPFUT3MZ7_Quote</v>
-      </c>
-      <c r="G50" s="141" t="str">
-        <f t="shared" si="6"/>
-        <v>GBPFUT3MZ7ConvAdj_Quote</v>
-      </c>
-      <c r="H50" s="141" t="str">
-        <f t="shared" si="7"/>
-        <v>GBP_YC3MRH_FUT3MZ7</v>
-      </c>
-      <c r="I50" s="140" t="str">
-        <f>_xll.qlFuturesRateHelper(H50,$F50,$D50,$E50,$G50,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MZ7#0003</v>
-      </c>
-      <c r="J50" s="104" t="str">
-        <f>_xll.ohRangeRetrieveError(I50)</f>
-        <v/>
-      </c>
-      <c r="K50" s="103"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="144"/>
-      <c r="B51" s="109">
-        <v>49</v>
-      </c>
-      <c r="C51" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D51" s="143" t="str">
-        <v>F8</v>
-      </c>
-      <c r="E51" s="142" t="str">
-        <f t="shared" si="4"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F51" s="141" t="str">
-        <f t="shared" si="5"/>
-        <v>GBPFUT3MF8_Quote</v>
-      </c>
-      <c r="G51" s="141" t="str">
-        <f t="shared" si="6"/>
-        <v>GBPFUT3MF8ConvAdj_Quote</v>
-      </c>
-      <c r="H51" s="141" t="str">
-        <f t="shared" si="7"/>
-        <v>GBP_YC3MRH_FUT3MF8</v>
-      </c>
-      <c r="I51" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H51,$F51,$D51,$E51,$G51,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J51" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I51)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MF8_Quote'</v>
-      </c>
-      <c r="K51" s="103"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="144"/>
-      <c r="B52" s="109">
-        <v>50</v>
-      </c>
-      <c r="C52" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D52" s="143" t="str">
-        <v>G8</v>
-      </c>
-      <c r="E52" s="142" t="str">
-        <f t="shared" si="4"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F52" s="141" t="str">
-        <f t="shared" si="5"/>
-        <v>GBPFUT3MG8_Quote</v>
-      </c>
-      <c r="G52" s="141" t="str">
-        <f t="shared" si="6"/>
-        <v>GBPFUT3MG8ConvAdj_Quote</v>
-      </c>
-      <c r="H52" s="141" t="str">
-        <f t="shared" si="7"/>
-        <v>GBP_YC3MRH_FUT3MG8</v>
-      </c>
-      <c r="I52" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H52,$F52,$D52,$E52,$G52,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J52" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I52)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MG8_Quote'</v>
-      </c>
-      <c r="K52" s="103"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="144"/>
-      <c r="B53" s="109">
-        <v>51</v>
-      </c>
-      <c r="C53" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D53" s="143" t="str">
-        <v>H8</v>
-      </c>
-      <c r="E53" s="142" t="str">
-        <f t="shared" si="4"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F53" s="141" t="str">
-        <f t="shared" si="5"/>
-        <v>GBPFUT3MH8_Quote</v>
-      </c>
-      <c r="G53" s="141" t="str">
-        <f t="shared" si="6"/>
-        <v>GBPFUT3MH8ConvAdj_Quote</v>
-      </c>
-      <c r="H53" s="141" t="str">
-        <f t="shared" si="7"/>
-        <v>GBP_YC3MRH_FUT3MH8</v>
-      </c>
-      <c r="I53" s="140" t="str">
-        <f>_xll.qlFuturesRateHelper(H53,$F53,$D53,$E53,$G53,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MH8#0003</v>
-      </c>
-      <c r="J53" s="104" t="str">
-        <f>_xll.ohRangeRetrieveError(I53)</f>
-        <v/>
-      </c>
-      <c r="K53" s="103"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="144"/>
-      <c r="B54" s="109">
-        <v>52</v>
-      </c>
-      <c r="C54" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D54" s="143" t="str">
-        <v>J8</v>
-      </c>
-      <c r="E54" s="142" t="str">
-        <f t="shared" si="4"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F54" s="141" t="str">
-        <f t="shared" si="5"/>
-        <v>GBPFUT3MJ8_Quote</v>
-      </c>
-      <c r="G54" s="141" t="str">
-        <f t="shared" si="6"/>
-        <v>GBPFUT3MJ8ConvAdj_Quote</v>
-      </c>
-      <c r="H54" s="141" t="str">
-        <f t="shared" si="7"/>
-        <v>GBP_YC3MRH_FUT3MJ8</v>
-      </c>
-      <c r="I54" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H54,$F54,$D54,$E54,$G54,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J54" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I54)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MJ8_Quote'</v>
-      </c>
-      <c r="K54" s="103"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="144"/>
-      <c r="B55" s="109">
-        <v>53</v>
-      </c>
-      <c r="C55" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D55" s="143" t="str">
-        <v>K8</v>
-      </c>
-      <c r="E55" s="142" t="str">
-        <f t="shared" si="4"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F55" s="141" t="str">
-        <f t="shared" si="5"/>
-        <v>GBPFUT3MK8_Quote</v>
-      </c>
-      <c r="G55" s="141" t="str">
-        <f t="shared" si="6"/>
-        <v>GBPFUT3MK8ConvAdj_Quote</v>
-      </c>
-      <c r="H55" s="141" t="str">
-        <f t="shared" si="7"/>
-        <v>GBP_YC3MRH_FUT3MK8</v>
-      </c>
-      <c r="I55" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H55,$F55,$D55,$E55,$G55,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J55" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I55)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MK8_Quote'</v>
-      </c>
-      <c r="K55" s="103"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="144"/>
-      <c r="B56" s="109">
-        <v>54</v>
-      </c>
-      <c r="C56" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D56" s="143" t="str">
-        <v>M8</v>
-      </c>
-      <c r="E56" s="142" t="str">
-        <f t="shared" si="4"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F56" s="141" t="str">
-        <f t="shared" si="5"/>
-        <v>GBPFUT3MM8_Quote</v>
-      </c>
-      <c r="G56" s="141" t="str">
-        <f t="shared" si="6"/>
-        <v>GBPFUT3MM8ConvAdj_Quote</v>
-      </c>
-      <c r="H56" s="141" t="str">
-        <f t="shared" si="7"/>
-        <v>GBP_YC3MRH_FUT3MM8</v>
-      </c>
-      <c r="I56" s="140" t="str">
-        <f>_xll.qlFuturesRateHelper(H56,$F56,$D56,$E56,$G56,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MM8#0003</v>
-      </c>
-      <c r="J56" s="104" t="str">
-        <f>_xll.ohRangeRetrieveError(I56)</f>
-        <v/>
-      </c>
-      <c r="K56" s="103"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="144"/>
-      <c r="B57" s="109">
-        <v>55</v>
-      </c>
-      <c r="C57" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D57" s="143" t="str">
-        <v>N8</v>
-      </c>
-      <c r="E57" s="142" t="str">
-        <f t="shared" si="4"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F57" s="141" t="str">
-        <f t="shared" si="5"/>
-        <v>GBPFUT3MN8_Quote</v>
-      </c>
-      <c r="G57" s="141" t="str">
-        <f t="shared" si="6"/>
-        <v>GBPFUT3MN8ConvAdj_Quote</v>
-      </c>
-      <c r="H57" s="141" t="str">
-        <f t="shared" si="7"/>
-        <v>GBP_YC3MRH_FUT3MN8</v>
-      </c>
-      <c r="I57" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H57,$F57,$D57,$E57,$G57,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J57" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I57)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MN8_Quote'</v>
-      </c>
-      <c r="K57" s="103"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="144"/>
-      <c r="B58" s="109">
-        <v>56</v>
-      </c>
-      <c r="C58" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D58" s="143" t="str">
-        <v>Q8</v>
-      </c>
-      <c r="E58" s="142" t="str">
-        <f t="shared" si="4"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F58" s="141" t="str">
-        <f t="shared" si="5"/>
-        <v>GBPFUT3MQ8_Quote</v>
-      </c>
-      <c r="G58" s="141" t="str">
-        <f t="shared" si="6"/>
-        <v>GBPFUT3MQ8ConvAdj_Quote</v>
-      </c>
-      <c r="H58" s="141" t="str">
-        <f t="shared" si="7"/>
-        <v>GBP_YC3MRH_FUT3MQ8</v>
-      </c>
-      <c r="I58" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H58,$F58,$D58,$E58,$G58,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J58" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I58)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MQ8_Quote'</v>
-      </c>
-      <c r="K58" s="103"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="144"/>
-      <c r="B59" s="109">
-        <v>57</v>
-      </c>
-      <c r="C59" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D59" s="143" t="str">
-        <v>U8</v>
-      </c>
-      <c r="E59" s="142" t="str">
-        <f t="shared" si="4"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F59" s="141" t="str">
-        <f t="shared" si="5"/>
-        <v>GBPFUT3MU8_Quote</v>
-      </c>
-      <c r="G59" s="141" t="str">
-        <f t="shared" si="6"/>
-        <v>GBPFUT3MU8ConvAdj_Quote</v>
-      </c>
-      <c r="H59" s="141" t="str">
-        <f t="shared" si="7"/>
-        <v>GBP_YC3MRH_FUT3MU8</v>
-      </c>
-      <c r="I59" s="140" t="str">
-        <f>_xll.qlFuturesRateHelper(H59,$F59,$D59,$E59,$G59,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MU8#0003</v>
-      </c>
-      <c r="J59" s="104" t="str">
-        <f>_xll.ohRangeRetrieveError(I59)</f>
-        <v/>
-      </c>
-      <c r="K59" s="103"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="144"/>
-      <c r="B60" s="109">
-        <v>58</v>
-      </c>
-      <c r="C60" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D60" s="143" t="str">
-        <v>V8</v>
-      </c>
-      <c r="E60" s="142" t="str">
-        <f t="shared" si="4"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F60" s="141" t="str">
-        <f t="shared" si="5"/>
-        <v>GBPFUT3MV8_Quote</v>
-      </c>
-      <c r="G60" s="141" t="str">
-        <f t="shared" si="6"/>
-        <v>GBPFUT3MV8ConvAdj_Quote</v>
-      </c>
-      <c r="H60" s="141" t="str">
-        <f t="shared" si="7"/>
-        <v>GBP_YC3MRH_FUT3MV8</v>
-      </c>
-      <c r="I60" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H60,$F60,$D60,$E60,$G60,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J60" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I60)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MV8_Quote'</v>
-      </c>
-      <c r="K60" s="103"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="144"/>
-      <c r="B61" s="109">
-        <v>59</v>
-      </c>
-      <c r="C61" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D61" s="143" t="str">
-        <v>X8</v>
-      </c>
-      <c r="E61" s="142" t="str">
-        <f t="shared" si="4"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F61" s="141" t="str">
-        <f t="shared" si="5"/>
-        <v>GBPFUT3MX8_Quote</v>
-      </c>
-      <c r="G61" s="141" t="str">
-        <f t="shared" si="6"/>
-        <v>GBPFUT3MX8ConvAdj_Quote</v>
-      </c>
-      <c r="H61" s="141" t="str">
-        <f t="shared" si="7"/>
-        <v>GBP_YC3MRH_FUT3MX8</v>
-      </c>
-      <c r="I61" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H61,$F61,$D61,$E61,$G61,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J61" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I61)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MX8_Quote'</v>
-      </c>
-      <c r="K61" s="103"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="144"/>
-      <c r="B62" s="109">
-        <v>60</v>
-      </c>
-      <c r="C62" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D62" s="143" t="str">
-        <v>Z8</v>
-      </c>
-      <c r="E62" s="142" t="str">
-        <f t="shared" si="4"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F62" s="141" t="str">
-        <f t="shared" si="5"/>
-        <v>GBPFUT3MZ8_Quote</v>
-      </c>
-      <c r="G62" s="141" t="str">
-        <f t="shared" si="6"/>
-        <v>GBPFUT3MZ8ConvAdj_Quote</v>
-      </c>
-      <c r="H62" s="141" t="str">
-        <f t="shared" si="7"/>
-        <v>GBP_YC3MRH_FUT3MZ8</v>
-      </c>
-      <c r="I62" s="140" t="str">
-        <f>_xll.qlFuturesRateHelper(H62,$F62,$D62,$E62,$G62,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MZ8#0003</v>
-      </c>
-      <c r="J62" s="104" t="str">
-        <f>_xll.ohRangeRetrieveError(I62)</f>
-        <v/>
-      </c>
-      <c r="K62" s="103"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="144"/>
-      <c r="B63" s="109">
-        <v>61</v>
-      </c>
-      <c r="C63" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D63" s="143" t="str">
-        <v>F9</v>
-      </c>
-      <c r="E63" s="142" t="str">
-        <f t="shared" si="4"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F63" s="141" t="str">
-        <f t="shared" si="5"/>
-        <v>GBPFUT3MF9_Quote</v>
-      </c>
-      <c r="G63" s="141" t="str">
-        <f t="shared" si="6"/>
-        <v>GBPFUT3MF9ConvAdj_Quote</v>
-      </c>
-      <c r="H63" s="141" t="str">
-        <f t="shared" si="7"/>
-        <v>GBP_YC3MRH_FUT3MF9</v>
-      </c>
-      <c r="I63" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H63,$F63,$D63,$E63,$G63,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J63" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I63)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MF9_Quote'</v>
-      </c>
-      <c r="K63" s="103"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="144"/>
-      <c r="B64" s="109">
-        <v>62</v>
-      </c>
-      <c r="C64" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D64" s="143" t="str">
-        <v>G9</v>
-      </c>
-      <c r="E64" s="142" t="str">
-        <f t="shared" si="4"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F64" s="141" t="str">
-        <f t="shared" si="5"/>
-        <v>GBPFUT3MG9_Quote</v>
-      </c>
-      <c r="G64" s="141" t="str">
-        <f t="shared" si="6"/>
-        <v>GBPFUT3MG9ConvAdj_Quote</v>
-      </c>
-      <c r="H64" s="141" t="str">
-        <f t="shared" si="7"/>
-        <v>GBP_YC3MRH_FUT3MG9</v>
-      </c>
-      <c r="I64" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H64,$F64,$D64,$E64,$G64,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J64" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I64)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MG9_Quote'</v>
-      </c>
-      <c r="K64" s="103"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="144"/>
-      <c r="B65" s="109">
-        <v>63</v>
-      </c>
-      <c r="C65" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D65" s="143" t="str">
-        <v>H9</v>
-      </c>
-      <c r="E65" s="142" t="str">
-        <f t="shared" si="4"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F65" s="141" t="str">
-        <f t="shared" si="5"/>
-        <v>GBPFUT3MH9_Quote</v>
-      </c>
-      <c r="G65" s="141" t="str">
-        <f t="shared" si="6"/>
-        <v>GBPFUT3MH9ConvAdj_Quote</v>
-      </c>
-      <c r="H65" s="141" t="str">
-        <f t="shared" si="7"/>
-        <v>GBP_YC3MRH_FUT3MH9</v>
-      </c>
-      <c r="I65" s="140" t="str">
-        <f>_xll.qlFuturesRateHelper(H65,$F65,$D65,$E65,$G65,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MH9#0003</v>
-      </c>
-      <c r="J65" s="104" t="str">
-        <f>_xll.ohRangeRetrieveError(I65)</f>
-        <v/>
-      </c>
-      <c r="K65" s="103"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="144"/>
-      <c r="B66" s="109">
-        <v>64</v>
-      </c>
-      <c r="C66" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D66" s="143" t="str">
-        <v>J9</v>
-      </c>
-      <c r="E66" s="142" t="str">
-        <f t="shared" si="4"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F66" s="141" t="str">
-        <f t="shared" si="5"/>
-        <v>GBPFUT3MJ9_Quote</v>
-      </c>
-      <c r="G66" s="141" t="str">
-        <f t="shared" si="6"/>
-        <v>GBPFUT3MJ9ConvAdj_Quote</v>
-      </c>
-      <c r="H66" s="141" t="str">
-        <f t="shared" si="7"/>
-        <v>GBP_YC3MRH_FUT3MJ9</v>
-      </c>
-      <c r="I66" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H66,$F66,$D66,$E66,$G66,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J66" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I66)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MJ9_Quote'</v>
-      </c>
-      <c r="K66" s="103"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="144"/>
-      <c r="B67" s="109">
-        <v>65</v>
-      </c>
-      <c r="C67" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D67" s="143" t="str">
-        <v>K9</v>
-      </c>
-      <c r="E67" s="142" t="str">
-        <f t="shared" ref="E67:E98" si="8">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F67" s="141" t="str">
-        <f t="shared" ref="F67:F98" si="9">Currency&amp;"FUT"&amp;$E$1&amp;$D67&amp;QuoteSuffix</f>
-        <v>GBPFUT3MK9_Quote</v>
-      </c>
-      <c r="G67" s="141" t="str">
-        <f t="shared" ref="G67:G98" si="10">Currency&amp;"FUT"&amp;$E$1&amp;$D67&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MK9ConvAdj_Quote</v>
-      </c>
-      <c r="H67" s="141" t="str">
-        <f t="shared" ref="H67:H98" si="11">$H$1&amp;"_FUT"&amp;$E$1&amp;$D67</f>
-        <v>GBP_YC3MRH_FUT3MK9</v>
-      </c>
-      <c r="I67" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H67,$F67,$D67,$E67,$G67,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J67" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I67)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MK9_Quote'</v>
-      </c>
-      <c r="K67" s="103"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="144"/>
-      <c r="B68" s="109">
-        <v>66</v>
-      </c>
-      <c r="C68" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D68" s="143" t="str">
-        <v>M9</v>
-      </c>
-      <c r="E68" s="142" t="str">
-        <f t="shared" si="8"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F68" s="141" t="str">
-        <f t="shared" si="9"/>
-        <v>GBPFUT3MM9_Quote</v>
-      </c>
-      <c r="G68" s="141" t="str">
-        <f t="shared" si="10"/>
-        <v>GBPFUT3MM9ConvAdj_Quote</v>
-      </c>
-      <c r="H68" s="141" t="str">
-        <f t="shared" si="11"/>
-        <v>GBP_YC3MRH_FUT3MM9</v>
-      </c>
-      <c r="I68" s="140" t="str">
-        <f>_xll.qlFuturesRateHelper(H68,$F68,$D68,$E68,$G68,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MM9#0003</v>
-      </c>
-      <c r="J68" s="104" t="str">
-        <f>_xll.ohRangeRetrieveError(I68)</f>
-        <v/>
-      </c>
-      <c r="K68" s="103"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="144"/>
-      <c r="B69" s="109">
-        <v>67</v>
-      </c>
-      <c r="C69" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D69" s="143" t="str">
-        <v>N9</v>
-      </c>
-      <c r="E69" s="142" t="str">
-        <f t="shared" si="8"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F69" s="141" t="str">
-        <f t="shared" si="9"/>
-        <v>GBPFUT3MN9_Quote</v>
-      </c>
-      <c r="G69" s="141" t="str">
-        <f t="shared" si="10"/>
-        <v>GBPFUT3MN9ConvAdj_Quote</v>
-      </c>
-      <c r="H69" s="141" t="str">
-        <f t="shared" si="11"/>
-        <v>GBP_YC3MRH_FUT3MN9</v>
-      </c>
-      <c r="I69" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H69,$F69,$D69,$E69,$G69,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J69" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I69)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MN9_Quote'</v>
-      </c>
-      <c r="K69" s="103"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="144"/>
-      <c r="B70" s="109">
-        <v>68</v>
-      </c>
-      <c r="C70" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D70" s="143" t="str">
-        <v>Q9</v>
-      </c>
-      <c r="E70" s="142" t="str">
-        <f t="shared" si="8"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F70" s="141" t="str">
-        <f t="shared" si="9"/>
-        <v>GBPFUT3MQ9_Quote</v>
-      </c>
-      <c r="G70" s="141" t="str">
-        <f t="shared" si="10"/>
-        <v>GBPFUT3MQ9ConvAdj_Quote</v>
-      </c>
-      <c r="H70" s="141" t="str">
-        <f t="shared" si="11"/>
-        <v>GBP_YC3MRH_FUT3MQ9</v>
-      </c>
-      <c r="I70" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H70,$F70,$D70,$E70,$G70,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J70" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I70)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MQ9_Quote'</v>
-      </c>
-      <c r="K70" s="103"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="144"/>
-      <c r="B71" s="109">
-        <v>69</v>
-      </c>
-      <c r="C71" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D71" s="143" t="str">
-        <v>U9</v>
-      </c>
-      <c r="E71" s="142" t="str">
-        <f t="shared" si="8"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F71" s="141" t="str">
-        <f t="shared" si="9"/>
-        <v>GBPFUT3MU9_Quote</v>
-      </c>
-      <c r="G71" s="141" t="str">
-        <f t="shared" si="10"/>
-        <v>GBPFUT3MU9ConvAdj_Quote</v>
-      </c>
-      <c r="H71" s="141" t="str">
-        <f t="shared" si="11"/>
-        <v>GBP_YC3MRH_FUT3MU9</v>
-      </c>
-      <c r="I71" s="140" t="str">
-        <f>_xll.qlFuturesRateHelper(H71,$F71,$D71,$E71,$G71,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MU9#0003</v>
-      </c>
-      <c r="J71" s="104" t="str">
-        <f>_xll.ohRangeRetrieveError(I71)</f>
-        <v/>
-      </c>
-      <c r="K71" s="103"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="144"/>
-      <c r="B72" s="109">
-        <v>70</v>
-      </c>
-      <c r="C72" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D72" s="143" t="str">
-        <v>V9</v>
-      </c>
-      <c r="E72" s="142" t="str">
-        <f t="shared" si="8"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F72" s="141" t="str">
-        <f t="shared" si="9"/>
-        <v>GBPFUT3MV9_Quote</v>
-      </c>
-      <c r="G72" s="141" t="str">
-        <f t="shared" si="10"/>
-        <v>GBPFUT3MV9ConvAdj_Quote</v>
-      </c>
-      <c r="H72" s="141" t="str">
-        <f t="shared" si="11"/>
-        <v>GBP_YC3MRH_FUT3MV9</v>
-      </c>
-      <c r="I72" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H72,$F72,$D72,$E72,$G72,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J72" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I72)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MV9_Quote'</v>
-      </c>
-      <c r="K72" s="103"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="144"/>
-      <c r="B73" s="109">
-        <v>71</v>
-      </c>
-      <c r="C73" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D73" s="143" t="str">
-        <v>X9</v>
-      </c>
-      <c r="E73" s="142" t="str">
-        <f t="shared" si="8"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F73" s="141" t="str">
-        <f t="shared" si="9"/>
-        <v>GBPFUT3MX9_Quote</v>
-      </c>
-      <c r="G73" s="141" t="str">
-        <f t="shared" si="10"/>
-        <v>GBPFUT3MX9ConvAdj_Quote</v>
-      </c>
-      <c r="H73" s="141" t="str">
-        <f t="shared" si="11"/>
-        <v>GBP_YC3MRH_FUT3MX9</v>
-      </c>
-      <c r="I73" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H73,$F73,$D73,$E73,$G73,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J73" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I73)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MX9_Quote'</v>
-      </c>
-      <c r="K73" s="103"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="144"/>
-      <c r="B74" s="109">
-        <v>72</v>
-      </c>
-      <c r="C74" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D74" s="143" t="str">
-        <v>Z9</v>
-      </c>
-      <c r="E74" s="142" t="str">
-        <f t="shared" si="8"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F74" s="141" t="str">
-        <f t="shared" si="9"/>
-        <v>GBPFUT3MZ9_Quote</v>
-      </c>
-      <c r="G74" s="141" t="str">
-        <f t="shared" si="10"/>
-        <v>GBPFUT3MZ9ConvAdj_Quote</v>
-      </c>
-      <c r="H74" s="141" t="str">
-        <f t="shared" si="11"/>
-        <v>GBP_YC3MRH_FUT3MZ9</v>
-      </c>
-      <c r="I74" s="140" t="str">
-        <f>_xll.qlFuturesRateHelper(H74,$F74,$D74,$E74,$G74,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MZ9#0003</v>
-      </c>
-      <c r="J74" s="104" t="str">
-        <f>_xll.ohRangeRetrieveError(I74)</f>
-        <v/>
-      </c>
-      <c r="K74" s="103"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="144"/>
-      <c r="B75" s="109">
-        <v>73</v>
-      </c>
-      <c r="C75" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D75" s="143" t="str">
-        <v>F0</v>
-      </c>
-      <c r="E75" s="142" t="str">
-        <f t="shared" si="8"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F75" s="141" t="str">
-        <f t="shared" si="9"/>
-        <v>GBPFUT3MF0_Quote</v>
-      </c>
-      <c r="G75" s="141" t="str">
-        <f t="shared" si="10"/>
-        <v>GBPFUT3MF0ConvAdj_Quote</v>
-      </c>
-      <c r="H75" s="141" t="str">
-        <f t="shared" si="11"/>
-        <v>GBP_YC3MRH_FUT3MF0</v>
-      </c>
-      <c r="I75" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H75,$F75,$D75,$E75,$G75,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J75" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I75)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MF0_Quote'</v>
-      </c>
-      <c r="K75" s="103"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="144"/>
-      <c r="B76" s="109">
-        <v>74</v>
-      </c>
-      <c r="C76" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D76" s="143" t="str">
-        <v>G0</v>
-      </c>
-      <c r="E76" s="142" t="str">
-        <f t="shared" si="8"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F76" s="141" t="str">
-        <f t="shared" si="9"/>
-        <v>GBPFUT3MG0_Quote</v>
-      </c>
-      <c r="G76" s="141" t="str">
-        <f t="shared" si="10"/>
-        <v>GBPFUT3MG0ConvAdj_Quote</v>
-      </c>
-      <c r="H76" s="141" t="str">
-        <f t="shared" si="11"/>
-        <v>GBP_YC3MRH_FUT3MG0</v>
-      </c>
-      <c r="I76" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H76,$F76,$D76,$E76,$G76,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J76" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I76)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MG0_Quote'</v>
-      </c>
-      <c r="K76" s="103"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="144"/>
-      <c r="B77" s="109">
-        <v>75</v>
-      </c>
-      <c r="C77" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D77" s="143" t="str">
-        <v>H0</v>
-      </c>
-      <c r="E77" s="142" t="str">
-        <f t="shared" si="8"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F77" s="141" t="str">
-        <f t="shared" si="9"/>
-        <v>GBPFUT3MH0_Quote</v>
-      </c>
-      <c r="G77" s="141" t="str">
-        <f t="shared" si="10"/>
-        <v>GBPFUT3MH0ConvAdj_Quote</v>
-      </c>
-      <c r="H77" s="141" t="str">
-        <f t="shared" si="11"/>
-        <v>GBP_YC3MRH_FUT3MH0</v>
-      </c>
-      <c r="I77" s="140" t="str">
-        <f>_xll.qlFuturesRateHelper(H77,$F77,$D77,$E77,$G77,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MH0#0003</v>
-      </c>
-      <c r="J77" s="104" t="str">
-        <f>_xll.ohRangeRetrieveError(I77)</f>
-        <v/>
-      </c>
-      <c r="K77" s="103"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="144"/>
-      <c r="B78" s="109">
-        <v>76</v>
-      </c>
-      <c r="C78" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D78" s="143" t="str">
-        <v>J0</v>
-      </c>
-      <c r="E78" s="142" t="str">
-        <f t="shared" si="8"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F78" s="141" t="str">
-        <f t="shared" si="9"/>
-        <v>GBPFUT3MJ0_Quote</v>
-      </c>
-      <c r="G78" s="141" t="str">
-        <f t="shared" si="10"/>
-        <v>GBPFUT3MJ0ConvAdj_Quote</v>
-      </c>
-      <c r="H78" s="141" t="str">
-        <f t="shared" si="11"/>
-        <v>GBP_YC3MRH_FUT3MJ0</v>
-      </c>
-      <c r="I78" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H78,$F78,$D78,$E78,$G78,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J78" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I78)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MJ0_Quote'</v>
-      </c>
-      <c r="K78" s="103"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="144"/>
-      <c r="B79" s="109">
-        <v>77</v>
-      </c>
-      <c r="C79" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D79" s="143" t="str">
-        <v>K0</v>
-      </c>
-      <c r="E79" s="142" t="str">
-        <f t="shared" si="8"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F79" s="141" t="str">
-        <f t="shared" si="9"/>
-        <v>GBPFUT3MK0_Quote</v>
-      </c>
-      <c r="G79" s="141" t="str">
-        <f t="shared" si="10"/>
-        <v>GBPFUT3MK0ConvAdj_Quote</v>
-      </c>
-      <c r="H79" s="141" t="str">
-        <f t="shared" si="11"/>
-        <v>GBP_YC3MRH_FUT3MK0</v>
-      </c>
-      <c r="I79" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H79,$F79,$D79,$E79,$G79,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J79" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I79)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MK0_Quote'</v>
-      </c>
-      <c r="K79" s="103"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="144"/>
-      <c r="B80" s="109">
-        <v>78</v>
-      </c>
-      <c r="C80" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D80" s="143" t="str">
-        <v>M0</v>
-      </c>
-      <c r="E80" s="142" t="str">
-        <f t="shared" si="8"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F80" s="141" t="str">
-        <f t="shared" si="9"/>
-        <v>GBPFUT3MM0_Quote</v>
-      </c>
-      <c r="G80" s="141" t="str">
-        <f t="shared" si="10"/>
-        <v>GBPFUT3MM0ConvAdj_Quote</v>
-      </c>
-      <c r="H80" s="141" t="str">
-        <f t="shared" si="11"/>
-        <v>GBP_YC3MRH_FUT3MM0</v>
-      </c>
-      <c r="I80" s="140" t="str">
-        <f>_xll.qlFuturesRateHelper(H80,$F80,$D80,$E80,$G80,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MM0#0003</v>
-      </c>
-      <c r="J80" s="104" t="str">
-        <f>_xll.ohRangeRetrieveError(I80)</f>
-        <v/>
-      </c>
-      <c r="K80" s="103"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="144"/>
-      <c r="B81" s="109">
-        <v>79</v>
-      </c>
-      <c r="C81" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D81" s="143" t="str">
-        <v>N0</v>
-      </c>
-      <c r="E81" s="142" t="str">
-        <f t="shared" si="8"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F81" s="141" t="str">
-        <f t="shared" si="9"/>
-        <v>GBPFUT3MN0_Quote</v>
-      </c>
-      <c r="G81" s="141" t="str">
-        <f t="shared" si="10"/>
-        <v>GBPFUT3MN0ConvAdj_Quote</v>
-      </c>
-      <c r="H81" s="141" t="str">
-        <f t="shared" si="11"/>
-        <v>GBP_YC3MRH_FUT3MN0</v>
-      </c>
-      <c r="I81" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H81,$F81,$D81,$E81,$G81,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J81" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I81)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MN0_Quote'</v>
-      </c>
-      <c r="K81" s="103"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="144"/>
-      <c r="B82" s="109">
-        <v>80</v>
-      </c>
-      <c r="C82" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D82" s="143" t="str">
-        <v>Q0</v>
-      </c>
-      <c r="E82" s="142" t="str">
-        <f t="shared" si="8"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F82" s="141" t="str">
-        <f t="shared" si="9"/>
-        <v>GBPFUT3MQ0_Quote</v>
-      </c>
-      <c r="G82" s="141" t="str">
-        <f t="shared" si="10"/>
-        <v>GBPFUT3MQ0ConvAdj_Quote</v>
-      </c>
-      <c r="H82" s="141" t="str">
-        <f t="shared" si="11"/>
-        <v>GBP_YC3MRH_FUT3MQ0</v>
-      </c>
-      <c r="I82" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H82,$F82,$D82,$E82,$G82,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J82" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I82)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MQ0_Quote'</v>
-      </c>
-      <c r="K82" s="103"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="144"/>
-      <c r="B83" s="109">
-        <v>81</v>
-      </c>
-      <c r="C83" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D83" s="143" t="str">
-        <v>U0</v>
-      </c>
-      <c r="E83" s="142" t="str">
-        <f t="shared" si="8"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F83" s="141" t="str">
-        <f t="shared" si="9"/>
-        <v>GBPFUT3MU0_Quote</v>
-      </c>
-      <c r="G83" s="141" t="str">
-        <f t="shared" si="10"/>
-        <v>GBPFUT3MU0ConvAdj_Quote</v>
-      </c>
-      <c r="H83" s="141" t="str">
-        <f t="shared" si="11"/>
-        <v>GBP_YC3MRH_FUT3MU0</v>
-      </c>
-      <c r="I83" s="140" t="str">
-        <f>_xll.qlFuturesRateHelper(H83,$F83,$D83,$E83,$G83,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MU0#0003</v>
-      </c>
-      <c r="J83" s="104" t="str">
-        <f>_xll.ohRangeRetrieveError(I83)</f>
-        <v/>
-      </c>
-      <c r="K83" s="103"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="144"/>
-      <c r="B84" s="109">
-        <v>82</v>
-      </c>
-      <c r="C84" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D84" s="143" t="str">
-        <v>V0</v>
-      </c>
-      <c r="E84" s="142" t="str">
-        <f t="shared" si="8"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F84" s="141" t="str">
-        <f t="shared" si="9"/>
-        <v>GBPFUT3MV0_Quote</v>
-      </c>
-      <c r="G84" s="141" t="str">
-        <f t="shared" si="10"/>
-        <v>GBPFUT3MV0ConvAdj_Quote</v>
-      </c>
-      <c r="H84" s="141" t="str">
-        <f t="shared" si="11"/>
-        <v>GBP_YC3MRH_FUT3MV0</v>
-      </c>
-      <c r="I84" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H84,$F84,$D84,$E84,$G84,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J84" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I84)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MV0_Quote'</v>
-      </c>
-      <c r="K84" s="103"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="144"/>
-      <c r="B85" s="109">
-        <v>83</v>
-      </c>
-      <c r="C85" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D85" s="143" t="str">
-        <v>X0</v>
-      </c>
-      <c r="E85" s="142" t="str">
-        <f t="shared" si="8"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F85" s="141" t="str">
-        <f t="shared" si="9"/>
-        <v>GBPFUT3MX0_Quote</v>
-      </c>
-      <c r="G85" s="141" t="str">
-        <f t="shared" si="10"/>
-        <v>GBPFUT3MX0ConvAdj_Quote</v>
-      </c>
-      <c r="H85" s="141" t="str">
-        <f t="shared" si="11"/>
-        <v>GBP_YC3MRH_FUT3MX0</v>
-      </c>
-      <c r="I85" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H85,$F85,$D85,$E85,$G85,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J85" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I85)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MX0_Quote'</v>
-      </c>
-      <c r="K85" s="103"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="144"/>
-      <c r="B86" s="109">
-        <v>84</v>
-      </c>
-      <c r="C86" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D86" s="143" t="str">
-        <v>Z0</v>
-      </c>
-      <c r="E86" s="142" t="str">
-        <f t="shared" si="8"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F86" s="141" t="str">
-        <f t="shared" si="9"/>
-        <v>GBPFUT3MZ0_Quote</v>
-      </c>
-      <c r="G86" s="141" t="str">
-        <f t="shared" si="10"/>
-        <v>GBPFUT3MZ0ConvAdj_Quote</v>
-      </c>
-      <c r="H86" s="141" t="str">
-        <f t="shared" si="11"/>
-        <v>GBP_YC3MRH_FUT3MZ0</v>
-      </c>
-      <c r="I86" s="140" t="str">
-        <f>_xll.qlFuturesRateHelper(H86,$F86,$D86,$E86,$G86,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MZ0#0003</v>
-      </c>
-      <c r="J86" s="104" t="str">
-        <f>_xll.ohRangeRetrieveError(I86)</f>
-        <v/>
-      </c>
-      <c r="K86" s="103"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="144"/>
-      <c r="B87" s="109">
-        <v>85</v>
-      </c>
-      <c r="C87" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D87" s="143" t="str">
-        <v>F1</v>
-      </c>
-      <c r="E87" s="142" t="str">
-        <f t="shared" si="8"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F87" s="141" t="str">
-        <f t="shared" si="9"/>
-        <v>GBPFUT3MF1_Quote</v>
-      </c>
-      <c r="G87" s="141" t="str">
-        <f t="shared" si="10"/>
-        <v>GBPFUT3MF1ConvAdj_Quote</v>
-      </c>
-      <c r="H87" s="141" t="str">
-        <f t="shared" si="11"/>
-        <v>GBP_YC3MRH_FUT3MF1</v>
-      </c>
-      <c r="I87" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H87,$F87,$D87,$E87,$G87,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J87" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I87)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MF1_Quote'</v>
-      </c>
-      <c r="K87" s="103"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="144"/>
-      <c r="B88" s="109">
-        <v>86</v>
-      </c>
-      <c r="C88" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D88" s="143" t="str">
-        <v>G1</v>
-      </c>
-      <c r="E88" s="142" t="str">
-        <f t="shared" si="8"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F88" s="141" t="str">
-        <f t="shared" si="9"/>
-        <v>GBPFUT3MG1_Quote</v>
-      </c>
-      <c r="G88" s="141" t="str">
-        <f t="shared" si="10"/>
-        <v>GBPFUT3MG1ConvAdj_Quote</v>
-      </c>
-      <c r="H88" s="141" t="str">
-        <f t="shared" si="11"/>
-        <v>GBP_YC3MRH_FUT3MG1</v>
-      </c>
-      <c r="I88" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H88,$F88,$D88,$E88,$G88,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J88" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I88)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MG1_Quote'</v>
-      </c>
-      <c r="K88" s="103"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" s="144"/>
-      <c r="B89" s="109">
-        <v>87</v>
-      </c>
-      <c r="C89" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D89" s="143" t="str">
-        <v>H1</v>
-      </c>
-      <c r="E89" s="142" t="str">
-        <f t="shared" si="8"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F89" s="141" t="str">
-        <f t="shared" si="9"/>
-        <v>GBPFUT3MH1_Quote</v>
-      </c>
-      <c r="G89" s="141" t="str">
-        <f t="shared" si="10"/>
-        <v>GBPFUT3MH1ConvAdj_Quote</v>
-      </c>
-      <c r="H89" s="141" t="str">
-        <f t="shared" si="11"/>
-        <v>GBP_YC3MRH_FUT3MH1</v>
-      </c>
-      <c r="I89" s="140" t="str">
-        <f>_xll.qlFuturesRateHelper(H89,$F89,$D89,$E89,$G89,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MH1#0003</v>
-      </c>
-      <c r="J89" s="104" t="str">
-        <f>_xll.ohRangeRetrieveError(I89)</f>
-        <v/>
-      </c>
-      <c r="K89" s="103"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" s="144"/>
-      <c r="B90" s="109">
-        <v>88</v>
-      </c>
-      <c r="C90" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D90" s="143" t="str">
-        <v>J1</v>
-      </c>
-      <c r="E90" s="142" t="str">
-        <f t="shared" si="8"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F90" s="141" t="str">
-        <f t="shared" si="9"/>
-        <v>GBPFUT3MJ1_Quote</v>
-      </c>
-      <c r="G90" s="141" t="str">
-        <f t="shared" si="10"/>
-        <v>GBPFUT3MJ1ConvAdj_Quote</v>
-      </c>
-      <c r="H90" s="141" t="str">
-        <f t="shared" si="11"/>
-        <v>GBP_YC3MRH_FUT3MJ1</v>
-      </c>
-      <c r="I90" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H90,$F90,$D90,$E90,$G90,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J90" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I90)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MJ1_Quote'</v>
-      </c>
-      <c r="K90" s="103"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" s="144"/>
-      <c r="B91" s="109">
-        <v>89</v>
-      </c>
-      <c r="C91" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D91" s="143" t="str">
-        <v>K1</v>
-      </c>
-      <c r="E91" s="142" t="str">
-        <f t="shared" si="8"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F91" s="141" t="str">
-        <f t="shared" si="9"/>
-        <v>GBPFUT3MK1_Quote</v>
-      </c>
-      <c r="G91" s="141" t="str">
-        <f t="shared" si="10"/>
-        <v>GBPFUT3MK1ConvAdj_Quote</v>
-      </c>
-      <c r="H91" s="141" t="str">
-        <f t="shared" si="11"/>
-        <v>GBP_YC3MRH_FUT3MK1</v>
-      </c>
-      <c r="I91" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H91,$F91,$D91,$E91,$G91,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J91" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I91)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MK1_Quote'</v>
-      </c>
-      <c r="K91" s="103"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="144"/>
-      <c r="B92" s="109">
-        <v>90</v>
-      </c>
-      <c r="C92" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D92" s="143" t="str">
-        <v>M1</v>
-      </c>
-      <c r="E92" s="142" t="str">
-        <f t="shared" si="8"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F92" s="141" t="str">
-        <f t="shared" si="9"/>
-        <v>GBPFUT3MM1_Quote</v>
-      </c>
-      <c r="G92" s="141" t="str">
-        <f t="shared" si="10"/>
-        <v>GBPFUT3MM1ConvAdj_Quote</v>
-      </c>
-      <c r="H92" s="141" t="str">
-        <f t="shared" si="11"/>
-        <v>GBP_YC3MRH_FUT3MM1</v>
-      </c>
-      <c r="I92" s="140" t="str">
-        <f>_xll.qlFuturesRateHelper(H92,$F92,$D92,$E92,$G92,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MM1#0003</v>
-      </c>
-      <c r="J92" s="104" t="str">
-        <f>_xll.ohRangeRetrieveError(I92)</f>
-        <v/>
-      </c>
-      <c r="K92" s="103"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" s="144"/>
-      <c r="B93" s="109">
-        <v>91</v>
-      </c>
-      <c r="C93" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D93" s="143" t="str">
-        <v>N1</v>
-      </c>
-      <c r="E93" s="142" t="str">
-        <f t="shared" si="8"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F93" s="141" t="str">
-        <f t="shared" si="9"/>
-        <v>GBPFUT3MN1_Quote</v>
-      </c>
-      <c r="G93" s="141" t="str">
-        <f t="shared" si="10"/>
-        <v>GBPFUT3MN1ConvAdj_Quote</v>
-      </c>
-      <c r="H93" s="141" t="str">
-        <f t="shared" si="11"/>
-        <v>GBP_YC3MRH_FUT3MN1</v>
-      </c>
-      <c r="I93" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H93,$F93,$D93,$E93,$G93,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J93" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I93)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MN1_Quote'</v>
-      </c>
-      <c r="K93" s="103"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" s="144"/>
-      <c r="B94" s="109">
-        <v>92</v>
-      </c>
-      <c r="C94" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D94" s="143" t="str">
-        <v>Q1</v>
-      </c>
-      <c r="E94" s="142" t="str">
-        <f t="shared" si="8"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F94" s="141" t="str">
-        <f t="shared" si="9"/>
-        <v>GBPFUT3MQ1_Quote</v>
-      </c>
-      <c r="G94" s="141" t="str">
-        <f t="shared" si="10"/>
-        <v>GBPFUT3MQ1ConvAdj_Quote</v>
-      </c>
-      <c r="H94" s="141" t="str">
-        <f t="shared" si="11"/>
-        <v>GBP_YC3MRH_FUT3MQ1</v>
-      </c>
-      <c r="I94" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H94,$F94,$D94,$E94,$G94,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J94" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I94)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MQ1_Quote'</v>
-      </c>
-      <c r="K94" s="103"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" s="144"/>
-      <c r="B95" s="109">
-        <v>93</v>
-      </c>
-      <c r="C95" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D95" s="143" t="str">
-        <v>U1</v>
-      </c>
-      <c r="E95" s="142" t="str">
-        <f t="shared" si="8"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F95" s="141" t="str">
-        <f t="shared" si="9"/>
-        <v>GBPFUT3MU1_Quote</v>
-      </c>
-      <c r="G95" s="141" t="str">
-        <f t="shared" si="10"/>
-        <v>GBPFUT3MU1ConvAdj_Quote</v>
-      </c>
-      <c r="H95" s="141" t="str">
-        <f t="shared" si="11"/>
-        <v>GBP_YC3MRH_FUT3MU1</v>
-      </c>
-      <c r="I95" s="140" t="str">
-        <f>_xll.qlFuturesRateHelper(H95,$F95,$D95,$E95,$G95,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MU1#0003</v>
-      </c>
-      <c r="J95" s="104" t="str">
-        <f>_xll.ohRangeRetrieveError(I95)</f>
-        <v/>
-      </c>
-      <c r="K95" s="103"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="144"/>
-      <c r="B96" s="109">
-        <v>94</v>
-      </c>
-      <c r="C96" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D96" s="143" t="str">
-        <v>V1</v>
-      </c>
-      <c r="E96" s="142" t="str">
-        <f t="shared" si="8"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F96" s="141" t="str">
-        <f t="shared" si="9"/>
-        <v>GBPFUT3MV1_Quote</v>
-      </c>
-      <c r="G96" s="141" t="str">
-        <f t="shared" si="10"/>
-        <v>GBPFUT3MV1ConvAdj_Quote</v>
-      </c>
-      <c r="H96" s="141" t="str">
-        <f t="shared" si="11"/>
-        <v>GBP_YC3MRH_FUT3MV1</v>
-      </c>
-      <c r="I96" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H96,$F96,$D96,$E96,$G96,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J96" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I96)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MV1_Quote'</v>
-      </c>
-      <c r="K96" s="103"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" s="144"/>
-      <c r="B97" s="109">
-        <v>95</v>
-      </c>
-      <c r="C97" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D97" s="143" t="str">
-        <v>X1</v>
-      </c>
-      <c r="E97" s="142" t="str">
-        <f t="shared" si="8"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F97" s="141" t="str">
-        <f t="shared" si="9"/>
-        <v>GBPFUT3MX1_Quote</v>
-      </c>
-      <c r="G97" s="141" t="str">
-        <f t="shared" si="10"/>
-        <v>GBPFUT3MX1ConvAdj_Quote</v>
-      </c>
-      <c r="H97" s="141" t="str">
-        <f t="shared" si="11"/>
-        <v>GBP_YC3MRH_FUT3MX1</v>
-      </c>
-      <c r="I97" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H97,$F97,$D97,$E97,$G97,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J97" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I97)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MX1_Quote'</v>
-      </c>
-      <c r="K97" s="103"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" s="144"/>
-      <c r="B98" s="109">
-        <v>96</v>
-      </c>
-      <c r="C98" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D98" s="143" t="str">
-        <v>Z1</v>
-      </c>
-      <c r="E98" s="142" t="str">
-        <f t="shared" si="8"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F98" s="141" t="str">
-        <f t="shared" si="9"/>
-        <v>GBPFUT3MZ1_Quote</v>
-      </c>
-      <c r="G98" s="141" t="str">
-        <f t="shared" si="10"/>
-        <v>GBPFUT3MZ1ConvAdj_Quote</v>
-      </c>
-      <c r="H98" s="141" t="str">
-        <f t="shared" si="11"/>
-        <v>GBP_YC3MRH_FUT3MZ1</v>
-      </c>
-      <c r="I98" s="140" t="str">
-        <f>_xll.qlFuturesRateHelper(H98,$F98,$D98,$E98,$G98,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MZ1#0003</v>
-      </c>
-      <c r="J98" s="104" t="str">
-        <f>_xll.ohRangeRetrieveError(I98)</f>
-        <v/>
-      </c>
-      <c r="K98" s="103"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="144"/>
-      <c r="B99" s="109">
-        <v>97</v>
-      </c>
-      <c r="C99" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D99" s="143" t="str">
-        <v>F2</v>
-      </c>
-      <c r="E99" s="142" t="str">
-        <f t="shared" ref="E99:E122" si="12">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F99" s="141" t="str">
-        <f t="shared" ref="F99:F122" si="13">Currency&amp;"FUT"&amp;$E$1&amp;$D99&amp;QuoteSuffix</f>
-        <v>GBPFUT3MF2_Quote</v>
-      </c>
-      <c r="G99" s="141" t="str">
-        <f t="shared" ref="G99:G122" si="14">Currency&amp;"FUT"&amp;$E$1&amp;$D99&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MF2ConvAdj_Quote</v>
-      </c>
-      <c r="H99" s="141" t="str">
-        <f t="shared" ref="H99:H122" si="15">$H$1&amp;"_FUT"&amp;$E$1&amp;$D99</f>
-        <v>GBP_YC3MRH_FUT3MF2</v>
-      </c>
-      <c r="I99" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H99,$F99,$D99,$E99,$G99,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J99" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I99)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MF2_Quote'</v>
-      </c>
-      <c r="K99" s="103"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" s="144"/>
-      <c r="B100" s="109">
-        <v>98</v>
-      </c>
-      <c r="C100" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D100" s="143" t="str">
-        <v>G2</v>
-      </c>
-      <c r="E100" s="142" t="str">
-        <f t="shared" si="12"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F100" s="141" t="str">
-        <f t="shared" si="13"/>
-        <v>GBPFUT3MG2_Quote</v>
-      </c>
-      <c r="G100" s="141" t="str">
-        <f t="shared" si="14"/>
-        <v>GBPFUT3MG2ConvAdj_Quote</v>
-      </c>
-      <c r="H100" s="141" t="str">
-        <f t="shared" si="15"/>
-        <v>GBP_YC3MRH_FUT3MG2</v>
-      </c>
-      <c r="I100" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H100,$F100,$D100,$E100,$G100,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J100" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I100)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MG2_Quote'</v>
-      </c>
-      <c r="K100" s="103"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" s="144"/>
-      <c r="B101" s="109">
-        <v>99</v>
-      </c>
-      <c r="C101" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D101" s="143" t="str">
-        <v>H2</v>
-      </c>
-      <c r="E101" s="142" t="str">
-        <f t="shared" si="12"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F101" s="141" t="str">
-        <f t="shared" si="13"/>
-        <v>GBPFUT3MH2_Quote</v>
-      </c>
-      <c r="G101" s="141" t="str">
-        <f t="shared" si="14"/>
-        <v>GBPFUT3MH2ConvAdj_Quote</v>
-      </c>
-      <c r="H101" s="141" t="str">
-        <f t="shared" si="15"/>
-        <v>GBP_YC3MRH_FUT3MH2</v>
-      </c>
-      <c r="I101" s="140" t="str">
-        <f>_xll.qlFuturesRateHelper(H101,$F101,$D101,$E101,$G101,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MH2#0003</v>
-      </c>
-      <c r="J101" s="104" t="str">
-        <f>_xll.ohRangeRetrieveError(I101)</f>
-        <v/>
-      </c>
-      <c r="K101" s="103"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102" s="144"/>
-      <c r="B102" s="109">
-        <v>100</v>
-      </c>
-      <c r="C102" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D102" s="143" t="str">
-        <v>J2</v>
-      </c>
-      <c r="E102" s="142" t="str">
-        <f t="shared" si="12"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F102" s="141" t="str">
-        <f t="shared" si="13"/>
-        <v>GBPFUT3MJ2_Quote</v>
-      </c>
-      <c r="G102" s="141" t="str">
-        <f t="shared" si="14"/>
-        <v>GBPFUT3MJ2ConvAdj_Quote</v>
-      </c>
-      <c r="H102" s="141" t="str">
-        <f t="shared" si="15"/>
-        <v>GBP_YC3MRH_FUT3MJ2</v>
-      </c>
-      <c r="I102" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H102,$F102,$D102,$E102,$G102,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J102" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I102)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MJ2_Quote'</v>
-      </c>
-      <c r="K102" s="103"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103" s="144"/>
-      <c r="B103" s="109">
-        <v>101</v>
-      </c>
-      <c r="C103" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D103" s="143" t="str">
-        <v>K2</v>
-      </c>
-      <c r="E103" s="142" t="str">
-        <f t="shared" si="12"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F103" s="141" t="str">
-        <f t="shared" si="13"/>
-        <v>GBPFUT3MK2_Quote</v>
-      </c>
-      <c r="G103" s="141" t="str">
-        <f t="shared" si="14"/>
-        <v>GBPFUT3MK2ConvAdj_Quote</v>
-      </c>
-      <c r="H103" s="141" t="str">
-        <f t="shared" si="15"/>
-        <v>GBP_YC3MRH_FUT3MK2</v>
-      </c>
-      <c r="I103" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H103,$F103,$D103,$E103,$G103,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J103" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I103)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MK2_Quote'</v>
-      </c>
-      <c r="K103" s="103"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" s="144"/>
-      <c r="B104" s="109">
-        <v>102</v>
-      </c>
-      <c r="C104" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D104" s="143" t="str">
-        <v>M2</v>
-      </c>
-      <c r="E104" s="142" t="str">
-        <f t="shared" si="12"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F104" s="141" t="str">
-        <f t="shared" si="13"/>
-        <v>GBPFUT3MM2_Quote</v>
-      </c>
-      <c r="G104" s="141" t="str">
-        <f t="shared" si="14"/>
-        <v>GBPFUT3MM2ConvAdj_Quote</v>
-      </c>
-      <c r="H104" s="141" t="str">
-        <f t="shared" si="15"/>
-        <v>GBP_YC3MRH_FUT3MM2</v>
-      </c>
-      <c r="I104" s="140" t="str">
-        <f>_xll.qlFuturesRateHelper(H104,$F104,$D104,$E104,$G104,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MM2#0003</v>
-      </c>
-      <c r="J104" s="104" t="str">
-        <f>_xll.ohRangeRetrieveError(I104)</f>
-        <v/>
-      </c>
-      <c r="K104" s="103"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" s="144"/>
-      <c r="B105" s="109">
-        <v>103</v>
-      </c>
-      <c r="C105" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D105" s="143" t="str">
-        <v>N2</v>
-      </c>
-      <c r="E105" s="142" t="str">
-        <f t="shared" si="12"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F105" s="141" t="str">
-        <f t="shared" si="13"/>
-        <v>GBPFUT3MN2_Quote</v>
-      </c>
-      <c r="G105" s="141" t="str">
-        <f t="shared" si="14"/>
-        <v>GBPFUT3MN2ConvAdj_Quote</v>
-      </c>
-      <c r="H105" s="141" t="str">
-        <f t="shared" si="15"/>
-        <v>GBP_YC3MRH_FUT3MN2</v>
-      </c>
-      <c r="I105" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H105,$F105,$D105,$E105,$G105,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J105" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I105)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MN2_Quote'</v>
-      </c>
-      <c r="K105" s="103"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" s="144"/>
-      <c r="B106" s="109">
-        <v>104</v>
-      </c>
-      <c r="C106" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D106" s="143" t="str">
-        <v>Q2</v>
-      </c>
-      <c r="E106" s="142" t="str">
-        <f t="shared" si="12"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F106" s="141" t="str">
-        <f t="shared" si="13"/>
-        <v>GBPFUT3MQ2_Quote</v>
-      </c>
-      <c r="G106" s="141" t="str">
-        <f t="shared" si="14"/>
-        <v>GBPFUT3MQ2ConvAdj_Quote</v>
-      </c>
-      <c r="H106" s="141" t="str">
-        <f t="shared" si="15"/>
-        <v>GBP_YC3MRH_FUT3MQ2</v>
-      </c>
-      <c r="I106" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H106,$F106,$D106,$E106,$G106,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J106" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I106)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MQ2_Quote'</v>
-      </c>
-      <c r="K106" s="103"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" s="144"/>
-      <c r="B107" s="109">
-        <v>105</v>
-      </c>
-      <c r="C107" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D107" s="143" t="str">
-        <v>U2</v>
-      </c>
-      <c r="E107" s="142" t="str">
-        <f t="shared" si="12"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F107" s="141" t="str">
-        <f t="shared" si="13"/>
-        <v>GBPFUT3MU2_Quote</v>
-      </c>
-      <c r="G107" s="141" t="str">
-        <f t="shared" si="14"/>
-        <v>GBPFUT3MU2ConvAdj_Quote</v>
-      </c>
-      <c r="H107" s="141" t="str">
-        <f t="shared" si="15"/>
-        <v>GBP_YC3MRH_FUT3MU2</v>
-      </c>
-      <c r="I107" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H107,$F107,$D107,$E107,$G107,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J107" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I107)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MU2_Quote'</v>
-      </c>
-      <c r="K107" s="103"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108" s="144"/>
-      <c r="B108" s="109">
-        <v>106</v>
-      </c>
-      <c r="C108" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D108" s="143" t="str">
-        <v>V2</v>
-      </c>
-      <c r="E108" s="142" t="str">
-        <f t="shared" si="12"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F108" s="141" t="str">
-        <f t="shared" si="13"/>
-        <v>GBPFUT3MV2_Quote</v>
-      </c>
-      <c r="G108" s="141" t="str">
-        <f t="shared" si="14"/>
-        <v>GBPFUT3MV2ConvAdj_Quote</v>
-      </c>
-      <c r="H108" s="141" t="str">
-        <f t="shared" si="15"/>
-        <v>GBP_YC3MRH_FUT3MV2</v>
-      </c>
-      <c r="I108" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H108,$F108,$D108,$E108,$G108,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J108" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I108)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MV2_Quote'</v>
-      </c>
-      <c r="K108" s="103"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109" s="144"/>
-      <c r="B109" s="109">
-        <v>107</v>
-      </c>
-      <c r="C109" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D109" s="143" t="str">
-        <v>X2</v>
-      </c>
-      <c r="E109" s="142" t="str">
-        <f t="shared" si="12"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F109" s="141" t="str">
-        <f t="shared" si="13"/>
-        <v>GBPFUT3MX2_Quote</v>
-      </c>
-      <c r="G109" s="141" t="str">
-        <f t="shared" si="14"/>
-        <v>GBPFUT3MX2ConvAdj_Quote</v>
-      </c>
-      <c r="H109" s="141" t="str">
-        <f t="shared" si="15"/>
-        <v>GBP_YC3MRH_FUT3MX2</v>
-      </c>
-      <c r="I109" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H109,$F109,$D109,$E109,$G109,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J109" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I109)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MX2_Quote'</v>
-      </c>
-      <c r="K109" s="103"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A110" s="144"/>
-      <c r="B110" s="109">
-        <v>108</v>
-      </c>
-      <c r="C110" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D110" s="143" t="str">
-        <v>Z2</v>
-      </c>
-      <c r="E110" s="142" t="str">
-        <f t="shared" si="12"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F110" s="141" t="str">
-        <f t="shared" si="13"/>
-        <v>GBPFUT3MZ2_Quote</v>
-      </c>
-      <c r="G110" s="141" t="str">
-        <f t="shared" si="14"/>
-        <v>GBPFUT3MZ2ConvAdj_Quote</v>
-      </c>
-      <c r="H110" s="141" t="str">
-        <f t="shared" si="15"/>
-        <v>GBP_YC3MRH_FUT3MZ2</v>
-      </c>
-      <c r="I110" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H110,$F110,$D110,$E110,$G110,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J110" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I110)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MZ2_Quote'</v>
-      </c>
-      <c r="K110" s="103"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A111" s="144"/>
-      <c r="B111" s="109">
-        <v>109</v>
-      </c>
-      <c r="C111" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D111" s="143" t="str">
-        <v>F3</v>
-      </c>
-      <c r="E111" s="142" t="str">
-        <f t="shared" si="12"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F111" s="141" t="str">
-        <f t="shared" si="13"/>
-        <v>GBPFUT3MF3_Quote</v>
-      </c>
-      <c r="G111" s="141" t="str">
-        <f t="shared" si="14"/>
-        <v>GBPFUT3MF3ConvAdj_Quote</v>
-      </c>
-      <c r="H111" s="141" t="str">
-        <f t="shared" si="15"/>
-        <v>GBP_YC3MRH_FUT3MF3</v>
-      </c>
-      <c r="I111" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H111,$F111,$D111,$E111,$G111,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J111" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I111)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MF3_Quote'</v>
-      </c>
-      <c r="K111" s="103"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A112" s="144"/>
-      <c r="B112" s="109">
-        <v>110</v>
-      </c>
-      <c r="C112" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D112" s="143" t="str">
-        <v>G3</v>
-      </c>
-      <c r="E112" s="142" t="str">
-        <f t="shared" si="12"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F112" s="141" t="str">
-        <f t="shared" si="13"/>
-        <v>GBPFUT3MG3_Quote</v>
-      </c>
-      <c r="G112" s="141" t="str">
-        <f t="shared" si="14"/>
-        <v>GBPFUT3MG3ConvAdj_Quote</v>
-      </c>
-      <c r="H112" s="141" t="str">
-        <f t="shared" si="15"/>
-        <v>GBP_YC3MRH_FUT3MG3</v>
-      </c>
-      <c r="I112" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H112,$F112,$D112,$E112,$G112,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J112" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I112)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MG3_Quote'</v>
-      </c>
-      <c r="K112" s="103"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A113" s="144"/>
-      <c r="B113" s="109">
-        <v>111</v>
-      </c>
-      <c r="C113" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D113" s="143" t="str">
-        <v>H3</v>
-      </c>
-      <c r="E113" s="142" t="str">
-        <f t="shared" si="12"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F113" s="141" t="str">
-        <f t="shared" si="13"/>
-        <v>GBPFUT3MH3_Quote</v>
-      </c>
-      <c r="G113" s="141" t="str">
-        <f t="shared" si="14"/>
-        <v>GBPFUT3MH3ConvAdj_Quote</v>
-      </c>
-      <c r="H113" s="141" t="str">
-        <f t="shared" si="15"/>
-        <v>GBP_YC3MRH_FUT3MH3</v>
-      </c>
-      <c r="I113" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H113,$F113,$D113,$E113,$G113,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J113" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I113)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MH3_Quote'</v>
-      </c>
-      <c r="K113" s="103"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A114" s="144"/>
-      <c r="B114" s="109">
-        <v>112</v>
-      </c>
-      <c r="C114" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D114" s="143" t="str">
-        <v>J3</v>
-      </c>
-      <c r="E114" s="142" t="str">
-        <f t="shared" si="12"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F114" s="141" t="str">
-        <f t="shared" si="13"/>
-        <v>GBPFUT3MJ3_Quote</v>
-      </c>
-      <c r="G114" s="141" t="str">
-        <f t="shared" si="14"/>
-        <v>GBPFUT3MJ3ConvAdj_Quote</v>
-      </c>
-      <c r="H114" s="141" t="str">
-        <f t="shared" si="15"/>
-        <v>GBP_YC3MRH_FUT3MJ3</v>
-      </c>
-      <c r="I114" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H114,$F114,$D114,$E114,$G114,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J114" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I114)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MJ3_Quote'</v>
-      </c>
-      <c r="K114" s="103"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A115" s="144"/>
-      <c r="B115" s="109">
-        <v>113</v>
-      </c>
-      <c r="C115" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D115" s="143" t="str">
-        <v>K3</v>
-      </c>
-      <c r="E115" s="142" t="str">
-        <f t="shared" si="12"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F115" s="141" t="str">
-        <f t="shared" si="13"/>
-        <v>GBPFUT3MK3_Quote</v>
-      </c>
-      <c r="G115" s="141" t="str">
-        <f t="shared" si="14"/>
-        <v>GBPFUT3MK3ConvAdj_Quote</v>
-      </c>
-      <c r="H115" s="141" t="str">
-        <f t="shared" si="15"/>
-        <v>GBP_YC3MRH_FUT3MK3</v>
-      </c>
-      <c r="I115" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H115,$F115,$D115,$E115,$G115,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J115" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I115)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MK3_Quote'</v>
-      </c>
-      <c r="K115" s="103"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A116" s="144"/>
-      <c r="B116" s="109">
-        <v>114</v>
-      </c>
-      <c r="C116" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D116" s="143" t="str">
-        <v>M3</v>
-      </c>
-      <c r="E116" s="142" t="str">
-        <f t="shared" si="12"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F116" s="141" t="str">
-        <f t="shared" si="13"/>
-        <v>GBPFUT3MM3_Quote</v>
-      </c>
-      <c r="G116" s="141" t="str">
-        <f t="shared" si="14"/>
-        <v>GBPFUT3MM3ConvAdj_Quote</v>
-      </c>
-      <c r="H116" s="141" t="str">
-        <f t="shared" si="15"/>
-        <v>GBP_YC3MRH_FUT3MM3</v>
-      </c>
-      <c r="I116" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H116,$F116,$D116,$E116,$G116,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J116" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I116)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MM3_Quote'</v>
-      </c>
-      <c r="K116" s="103"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A117" s="144"/>
-      <c r="B117" s="109">
-        <v>115</v>
-      </c>
-      <c r="C117" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D117" s="143" t="str">
-        <v>N3</v>
-      </c>
-      <c r="E117" s="142" t="str">
-        <f t="shared" si="12"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F117" s="141" t="str">
-        <f t="shared" si="13"/>
-        <v>GBPFUT3MN3_Quote</v>
-      </c>
-      <c r="G117" s="141" t="str">
-        <f t="shared" si="14"/>
-        <v>GBPFUT3MN3ConvAdj_Quote</v>
-      </c>
-      <c r="H117" s="141" t="str">
-        <f t="shared" si="15"/>
-        <v>GBP_YC3MRH_FUT3MN3</v>
-      </c>
-      <c r="I117" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H117,$F117,$D117,$E117,$G117,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J117" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I117)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MN3_Quote'</v>
-      </c>
-      <c r="K117" s="103"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A118" s="144"/>
-      <c r="B118" s="109">
-        <v>116</v>
-      </c>
-      <c r="C118" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D118" s="143" t="str">
-        <v>Q3</v>
-      </c>
-      <c r="E118" s="142" t="str">
-        <f t="shared" si="12"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F118" s="141" t="str">
-        <f t="shared" si="13"/>
-        <v>GBPFUT3MQ3_Quote</v>
-      </c>
-      <c r="G118" s="141" t="str">
-        <f t="shared" si="14"/>
-        <v>GBPFUT3MQ3ConvAdj_Quote</v>
-      </c>
-      <c r="H118" s="141" t="str">
-        <f t="shared" si="15"/>
-        <v>GBP_YC3MRH_FUT3MQ3</v>
-      </c>
-      <c r="I118" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H118,$F118,$D118,$E118,$G118,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J118" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I118)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MQ3_Quote'</v>
-      </c>
-      <c r="K118" s="103"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A119" s="144"/>
-      <c r="B119" s="109">
-        <v>117</v>
-      </c>
-      <c r="C119" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D119" s="143" t="str">
-        <v>U3</v>
-      </c>
-      <c r="E119" s="142" t="str">
-        <f t="shared" si="12"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F119" s="141" t="str">
-        <f t="shared" si="13"/>
-        <v>GBPFUT3MU3_Quote</v>
-      </c>
-      <c r="G119" s="141" t="str">
-        <f t="shared" si="14"/>
-        <v>GBPFUT3MU3ConvAdj_Quote</v>
-      </c>
-      <c r="H119" s="141" t="str">
-        <f t="shared" si="15"/>
-        <v>GBP_YC3MRH_FUT3MU3</v>
-      </c>
-      <c r="I119" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H119,$F119,$D119,$E119,$G119,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J119" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I119)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MU3_Quote'</v>
-      </c>
-      <c r="K119" s="103"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A120" s="144"/>
-      <c r="B120" s="109">
-        <v>118</v>
-      </c>
-      <c r="C120" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D120" s="143" t="str">
-        <v>V3</v>
-      </c>
-      <c r="E120" s="142" t="str">
-        <f t="shared" si="12"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F120" s="141" t="str">
-        <f t="shared" si="13"/>
-        <v>GBPFUT3MV3_Quote</v>
-      </c>
-      <c r="G120" s="141" t="str">
-        <f t="shared" si="14"/>
-        <v>GBPFUT3MV3ConvAdj_Quote</v>
-      </c>
-      <c r="H120" s="141" t="str">
-        <f t="shared" si="15"/>
-        <v>GBP_YC3MRH_FUT3MV3</v>
-      </c>
-      <c r="I120" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H120,$F120,$D120,$E120,$G120,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J120" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I120)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MV3_Quote'</v>
-      </c>
-      <c r="K120" s="103"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A121" s="144"/>
-      <c r="B121" s="109">
-        <v>119</v>
-      </c>
-      <c r="C121" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D121" s="143" t="str">
-        <v>X3</v>
-      </c>
-      <c r="E121" s="142" t="str">
-        <f t="shared" si="12"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F121" s="141" t="str">
-        <f t="shared" si="13"/>
-        <v>GBPFUT3MX3_Quote</v>
-      </c>
-      <c r="G121" s="141" t="str">
-        <f t="shared" si="14"/>
-        <v>GBPFUT3MX3ConvAdj_Quote</v>
-      </c>
-      <c r="H121" s="141" t="str">
-        <f t="shared" si="15"/>
-        <v>GBP_YC3MRH_FUT3MX3</v>
-      </c>
-      <c r="I121" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H121,$F121,$D121,$E121,$G121,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J121" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I121)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MX3_Quote'</v>
-      </c>
-      <c r="K121" s="103"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A122" s="144"/>
-      <c r="B122" s="109">
-        <v>120</v>
-      </c>
-      <c r="C122" s="143" t="b">
-        <v>0</v>
-      </c>
-      <c r="D122" s="143" t="str">
-        <v>Z3</v>
-      </c>
-      <c r="E122" s="142" t="str">
-        <f t="shared" si="12"/>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="F122" s="141" t="str">
-        <f t="shared" si="13"/>
-        <v>GBPFUT3MZ3_Quote</v>
-      </c>
-      <c r="G122" s="141" t="str">
-        <f t="shared" si="14"/>
-        <v>GBPFUT3MZ3ConvAdj_Quote</v>
-      </c>
-      <c r="H122" s="141" t="str">
-        <f t="shared" si="15"/>
-        <v>GBP_YC3MRH_FUT3MZ3</v>
-      </c>
-      <c r="I122" s="140" t="e">
-        <f>_xll.qlFuturesRateHelper(H122,$F122,$D122,$E122,$G122,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J122" s="104" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I122)</f>
-        <v>qlFuturesRateHelper - Error converting parameter 'Price' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'GBPFUT3MZ3_Quote'</v>
-      </c>
-      <c r="K122" s="103"/>
-    </row>
-    <row r="123" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="139"/>
-      <c r="B123" s="138"/>
-      <c r="C123" s="138"/>
-      <c r="D123" s="138"/>
-      <c r="E123" s="138"/>
-      <c r="F123" s="138"/>
-      <c r="G123" s="138"/>
-      <c r="H123" s="138"/>
-      <c r="I123" s="138"/>
-      <c r="J123" s="138"/>
-      <c r="K123" s="137"/>
+    <row r="45" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="139"/>
+      <c r="B45" s="138"/>
+      <c r="C45" s="138"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="138"/>
+      <c r="F45" s="138"/>
+      <c r="G45" s="138"/>
+      <c r="H45" s="138"/>
+      <c r="I45" s="138"/>
+      <c r="J45" s="138"/>
+      <c r="K45" s="137"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20018,7 +17004,7 @@
   <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+      <selection activeCell="L6" sqref="L6:L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -20141,7 +17127,7 @@
       </c>
       <c r="L4" s="176" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>GBP_YC3MRH_SB3LBASIS_Libor3M#0004</v>
+        <v>GBP_YC3MRH_SB3LBASIS_Libor3M#0001</v>
       </c>
       <c r="M4" s="175" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -20206,26 +17192,26 @@
       </c>
       <c r="L6" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS1Y#0004</v>
+        <v>GBP_YC3MRH_SB3LBASIS1Y#0001</v>
       </c>
       <c r="M6" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
         <v/>
       </c>
       <c r="N6" s="159"/>
-      <c r="T6" s="195">
+      <c r="T6" s="184">
         <f>_xll.qlQuoteValue(I6)</f>
         <v>1.2625E-3</v>
       </c>
-      <c r="U6" s="195" t="e">
+      <c r="U6" s="184" t="e">
         <f>_xll.qlQuoteValue(J6)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V6" s="195" t="e">
+      <c r="V6" s="184" t="e">
         <f>_xll.qlRateHelperQuoteValue(L6)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W6" s="195" t="e">
+      <c r="W6" s="184" t="e">
         <f>_xll.qlRateHelperRate(L6)</f>
         <v>#NUM!</v>
       </c>
@@ -20272,7 +17258,7 @@
       </c>
       <c r="L7" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS2Y#0004</v>
+        <v>GBP_YC3MRH_SB3LBASIS2Y#0001</v>
       </c>
       <c r="M7" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -20288,19 +17274,19 @@
       <c r="R7" s="171" t="s">
         <v>159</v>
       </c>
-      <c r="T7" s="195">
+      <c r="T7" s="184">
         <f>_xll.qlQuoteValue(I7)</f>
         <v>1.25E-3</v>
       </c>
-      <c r="U7" s="195">
+      <c r="U7" s="184">
         <f>_xll.qlQuoteValue(J7)</f>
         <v>6.6749999999999995E-3</v>
       </c>
-      <c r="V7" s="195">
+      <c r="V7" s="184">
         <f>_xll.qlRateHelperQuoteValue(L7)</f>
         <v>6.6749999999999995E-3</v>
       </c>
-      <c r="W7" s="195">
+      <c r="W7" s="184">
         <f>_xll.qlRateHelperRate(L7)</f>
         <v>6.6749999999999995E-3</v>
       </c>
@@ -20347,7 +17333,7 @@
       </c>
       <c r="L8" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS3Y#0004</v>
+        <v>GBP_YC3MRH_SB3LBASIS3Y#0001</v>
       </c>
       <c r="M8" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -20363,19 +17349,19 @@
       <c r="R8" s="169" t="s">
         <v>160</v>
       </c>
-      <c r="T8" s="195">
+      <c r="T8" s="184">
         <f>_xll.qlQuoteValue(I8)</f>
         <v>1.2375000000000001E-3</v>
       </c>
-      <c r="U8" s="195">
+      <c r="U8" s="184">
         <f>_xll.qlQuoteValue(J8)</f>
         <v>7.3250000000000008E-3</v>
       </c>
-      <c r="V8" s="195">
+      <c r="V8" s="184">
         <f>_xll.qlRateHelperQuoteValue(L8)</f>
         <v>7.3250000000000008E-3</v>
       </c>
-      <c r="W8" s="195">
+      <c r="W8" s="184">
         <f>_xll.qlRateHelperRate(L8)</f>
         <v>7.3250000000000008E-3</v>
       </c>
@@ -20422,7 +17408,7 @@
       </c>
       <c r="L9" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS4Y#0004</v>
+        <v>GBP_YC3MRH_SB3LBASIS4Y#0001</v>
       </c>
       <c r="M9" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -20438,19 +17424,19 @@
       <c r="R9" s="169" t="s">
         <v>159</v>
       </c>
-      <c r="T9" s="195">
+      <c r="T9" s="184">
         <f>_xll.qlQuoteValue(I9)</f>
         <v>1.225E-3</v>
       </c>
-      <c r="U9" s="195">
+      <c r="U9" s="184">
         <f>_xll.qlQuoteValue(J9)</f>
         <v>8.4499999999999992E-3</v>
       </c>
-      <c r="V9" s="195">
+      <c r="V9" s="184">
         <f>_xll.qlRateHelperQuoteValue(L9)</f>
         <v>8.4499999999999992E-3</v>
       </c>
-      <c r="W9" s="195">
+      <c r="W9" s="184">
         <f>_xll.qlRateHelperRate(L9)</f>
         <v>8.4499999999999992E-3</v>
       </c>
@@ -20497,7 +17483,7 @@
       </c>
       <c r="L10" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS5Y#0004</v>
+        <v>GBP_YC3MRH_SB3LBASIS5Y#0001</v>
       </c>
       <c r="M10" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -20513,19 +17499,19 @@
       <c r="R10" s="169" t="s">
         <v>159</v>
       </c>
-      <c r="T10" s="195">
+      <c r="T10" s="184">
         <f>_xll.qlQuoteValue(I10)</f>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="U10" s="195">
+      <c r="U10" s="184">
         <f>_xll.qlQuoteValue(J10)</f>
         <v>9.9500000000000005E-3</v>
       </c>
-      <c r="V10" s="195">
+      <c r="V10" s="184">
         <f>_xll.qlRateHelperQuoteValue(L10)</f>
         <v>9.9500000000000005E-3</v>
       </c>
-      <c r="W10" s="195">
+      <c r="W10" s="184">
         <f>_xll.qlRateHelperRate(L10)</f>
         <v>9.9500000000000005E-3</v>
       </c>
@@ -20572,7 +17558,7 @@
       </c>
       <c r="L11" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS6Y#0004</v>
+        <v>GBP_YC3MRH_SB3LBASIS6Y#0001</v>
       </c>
       <c r="M11" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -20588,19 +17574,19 @@
       <c r="R11" s="166" t="s">
         <v>159</v>
       </c>
-      <c r="T11" s="195">
+      <c r="T11" s="184">
         <f>_xll.qlQuoteValue(I11)</f>
         <v>1.175E-3</v>
       </c>
-      <c r="U11" s="195">
+      <c r="U11" s="184">
         <f>_xll.qlQuoteValue(J11)</f>
         <v>1.1650000000000001E-2</v>
       </c>
-      <c r="V11" s="195">
+      <c r="V11" s="184">
         <f>_xll.qlRateHelperQuoteValue(L11)</f>
         <v>1.1650000000000001E-2</v>
       </c>
-      <c r="W11" s="195">
+      <c r="W11" s="184">
         <f>_xll.qlRateHelperRate(L11)</f>
         <v>1.1650000000000001E-2</v>
       </c>
@@ -20647,7 +17633,7 @@
       </c>
       <c r="L12" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS7Y#0004</v>
+        <v>GBP_YC3MRH_SB3LBASIS7Y#0001</v>
       </c>
       <c r="M12" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -20657,19 +17643,19 @@
       <c r="P12" s="165"/>
       <c r="Q12" s="165"/>
       <c r="R12" s="165"/>
-      <c r="T12" s="195">
+      <c r="T12" s="184">
         <f>_xll.qlQuoteValue(I12)</f>
         <v>1.1375000000000001E-3</v>
       </c>
-      <c r="U12" s="195">
+      <c r="U12" s="184">
         <f>_xll.qlQuoteValue(J12)</f>
         <v>1.3474999999999999E-2</v>
       </c>
-      <c r="V12" s="195">
+      <c r="V12" s="184">
         <f>_xll.qlRateHelperQuoteValue(L12)</f>
         <v>1.3474999999999999E-2</v>
       </c>
-      <c r="W12" s="195">
+      <c r="W12" s="184">
         <f>_xll.qlRateHelperRate(L12)</f>
         <v>1.3474999999999999E-2</v>
       </c>
@@ -20716,26 +17702,26 @@
       </c>
       <c r="L13" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS8Y#0004</v>
+        <v>GBP_YC3MRH_SB3LBASIS8Y#0001</v>
       </c>
       <c r="M13" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
         <v/>
       </c>
       <c r="N13" s="159"/>
-      <c r="T13" s="195">
+      <c r="T13" s="184">
         <f>_xll.qlQuoteValue(I13)</f>
         <v>1.0874999999999999E-3</v>
       </c>
-      <c r="U13" s="195">
+      <c r="U13" s="184">
         <f>_xll.qlQuoteValue(J13)</f>
         <v>1.5300000000000001E-2</v>
       </c>
-      <c r="V13" s="195">
+      <c r="V13" s="184">
         <f>_xll.qlRateHelperQuoteValue(L13)</f>
         <v>1.5300000000000001E-2</v>
       </c>
-      <c r="W13" s="195">
+      <c r="W13" s="184">
         <f>_xll.qlRateHelperRate(L13)</f>
         <v>1.5300000000000001E-2</v>
       </c>
@@ -20782,26 +17768,26 @@
       </c>
       <c r="L14" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS9Y#0004</v>
+        <v>GBP_YC3MRH_SB3LBASIS9Y#0001</v>
       </c>
       <c r="M14" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
         <v/>
       </c>
       <c r="N14" s="159"/>
-      <c r="T14" s="195">
+      <c r="T14" s="184">
         <f>_xll.qlQuoteValue(I14)</f>
         <v>1.0499999999999999E-3</v>
       </c>
-      <c r="U14" s="195">
+      <c r="U14" s="184">
         <f>_xll.qlQuoteValue(J14)</f>
         <v>1.7075E-2</v>
       </c>
-      <c r="V14" s="195">
+      <c r="V14" s="184">
         <f>_xll.qlRateHelperQuoteValue(L14)</f>
         <v>1.7075E-2</v>
       </c>
-      <c r="W14" s="195">
+      <c r="W14" s="184">
         <f>_xll.qlRateHelperRate(L14)</f>
         <v>1.7075E-2</v>
       </c>
@@ -20848,26 +17834,26 @@
       </c>
       <c r="L15" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS10Y#0004</v>
+        <v>GBP_YC3MRH_SB3LBASIS10Y#0001</v>
       </c>
       <c r="M15" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
         <v/>
       </c>
       <c r="N15" s="159"/>
-      <c r="T15" s="195">
+      <c r="T15" s="184">
         <f>_xll.qlQuoteValue(I15)</f>
         <v>1.0124999999999999E-3</v>
       </c>
-      <c r="U15" s="195">
+      <c r="U15" s="184">
         <f>_xll.qlQuoteValue(J15)</f>
         <v>1.8725000000000002E-2</v>
       </c>
-      <c r="V15" s="195">
+      <c r="V15" s="184">
         <f>_xll.qlRateHelperQuoteValue(L15)</f>
         <v>1.8725000000000002E-2</v>
       </c>
-      <c r="W15" s="195">
+      <c r="W15" s="184">
         <f>_xll.qlRateHelperRate(L15)</f>
         <v>1.8725000000000002E-2</v>
       </c>
@@ -20914,26 +17900,26 @@
       </c>
       <c r="L16" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS11Y#0004</v>
+        <v>GBP_YC3MRH_SB3LBASIS11Y#0001</v>
       </c>
       <c r="M16" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
         <v/>
       </c>
       <c r="N16" s="159"/>
-      <c r="T16" s="195">
+      <c r="T16" s="184">
         <f>_xll.qlQuoteValue(I16)</f>
         <v>9.7895284739868763E-4</v>
       </c>
-      <c r="U16" s="195" t="e">
+      <c r="U16" s="184" t="e">
         <f>_xll.qlQuoteValue(J16)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V16" s="195" t="e">
+      <c r="V16" s="184" t="e">
         <f>_xll.qlRateHelperQuoteValue(L16)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W16" s="195" t="e">
+      <c r="W16" s="184" t="e">
         <f>_xll.qlRateHelperRate(L16)</f>
         <v>#NUM!</v>
       </c>
@@ -20980,26 +17966,26 @@
       </c>
       <c r="L17" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS12Y#0004</v>
+        <v>GBP_YC3MRH_SB3LBASIS12Y#0001</v>
       </c>
       <c r="M17" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
         <v/>
       </c>
       <c r="N17" s="159"/>
-      <c r="T17" s="195">
+      <c r="T17" s="184">
         <f>_xll.qlQuoteValue(I17)</f>
         <v>9.5E-4</v>
       </c>
-      <c r="U17" s="195">
+      <c r="U17" s="184">
         <f>_xll.qlQuoteValue(J17)</f>
         <v>2.1425E-2</v>
       </c>
-      <c r="V17" s="195">
+      <c r="V17" s="184">
         <f>_xll.qlRateHelperQuoteValue(L17)</f>
         <v>2.1425E-2</v>
       </c>
-      <c r="W17" s="195">
+      <c r="W17" s="184">
         <f>_xll.qlRateHelperRate(L17)</f>
         <v>2.1425E-2</v>
       </c>
@@ -21046,26 +18032,26 @@
       </c>
       <c r="L18" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS13Y#0004</v>
+        <v>GBP_YC3MRH_SB3LBASIS13Y#0001</v>
       </c>
       <c r="M18" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
         <v/>
       </c>
       <c r="N18" s="159"/>
-      <c r="T18" s="195">
+      <c r="T18" s="184">
         <f>_xll.qlQuoteValue(I18)</f>
         <v>9.2364426637802949E-4</v>
       </c>
-      <c r="U18" s="195" t="e">
+      <c r="U18" s="184" t="e">
         <f>_xll.qlQuoteValue(J18)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V18" s="195" t="e">
+      <c r="V18" s="184" t="e">
         <f>_xll.qlRateHelperQuoteValue(L18)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W18" s="195" t="e">
+      <c r="W18" s="184" t="e">
         <f>_xll.qlRateHelperRate(L18)</f>
         <v>#NUM!</v>
       </c>
@@ -21112,26 +18098,26 @@
       </c>
       <c r="L19" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS14Y#0004</v>
+        <v>GBP_YC3MRH_SB3LBASIS14Y#0001</v>
       </c>
       <c r="M19" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
         <v/>
       </c>
       <c r="N19" s="159"/>
-      <c r="T19" s="195">
+      <c r="T19" s="184">
         <f>_xll.qlQuoteValue(I19)</f>
         <v>8.9889189633966641E-4</v>
       </c>
-      <c r="U19" s="195" t="e">
+      <c r="U19" s="184" t="e">
         <f>_xll.qlQuoteValue(J19)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V19" s="195" t="e">
+      <c r="V19" s="184" t="e">
         <f>_xll.qlRateHelperQuoteValue(L19)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W19" s="195" t="e">
+      <c r="W19" s="184" t="e">
         <f>_xll.qlRateHelperRate(L19)</f>
         <v>#NUM!</v>
       </c>
@@ -21178,26 +18164,26 @@
       </c>
       <c r="L20" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS15Y#0004</v>
+        <v>GBP_YC3MRH_SB3LBASIS15Y#0001</v>
       </c>
       <c r="M20" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
         <v/>
       </c>
       <c r="N20" s="159"/>
-      <c r="T20" s="195">
+      <c r="T20" s="184">
         <f>_xll.qlQuoteValue(I20)</f>
         <v>8.7500000000000002E-4</v>
       </c>
-      <c r="U20" s="195">
+      <c r="U20" s="184">
         <f>_xll.qlQuoteValue(J20)</f>
         <v>2.4324999999999999E-2</v>
       </c>
-      <c r="V20" s="195">
+      <c r="V20" s="184">
         <f>_xll.qlRateHelperQuoteValue(L20)</f>
         <v>2.4324999999999999E-2</v>
       </c>
-      <c r="W20" s="195">
+      <c r="W20" s="184">
         <f>_xll.qlRateHelperRate(L20)</f>
         <v>2.4324999999999999E-2</v>
       </c>
@@ -21244,26 +18230,26 @@
       </c>
       <c r="L21" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS16Y#0004</v>
+        <v>GBP_YC3MRH_SB3LBASIS16Y#0001</v>
       </c>
       <c r="M21" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
         <v/>
       </c>
       <c r="N21" s="159"/>
-      <c r="T21" s="195">
+      <c r="T21" s="184">
         <f>_xll.qlQuoteValue(I21)</f>
         <v>8.5138611565163788E-4</v>
       </c>
-      <c r="U21" s="195" t="e">
+      <c r="U21" s="184" t="e">
         <f>_xll.qlQuoteValue(J21)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V21" s="195" t="e">
+      <c r="V21" s="184" t="e">
         <f>_xll.qlRateHelperQuoteValue(L21)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W21" s="195" t="e">
+      <c r="W21" s="184" t="e">
         <f>_xll.qlRateHelperRate(L21)</f>
         <v>#NUM!</v>
       </c>
@@ -21310,26 +18296,26 @@
       </c>
       <c r="L22" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS17Y#0004</v>
+        <v>GBP_YC3MRH_SB3LBASIS17Y#0001</v>
       </c>
       <c r="M22" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
         <v/>
       </c>
       <c r="N22" s="159"/>
-      <c r="T22" s="195">
+      <c r="T22" s="184">
         <f>_xll.qlQuoteValue(I22)</f>
         <v>8.2810949429725942E-4</v>
       </c>
-      <c r="U22" s="195" t="e">
+      <c r="U22" s="184" t="e">
         <f>_xll.qlQuoteValue(J22)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V22" s="195" t="e">
+      <c r="V22" s="184" t="e">
         <f>_xll.qlRateHelperQuoteValue(L22)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W22" s="195" t="e">
+      <c r="W22" s="184" t="e">
         <f>_xll.qlRateHelperRate(L22)</f>
         <v>#NUM!</v>
       </c>
@@ -21376,26 +18362,26 @@
       </c>
       <c r="L23" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS18Y#0004</v>
+        <v>GBP_YC3MRH_SB3LBASIS18Y#0001</v>
       </c>
       <c r="M23" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
         <v/>
       </c>
       <c r="N23" s="159"/>
-      <c r="T23" s="195">
+      <c r="T23" s="184">
         <f>_xll.qlQuoteValue(I23)</f>
         <v>8.0538981511706173E-4</v>
       </c>
-      <c r="U23" s="195" t="e">
+      <c r="U23" s="184" t="e">
         <f>_xll.qlQuoteValue(J23)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V23" s="195" t="e">
+      <c r="V23" s="184" t="e">
         <f>_xll.qlRateHelperQuoteValue(L23)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W23" s="195" t="e">
+      <c r="W23" s="184" t="e">
         <f>_xll.qlRateHelperRate(L23)</f>
         <v>#NUM!</v>
       </c>
@@ -21442,26 +18428,26 @@
       </c>
       <c r="L24" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS19Y#0004</v>
+        <v>GBP_YC3MRH_SB3LBASIS19Y#0001</v>
       </c>
       <c r="M24" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
         <v/>
       </c>
       <c r="N24" s="159"/>
-      <c r="T24" s="195">
+      <c r="T24" s="184">
         <f>_xll.qlQuoteValue(I24)</f>
         <v>7.8344675729124288E-4</v>
       </c>
-      <c r="U24" s="195" t="e">
+      <c r="U24" s="184" t="e">
         <f>_xll.qlQuoteValue(J24)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V24" s="195" t="e">
+      <c r="V24" s="184" t="e">
         <f>_xll.qlRateHelperQuoteValue(L24)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W24" s="195" t="e">
+      <c r="W24" s="184" t="e">
         <f>_xll.qlRateHelperRate(L24)</f>
         <v>#NUM!</v>
       </c>
@@ -21508,26 +18494,26 @@
       </c>
       <c r="L25" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS20Y#0004</v>
+        <v>GBP_YC3MRH_SB3LBASIS20Y#0001</v>
       </c>
       <c r="M25" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
         <v/>
       </c>
       <c r="N25" s="159"/>
-      <c r="T25" s="195">
+      <c r="T25" s="184">
         <f>_xll.qlQuoteValue(I25)</f>
         <v>7.6250000000000005E-4</v>
       </c>
-      <c r="U25" s="195">
+      <c r="U25" s="184">
         <f>_xll.qlQuoteValue(J25)</f>
         <v>2.7300000000000001E-2</v>
       </c>
-      <c r="V25" s="195">
+      <c r="V25" s="184">
         <f>_xll.qlRateHelperQuoteValue(L25)</f>
         <v>2.7300000000000001E-2</v>
       </c>
-      <c r="W25" s="195">
+      <c r="W25" s="184">
         <f>_xll.qlRateHelperRate(L25)</f>
         <v>2.7300000000000001E-2</v>
       </c>
@@ -21574,26 +18560,26 @@
       </c>
       <c r="L26" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS21Y#0004</v>
+        <v>GBP_YC3MRH_SB3LBASIS21Y#0001</v>
       </c>
       <c r="M26" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
         <v/>
       </c>
       <c r="N26" s="159"/>
-      <c r="T26" s="195">
+      <c r="T26" s="184">
         <f>_xll.qlQuoteValue(I26)</f>
         <v>7.4272602648057585E-4</v>
       </c>
-      <c r="U26" s="195" t="e">
+      <c r="U26" s="184" t="e">
         <f>_xll.qlQuoteValue(J26)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V26" s="195" t="e">
+      <c r="V26" s="184" t="e">
         <f>_xll.qlRateHelperQuoteValue(L26)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W26" s="195" t="e">
+      <c r="W26" s="184" t="e">
         <f>_xll.qlRateHelperRate(L26)</f>
         <v>#NUM!</v>
       </c>
@@ -21640,26 +18626,26 @@
       </c>
       <c r="L27" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS22Y#0004</v>
+        <v>GBP_YC3MRH_SB3LBASIS22Y#0001</v>
       </c>
       <c r="M27" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
         <v/>
       </c>
       <c r="N27" s="159"/>
-      <c r="T27" s="195">
+      <c r="T27" s="184">
         <f>_xll.qlQuoteValue(I27)</f>
         <v>7.2412853619839449E-4</v>
       </c>
-      <c r="U27" s="195" t="e">
+      <c r="U27" s="184" t="e">
         <f>_xll.qlQuoteValue(J27)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V27" s="195" t="e">
+      <c r="V27" s="184" t="e">
         <f>_xll.qlRateHelperQuoteValue(L27)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W27" s="195" t="e">
+      <c r="W27" s="184" t="e">
         <f>_xll.qlRateHelperRate(L27)</f>
         <v>#NUM!</v>
       </c>
@@ -21706,26 +18692,26 @@
       </c>
       <c r="L28" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS23Y#0004</v>
+        <v>GBP_YC3MRH_SB3LBASIS23Y#0001</v>
       </c>
       <c r="M28" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
         <v/>
       </c>
       <c r="N28" s="159"/>
-      <c r="T28" s="195">
+      <c r="T28" s="184">
         <f>_xll.qlQuoteValue(I28)</f>
         <v>7.0666803267592504E-4</v>
       </c>
-      <c r="U28" s="195" t="e">
+      <c r="U28" s="184" t="e">
         <f>_xll.qlQuoteValue(J28)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V28" s="195" t="e">
+      <c r="V28" s="184" t="e">
         <f>_xll.qlRateHelperQuoteValue(L28)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W28" s="195" t="e">
+      <c r="W28" s="184" t="e">
         <f>_xll.qlRateHelperRate(L28)</f>
         <v>#NUM!</v>
       </c>
@@ -21772,26 +18758,26 @@
       </c>
       <c r="L29" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS24Y#0004</v>
+        <v>GBP_YC3MRH_SB3LBASIS24Y#0001</v>
       </c>
       <c r="M29" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
         <v/>
       </c>
       <c r="N29" s="159"/>
-      <c r="T29" s="195">
+      <c r="T29" s="184">
         <f>_xll.qlQuoteValue(I29)</f>
         <v>6.9030501943563723E-4</v>
       </c>
-      <c r="U29" s="195" t="e">
+      <c r="U29" s="184" t="e">
         <f>_xll.qlQuoteValue(J29)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V29" s="195" t="e">
+      <c r="V29" s="184" t="e">
         <f>_xll.qlRateHelperQuoteValue(L29)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W29" s="195" t="e">
+      <c r="W29" s="184" t="e">
         <f>_xll.qlRateHelperRate(L29)</f>
         <v>#NUM!</v>
       </c>
@@ -21838,26 +18824,26 @@
       </c>
       <c r="L30" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS25Y#0004</v>
+        <v>GBP_YC3MRH_SB3LBASIS25Y#0001</v>
       </c>
       <c r="M30" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
         <v/>
       </c>
       <c r="N30" s="159"/>
-      <c r="T30" s="195">
+      <c r="T30" s="184">
         <f>_xll.qlQuoteValue(I30)</f>
         <v>6.7500000000000004E-4</v>
       </c>
-      <c r="U30" s="195">
+      <c r="U30" s="184">
         <f>_xll.qlQuoteValue(J30)</f>
         <v>2.8875000000000001E-2</v>
       </c>
-      <c r="V30" s="195">
+      <c r="V30" s="184">
         <f>_xll.qlRateHelperQuoteValue(L30)</f>
         <v>2.8875000000000001E-2</v>
       </c>
-      <c r="W30" s="195">
+      <c r="W30" s="184">
         <f>_xll.qlRateHelperRate(L30)</f>
         <v>2.8875000000000001E-2</v>
       </c>
@@ -21904,26 +18890,26 @@
       </c>
       <c r="L31" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS26Y#0004</v>
+        <v>GBP_YC3MRH_SB3LBASIS26Y#0001</v>
       </c>
       <c r="M31" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
         <v/>
       </c>
       <c r="N31" s="159"/>
-      <c r="T31" s="195">
+      <c r="T31" s="184">
         <f>_xll.qlQuoteValue(I31)</f>
         <v>6.6070977842605885E-4</v>
       </c>
-      <c r="U31" s="195" t="e">
+      <c r="U31" s="184" t="e">
         <f>_xll.qlQuoteValue(J31)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V31" s="195" t="e">
+      <c r="V31" s="184" t="e">
         <f>_xll.qlRateHelperQuoteValue(L31)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W31" s="195" t="e">
+      <c r="W31" s="184" t="e">
         <f>_xll.qlRateHelperRate(L31)</f>
         <v>#NUM!</v>
       </c>
@@ -21970,26 +18956,26 @@
       </c>
       <c r="L32" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS27Y#0004</v>
+        <v>GBP_YC3MRH_SB3LBASIS27Y#0001</v>
       </c>
       <c r="M32" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
         <v/>
       </c>
       <c r="N32" s="159"/>
-      <c r="T32" s="195">
+      <c r="T32" s="184">
         <f>_xll.qlQuoteValue(I32)</f>
         <v>6.4737636090916309E-4</v>
       </c>
-      <c r="U32" s="195" t="e">
+      <c r="U32" s="184" t="e">
         <f>_xll.qlQuoteValue(J32)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V32" s="195" t="e">
+      <c r="V32" s="184" t="e">
         <f>_xll.qlRateHelperQuoteValue(L32)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W32" s="195" t="e">
+      <c r="W32" s="184" t="e">
         <f>_xll.qlRateHelperRate(L32)</f>
         <v>#NUM!</v>
       </c>
@@ -22036,26 +19022,26 @@
       </c>
       <c r="L33" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS28Y#0004</v>
+        <v>GBP_YC3MRH_SB3LBASIS28Y#0001</v>
       </c>
       <c r="M33" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
         <v/>
       </c>
       <c r="N33" s="159"/>
-      <c r="T33" s="195">
+      <c r="T33" s="184">
         <f>_xll.qlQuoteValue(I33)</f>
         <v>6.3493805417923785E-4</v>
       </c>
-      <c r="U33" s="195" t="e">
+      <c r="U33" s="184" t="e">
         <f>_xll.qlQuoteValue(J33)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V33" s="195" t="e">
+      <c r="V33" s="184" t="e">
         <f>_xll.qlRateHelperQuoteValue(L33)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W33" s="195" t="e">
+      <c r="W33" s="184" t="e">
         <f>_xll.qlRateHelperRate(L33)</f>
         <v>#NUM!</v>
       </c>
@@ -22102,26 +19088,26 @@
       </c>
       <c r="L34" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS29Y#0004</v>
+        <v>GBP_YC3MRH_SB3LBASIS29Y#0001</v>
       </c>
       <c r="M34" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
         <v/>
       </c>
       <c r="N34" s="159"/>
-      <c r="T34" s="195">
+      <c r="T34" s="184">
         <f>_xll.qlQuoteValue(I34)</f>
         <v>6.2333316496620834E-4</v>
       </c>
-      <c r="U34" s="195" t="e">
+      <c r="U34" s="184" t="e">
         <f>_xll.qlQuoteValue(J34)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V34" s="195" t="e">
+      <c r="V34" s="184" t="e">
         <f>_xll.qlRateHelperQuoteValue(L34)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W34" s="195" t="e">
+      <c r="W34" s="184" t="e">
         <f>_xll.qlRateHelperRate(L34)</f>
         <v>#NUM!</v>
       </c>
@@ -22168,26 +19154,26 @@
       </c>
       <c r="L35" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS30Y#0004</v>
+        <v>GBP_YC3MRH_SB3LBASIS30Y#0001</v>
       </c>
       <c r="M35" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
         <v/>
       </c>
       <c r="N35" s="159"/>
-      <c r="T35" s="195">
+      <c r="T35" s="184">
         <f>_xll.qlQuoteValue(I35)</f>
         <v>6.1249999999999998E-4</v>
       </c>
-      <c r="U35" s="195">
+      <c r="U35" s="184">
         <f>_xll.qlQuoteValue(J35)</f>
         <v>2.9575000000000001E-2</v>
       </c>
-      <c r="V35" s="195">
+      <c r="V35" s="184">
         <f>_xll.qlRateHelperQuoteValue(L35)</f>
         <v>2.9575000000000001E-2</v>
       </c>
-      <c r="W35" s="195">
+      <c r="W35" s="184">
         <f>_xll.qlRateHelperRate(L35)</f>
         <v>2.9575000000000001E-2</v>
       </c>
@@ -22234,26 +19220,26 @@
       </c>
       <c r="L36" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS35Y#0004</v>
+        <v>GBP_YC3MRH_SB3LBASIS35Y#0001</v>
       </c>
       <c r="M36" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
         <v/>
       </c>
       <c r="N36" s="159"/>
-      <c r="T36" s="195">
+      <c r="T36" s="184">
         <f>_xll.qlQuoteValue(I36)</f>
         <v>6.1249999999999998E-4</v>
       </c>
-      <c r="U36" s="195" t="e">
+      <c r="U36" s="184" t="e">
         <f>_xll.qlQuoteValue(J36)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V36" s="195" t="e">
+      <c r="V36" s="184" t="e">
         <f>_xll.qlRateHelperQuoteValue(L36)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W36" s="195" t="e">
+      <c r="W36" s="184" t="e">
         <f>_xll.qlRateHelperRate(L36)</f>
         <v>#NUM!</v>
       </c>
@@ -22300,26 +19286,26 @@
       </c>
       <c r="L37" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS40Y#0004</v>
+        <v>GBP_YC3MRH_SB3LBASIS40Y#0001</v>
       </c>
       <c r="M37" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
         <v/>
       </c>
       <c r="N37" s="159"/>
-      <c r="T37" s="195">
+      <c r="T37" s="184">
         <f>_xll.qlQuoteValue(I37)</f>
         <v>6.1249999999999998E-4</v>
       </c>
-      <c r="U37" s="195">
+      <c r="U37" s="184">
         <f>_xll.qlQuoteValue(J37)</f>
         <v>3.0374999999999999E-2</v>
       </c>
-      <c r="V37" s="195">
+      <c r="V37" s="184">
         <f>_xll.qlRateHelperQuoteValue(L37)</f>
         <v>3.0374999999999999E-2</v>
       </c>
-      <c r="W37" s="195">
+      <c r="W37" s="184">
         <f>_xll.qlRateHelperRate(L37)</f>
         <v>3.0374999999999999E-2</v>
       </c>
@@ -22366,26 +19352,26 @@
       </c>
       <c r="L38" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS50Y#0004</v>
+        <v>GBP_YC3MRH_SB3LBASIS50Y#0001</v>
       </c>
       <c r="M38" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
         <v/>
       </c>
       <c r="N38" s="159"/>
-      <c r="T38" s="195">
+      <c r="T38" s="184">
         <f>_xll.qlQuoteValue(I38)</f>
         <v>6.1249999999999998E-4</v>
       </c>
-      <c r="U38" s="195">
+      <c r="U38" s="184">
         <f>_xll.qlQuoteValue(J38)</f>
         <v>3.0550000000000001E-2</v>
       </c>
-      <c r="V38" s="195">
+      <c r="V38" s="184">
         <f>_xll.qlRateHelperQuoteValue(L38)</f>
         <v>3.0550000000000001E-2</v>
       </c>
-      <c r="W38" s="195">
+      <c r="W38" s="184">
         <f>_xll.qlRateHelperRate(L38)</f>
         <v>3.0550000000000001E-2</v>
       </c>
@@ -22432,26 +19418,26 @@
       </c>
       <c r="L39" s="161" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS60Y#0004</v>
+        <v>GBP_YC3MRH_SB3LBASIS60Y#0001</v>
       </c>
       <c r="M39" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
         <v/>
       </c>
       <c r="N39" s="159"/>
-      <c r="T39" s="195">
+      <c r="T39" s="184">
         <f>_xll.qlQuoteValue(I39)</f>
         <v>6.1249999999999998E-4</v>
       </c>
-      <c r="U39" s="195">
+      <c r="U39" s="184">
         <f>_xll.qlQuoteValue(J39)</f>
         <v>3.0800000000000001E-2</v>
       </c>
-      <c r="V39" s="195">
+      <c r="V39" s="184">
         <f>_xll.qlRateHelperQuoteValue(L39)</f>
         <v>3.0800000000000001E-2</v>
       </c>
-      <c r="W39" s="195">
+      <c r="W39" s="184">
         <f>_xll.qlRateHelperRate(L39)</f>
         <v>3.0800000000000001E-2</v>
       </c>

--- a/QuantLibXL/Data2/XLS/GBP_YC3MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP_YC3MBootstrapping.xlsx
@@ -879,7 +879,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -943,6 +943,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1773,6 +1779,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1788,23 +1805,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma" xfId="10" builtinId="3"/>
@@ -2123,39 +2129,40 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.7109375" style="185" customWidth="1"/>
-    <col min="3" max="3" width="18" style="185" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="185" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="185" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="2.7109375" style="185" customWidth="1"/>
-    <col min="8" max="9" width="8" style="185"/>
-    <col min="10" max="11" width="2.7109375" style="185" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="185" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="53.7109375" style="185" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="185" customWidth="1"/>
-    <col min="15" max="16384" width="8" style="185"/>
+    <col min="1" max="2" width="2.7109375" style="180" customWidth="1"/>
+    <col min="3" max="3" width="18" style="180" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="180" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="180" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="2.7109375" style="180" customWidth="1"/>
+    <col min="8" max="8" width="4" style="180" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" style="180" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="2.7109375" style="180" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="180" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="53.7109375" style="180" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="180" customWidth="1"/>
+    <col min="15" max="16384" width="8" style="180"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="185" t="str">
+      <c r="B1" s="180" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Dec  5 2013 11:03:51</v>
+        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Feb  7 2014 15:33:58</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="181" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="194"/>
-      <c r="K2" s="192" t="s">
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="183"/>
+      <c r="K2" s="181" t="s">
         <v>153</v>
       </c>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="195"/>
+      <c r="L2" s="182"/>
+      <c r="M2" s="182"/>
+      <c r="N2" s="184"/>
     </row>
     <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="60"/>
@@ -2178,10 +2185,10 @@
       </c>
       <c r="E4" s="57"/>
       <c r="F4" s="56"/>
-      <c r="H4" s="188" t="s">
+      <c r="H4" s="190" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="189"/>
+      <c r="I4" s="191"/>
       <c r="K4" s="125"/>
       <c r="L4" s="124" t="s">
         <v>152</v>
@@ -2201,10 +2208,10 @@
       </c>
       <c r="E5" s="57"/>
       <c r="F5" s="56"/>
-      <c r="H5" s="186" t="s">
+      <c r="H5" s="192" t="s">
         <v>104</v>
       </c>
-      <c r="I5" s="187" t="s">
+      <c r="I5" s="193" t="s">
         <v>103</v>
       </c>
       <c r="K5" s="125"/>
@@ -2213,7 +2220,7 @@
       </c>
       <c r="M5" s="126" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\XML\</v>
+        <v>C:\Users\erik\Documents\repos\quantlib\QuantLibXL\Data2\XML\</v>
       </c>
       <c r="N5" s="123"/>
     </row>
@@ -2228,10 +2235,10 @@
       </c>
       <c r="E6" s="57"/>
       <c r="F6" s="56"/>
-      <c r="H6" s="186" t="s">
+      <c r="H6" s="192" t="s">
         <v>101</v>
       </c>
-      <c r="I6" s="187" t="s">
+      <c r="I6" s="193" t="s">
         <v>100</v>
       </c>
       <c r="K6" s="125"/>
@@ -2254,10 +2261,10 @@
       </c>
       <c r="E7" s="57"/>
       <c r="F7" s="56"/>
-      <c r="H7" s="186" t="s">
+      <c r="H7" s="192" t="s">
         <v>98</v>
       </c>
-      <c r="I7" s="187"/>
+      <c r="I7" s="193"/>
       <c r="K7" s="122"/>
       <c r="L7" s="121"/>
       <c r="M7" s="121"/>
@@ -2274,10 +2281,10 @@
       </c>
       <c r="E8" s="57"/>
       <c r="F8" s="56"/>
-      <c r="H8" s="190" t="s">
+      <c r="H8" s="194" t="s">
         <v>96</v>
       </c>
-      <c r="I8" s="191" t="s">
+      <c r="I8" s="195" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2292,12 +2299,12 @@
       </c>
       <c r="E9" s="57"/>
       <c r="F9" s="56"/>
-      <c r="K9" s="192" t="s">
+      <c r="K9" s="181" t="s">
         <v>149</v>
       </c>
-      <c r="L9" s="193"/>
-      <c r="M9" s="193"/>
-      <c r="N9" s="195"/>
+      <c r="L9" s="182"/>
+      <c r="M9" s="182"/>
+      <c r="N9" s="184"/>
     </row>
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="60"/>
@@ -2320,7 +2327,7 @@
         <v>92</v>
       </c>
       <c r="D11" s="85">
-        <v>41653.207604166666</v>
+        <v>41684.586354166669</v>
       </c>
       <c r="E11" s="57"/>
       <c r="F11" s="56"/>
@@ -2374,7 +2381,7 @@
       </c>
       <c r="D14" s="82" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_GBPYC3M#0007</v>
+        <v>_GBPYC3M#0000</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="56"/>
@@ -2554,7 +2561,7 @@
       <c r="B27" s="60"/>
       <c r="C27" s="64">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="D27" s="63">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2567,11 +2574,11 @@
       <c r="B28" s="60"/>
       <c r="C28" s="62">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>63569</v>
+        <v>63599</v>
       </c>
       <c r="D28" s="61">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.1447159760074084</v>
+        <v>0.14541073415800332</v>
       </c>
       <c r="E28" s="57"/>
       <c r="F28" s="56"/>
@@ -2660,11 +2667,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="180" t="s">
+      <c r="B1" s="185" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="181"/>
-      <c r="D1" s="182"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="187"/>
       <c r="E1" s="31" t="s">
         <v>66</v>
       </c>
@@ -2698,7 +2705,7 @@
       </c>
       <c r="E2" s="8" t="str">
         <f>'3M_Deposits'!F3</f>
-        <v>GBP_YC3MRH_SWD#0007</v>
+        <v>GBP_YC3MRH_SWD#0000</v>
       </c>
       <c r="F2" s="7">
         <f>_xll.qlRateHelperQuoteValue($E2,Trigger)</f>
@@ -2716,11 +2723,11 @@
       </c>
       <c r="K2" s="5">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L2" s="4">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>41660</v>
+        <v>41691</v>
       </c>
       <c r="M2" s="1">
         <v>10</v>
@@ -2737,7 +2744,7 @@
       </c>
       <c r="E3" s="8" t="str">
         <f>'3M_Deposits'!F4</f>
-        <v>GBP_YC3MRH_2WD#0007</v>
+        <v>GBP_YC3MRH_2WD#0000</v>
       </c>
       <c r="F3" s="7">
         <f>_xll.qlRateHelperQuoteValue($E3,Trigger)</f>
@@ -2755,11 +2762,11 @@
       </c>
       <c r="K3" s="5">
         <f>_xll.qlRateHelperEarliestDate($E3,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L3" s="4">
         <f>_xll.qlRateHelperLatestDate($E3,Trigger)</f>
-        <v>41667</v>
+        <v>41698</v>
       </c>
       <c r="M3" s="1">
         <v>20</v>
@@ -2776,7 +2783,7 @@
       </c>
       <c r="E4" s="8" t="str">
         <f>'3M_Deposits'!F5</f>
-        <v>GBP_YC3MRH_3WD#0007</v>
+        <v>GBP_YC3MRH_3WD#0000</v>
       </c>
       <c r="F4" s="7">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
@@ -2794,11 +2801,11 @@
       </c>
       <c r="K4" s="5">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L4" s="4">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41674</v>
+        <v>41705</v>
       </c>
       <c r="M4" s="1">
         <v>30</v>
@@ -2815,7 +2822,7 @@
       </c>
       <c r="E5" s="8" t="str">
         <f>'3M_Deposits'!F6</f>
-        <v>GBP_YC3MRH_1MD#0007</v>
+        <v>GBP_YC3MRH_1MD#0000</v>
       </c>
       <c r="F5" s="7">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
@@ -2833,11 +2840,11 @@
       </c>
       <c r="K5" s="5">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L5" s="4">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41684</v>
+        <v>41712</v>
       </c>
       <c r="M5" s="1">
         <v>40</v>
@@ -2854,7 +2861,7 @@
       </c>
       <c r="E6" s="8" t="str">
         <f>'3M_Deposits'!F7</f>
-        <v>GBP_YC3MRH_2MD#0007</v>
+        <v>GBP_YC3MRH_2MD#0000</v>
       </c>
       <c r="F6" s="7">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
@@ -2872,11 +2879,11 @@
       </c>
       <c r="K6" s="5">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L6" s="4">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41712</v>
+        <v>41743</v>
       </c>
       <c r="M6" s="1">
         <v>50</v>
@@ -2893,7 +2900,7 @@
       </c>
       <c r="E7" s="8" t="str">
         <f>'3M_Deposits'!F8</f>
-        <v>GBP_YC3MRH_3MD#0007</v>
+        <v>GBP_YC3MRH_3MD#0000</v>
       </c>
       <c r="F7" s="7">
         <f>_xll.qlRateHelperQuoteValue($E7,Trigger)</f>
@@ -2911,11 +2918,11 @@
       </c>
       <c r="K7" s="5">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L7" s="4">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>41743</v>
+        <v>41773</v>
       </c>
       <c r="M7" s="1">
         <v>60</v>
@@ -3701,19 +3708,19 @@
       </c>
       <c r="D28" s="8" t="str">
         <f t="array" ref="D28:D69">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$A28:$A69)</f>
-        <v>F4</v>
+        <v>G4</v>
       </c>
       <c r="E28" s="8" t="str">
         <f>'3M_Futures'!I3</f>
-        <v>GBP_YC3MRH_FUT3MF4#0007</v>
-      </c>
-      <c r="F28" s="29" t="e">
+        <v>GBP_YC3MRH_FUT3MG4#0000</v>
+      </c>
+      <c r="F28" s="29">
         <f>_xll.qlRateHelperQuoteValue($E28,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G28" s="7" t="e">
+        <v>99.484999999999999</v>
+      </c>
+      <c r="G28" s="7">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E28,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.1305847262365057E-7</v>
       </c>
       <c r="H28" s="177" t="b">
         <v>0</v>
@@ -3726,11 +3733,11 @@
       </c>
       <c r="K28" s="5">
         <f>_xll.qlRateHelperEarliestDate($E28,Trigger)</f>
-        <v>41654</v>
+        <v>41689</v>
       </c>
       <c r="L28" s="4">
         <f>_xll.qlRateHelperLatestDate($E28,Trigger)</f>
-        <v>41744</v>
+        <v>41778</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -3743,19 +3750,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D29" s="8" t="str">
-        <v>G4</v>
+        <v>H4</v>
       </c>
       <c r="E29" s="8" t="str">
         <f>'3M_Futures'!I4</f>
-        <v>GBP_YC3MRH_FUT3MG4#0007</v>
-      </c>
-      <c r="F29" s="29">
+        <v>GBP_YC3MRH_FUT3MH4#0000</v>
+      </c>
+      <c r="F29" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E29,Trigger)</f>
-        <v>99.484999999999999</v>
-      </c>
-      <c r="G29" s="7">
+        <v>#NUM!</v>
+      </c>
+      <c r="G29" s="7" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E29,Trigger)</f>
-        <v>8.9366675969727194E-7</v>
+        <v>#NUM!</v>
       </c>
       <c r="H29" s="177" t="b">
         <v>0</v>
@@ -3768,11 +3775,11 @@
       </c>
       <c r="K29" s="5">
         <f>_xll.qlRateHelperEarliestDate($E29,Trigger)</f>
-        <v>41689</v>
+        <v>41717</v>
       </c>
       <c r="L29" s="4">
         <f>_xll.qlRateHelperLatestDate($E29,Trigger)</f>
-        <v>41778</v>
+        <v>41809</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -3785,11 +3792,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D30" s="8" t="str">
-        <v>H4</v>
+        <v>J4</v>
       </c>
       <c r="E30" s="8" t="str">
         <f>'3M_Futures'!I5</f>
-        <v>GBP_YC3MRH_FUT3MH4#0007</v>
+        <v>GBP_YC3MRH_FUT3MJ4#0000</v>
       </c>
       <c r="F30" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E30,Trigger)</f>
@@ -3810,11 +3817,11 @@
       </c>
       <c r="K30" s="5">
         <f>_xll.qlRateHelperEarliestDate($E30,Trigger)</f>
-        <v>41717</v>
+        <v>41745</v>
       </c>
       <c r="L30" s="4">
         <f>_xll.qlRateHelperLatestDate($E30,Trigger)</f>
-        <v>41809</v>
+        <v>41836</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -3827,19 +3834,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D31" s="8" t="str">
-        <v>J4</v>
+        <v>K4</v>
       </c>
       <c r="E31" s="8" t="str">
         <f>'3M_Futures'!I6</f>
-        <v>GBP_YC3MRH_FUT3MJ4#0007</v>
-      </c>
-      <c r="F31" s="29" t="e">
+        <v>GBP_YC3MRH_FUT3MK4#0000</v>
+      </c>
+      <c r="F31" s="29">
         <f>_xll.qlRateHelperQuoteValue($E31,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G31" s="7" t="e">
+        <v>99.495000000000005</v>
+      </c>
+      <c r="G31" s="7">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E31,Trigger)</f>
-        <v>#NUM!</v>
+        <v>3.2997943830362651E-6</v>
       </c>
       <c r="H31" s="177" t="b">
         <v>0</v>
@@ -3852,11 +3859,11 @@
       </c>
       <c r="K31" s="5">
         <f>_xll.qlRateHelperEarliestDate($E31,Trigger)</f>
-        <v>41745</v>
+        <v>41780</v>
       </c>
       <c r="L31" s="4">
         <f>_xll.qlRateHelperLatestDate($E31,Trigger)</f>
-        <v>41836</v>
+        <v>41872</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -3869,19 +3876,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D32" s="8" t="str">
-        <v>K4</v>
+        <v>M4</v>
       </c>
       <c r="E32" s="8" t="str">
         <f>'3M_Futures'!I7</f>
-        <v>GBP_YC3MRH_FUT3MK4#0007</v>
-      </c>
-      <c r="F32" s="29">
+        <v>GBP_YC3MRH_FUT3MM4#0000</v>
+      </c>
+      <c r="F32" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E32,Trigger)</f>
-        <v>99.465000000000003</v>
-      </c>
-      <c r="G32" s="7">
+        <v>#NUM!</v>
+      </c>
+      <c r="G32" s="7" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E32,Trigger)</f>
-        <v>4.5511097454801462E-6</v>
+        <v>#NUM!</v>
       </c>
       <c r="H32" s="177" t="b">
         <v>0</v>
@@ -3894,11 +3901,11 @@
       </c>
       <c r="K32" s="5">
         <f>_xll.qlRateHelperEarliestDate($E32,Trigger)</f>
-        <v>41780</v>
+        <v>41808</v>
       </c>
       <c r="L32" s="4">
         <f>_xll.qlRateHelperLatestDate($E32,Trigger)</f>
-        <v>41872</v>
+        <v>41900</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -3911,11 +3918,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D33" s="8" t="str">
-        <v>M4</v>
+        <v>N4</v>
       </c>
       <c r="E33" s="8" t="str">
         <f>'3M_Futures'!I8</f>
-        <v>GBP_YC3MRH_FUT3MM4#0007</v>
+        <v>GBP_YC3MRH_FUT3MN4#0000</v>
       </c>
       <c r="F33" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E33,Trigger)</f>
@@ -3936,11 +3943,11 @@
       </c>
       <c r="K33" s="5">
         <f>_xll.qlRateHelperEarliestDate($E33,Trigger)</f>
-        <v>41808</v>
+        <v>41836</v>
       </c>
       <c r="L33" s="4">
         <f>_xll.qlRateHelperLatestDate($E33,Trigger)</f>
-        <v>41900</v>
+        <v>41928</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -3953,19 +3960,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D34" s="8" t="str">
-        <v>N4</v>
+        <v>Q4</v>
       </c>
       <c r="E34" s="8" t="str">
         <f>'3M_Futures'!I9</f>
-        <v>GBP_YC3MRH_FUT3MN4#0007</v>
-      </c>
-      <c r="F34" s="29" t="e">
+        <v>GBP_YC3MRH_FUT3MQ4#0000</v>
+      </c>
+      <c r="F34" s="29">
         <f>_xll.qlRateHelperQuoteValue($E34,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G34" s="7" t="e">
+        <v>99.495000000000005</v>
+      </c>
+      <c r="G34" s="7">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E34,Trigger)</f>
-        <v>#NUM!</v>
+        <v>8.4585941728767149E-6</v>
       </c>
       <c r="H34" s="177" t="b">
         <v>0</v>
@@ -3978,11 +3985,11 @@
       </c>
       <c r="K34" s="5">
         <f>_xll.qlRateHelperEarliestDate($E34,Trigger)</f>
-        <v>41836</v>
+        <v>41871</v>
       </c>
       <c r="L34" s="4">
         <f>_xll.qlRateHelperLatestDate($E34,Trigger)</f>
-        <v>41928</v>
+        <v>41963</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -3995,19 +4002,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D35" s="8" t="str">
-        <v>Q4</v>
+        <v>U4</v>
       </c>
       <c r="E35" s="8" t="str">
         <f>'3M_Futures'!I10</f>
-        <v>GBP_YC3MRH_FUT3MQ4#0007</v>
-      </c>
-      <c r="F35" s="29">
+        <v>GBP_YC3MRH_FUT3MU4#0000</v>
+      </c>
+      <c r="F35" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E35,Trigger)</f>
-        <v>99.460000000000008</v>
-      </c>
-      <c r="G35" s="7">
+        <v>#NUM!</v>
+      </c>
+      <c r="G35" s="7" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E35,Trigger)</f>
-        <v>1.0028201943633485E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="H35" s="177" t="b">
         <v>0</v>
@@ -4020,11 +4027,11 @@
       </c>
       <c r="K35" s="5">
         <f>_xll.qlRateHelperEarliestDate($E35,Trigger)</f>
-        <v>41871</v>
+        <v>41899</v>
       </c>
       <c r="L35" s="4">
         <f>_xll.qlRateHelperLatestDate($E35,Trigger)</f>
-        <v>41963</v>
+        <v>41990</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -4037,11 +4044,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D36" s="8" t="str">
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="E36" s="8" t="str">
         <f>'3M_Futures'!I11</f>
-        <v>GBP_YC3MRH_FUT3MU4#0007</v>
+        <v>GBP_YC3MRH_FUT3MV4#0000</v>
       </c>
       <c r="F36" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
@@ -4062,11 +4069,11 @@
       </c>
       <c r="K36" s="5">
         <f>_xll.qlRateHelperEarliestDate($E36,Trigger)</f>
-        <v>41899</v>
+        <v>41927</v>
       </c>
       <c r="L36" s="4">
         <f>_xll.qlRateHelperLatestDate($E36,Trigger)</f>
-        <v>41990</v>
+        <v>42019</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -4079,19 +4086,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D37" s="8" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="E37" s="8" t="str">
         <f>'3M_Futures'!I12</f>
-        <v>GBP_YC3MRH_FUT3MV4#0007</v>
-      </c>
-      <c r="F37" s="29" t="e">
+        <v>GBP_YC3MRH_FUT3MX4#0000</v>
+      </c>
+      <c r="F37" s="29">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G37" s="7" t="e">
+        <v>99.484999999999999</v>
+      </c>
+      <c r="G37" s="7">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E37,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.554911215463698E-5</v>
       </c>
       <c r="H37" s="177" t="b">
         <v>0</v>
@@ -4104,11 +4111,11 @@
       </c>
       <c r="K37" s="5">
         <f>_xll.qlRateHelperEarliestDate($E37,Trigger)</f>
-        <v>41927</v>
+        <v>41962</v>
       </c>
       <c r="L37" s="4">
         <f>_xll.qlRateHelperLatestDate($E37,Trigger)</f>
-        <v>42019</v>
+        <v>42054</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -4121,19 +4128,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D38" s="8" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="E38" s="8" t="str">
         <f>'3M_Futures'!I13</f>
-        <v>GBP_YC3MRH_FUT3MX4#0007</v>
-      </c>
-      <c r="F38" s="29">
+        <v>GBP_YC3MRH_FUT3MZ4#0000</v>
+      </c>
+      <c r="F38" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
-        <v>99.435000000000002</v>
-      </c>
-      <c r="G38" s="7">
+        <v>#NUM!</v>
+      </c>
+      <c r="G38" s="7" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E38,Trigger)</f>
-        <v>1.7309250856406797E-5</v>
+        <v>#NUM!</v>
       </c>
       <c r="H38" s="177" t="b">
         <v>0</v>
@@ -4146,11 +4153,11 @@
       </c>
       <c r="K38" s="5">
         <f>_xll.qlRateHelperEarliestDate($E38,Trigger)</f>
-        <v>41962</v>
+        <v>41990</v>
       </c>
       <c r="L38" s="4">
         <f>_xll.qlRateHelperLatestDate($E38,Trigger)</f>
-        <v>42054</v>
+        <v>42080</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -4163,11 +4170,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D39" s="8" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="E39" s="8" t="str">
         <f>'3M_Futures'!I14</f>
-        <v>GBP_YC3MRH_FUT3MZ4#0007</v>
+        <v>GBP_YC3MRH_FUT3MF5#0000</v>
       </c>
       <c r="F39" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
@@ -4188,11 +4195,11 @@
       </c>
       <c r="K39" s="5">
         <f>_xll.qlRateHelperEarliestDate($E39,Trigger)</f>
-        <v>41990</v>
+        <v>42025</v>
       </c>
       <c r="L39" s="4">
         <f>_xll.qlRateHelperLatestDate($E39,Trigger)</f>
-        <v>42080</v>
+        <v>42115</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -4209,15 +4216,15 @@
       </c>
       <c r="E40" s="8" t="str">
         <f>'3M_Futures'!I15</f>
-        <v>GBP_YC3MRH_FUT3MH5#0007</v>
+        <v>GBP_YC3MRH_FUT3MH5#0000</v>
       </c>
       <c r="F40" s="29">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
-        <v>99.405000000000001</v>
+        <v>99.474999999999994</v>
       </c>
       <c r="G40" s="7">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E40,Trigger)</f>
-        <v>2.9484762016936334E-5</v>
+        <v>2.7663432344633574E-5</v>
       </c>
       <c r="H40" s="177" t="b">
         <v>0</v>
@@ -4251,15 +4258,15 @@
       </c>
       <c r="E41" s="8" t="str">
         <f>'3M_Futures'!I16</f>
-        <v>GBP_YC3MRH_FUT3MM5#0007</v>
+        <v>GBP_YC3MRH_FUT3MM5#0000</v>
       </c>
       <c r="F41" s="29">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
-        <v>99.35499999999999</v>
+        <v>99.454999999999998</v>
       </c>
       <c r="G41" s="7">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E41,Trigger)</f>
-        <v>4.0777397257116945E-5</v>
+        <v>3.9047677872889325E-5</v>
       </c>
       <c r="H41" s="177" t="b">
         <v>0</v>
@@ -4293,15 +4300,15 @@
       </c>
       <c r="E42" s="8" t="str">
         <f>'3M_Futures'!I17</f>
-        <v>GBP_YC3MRH_FUT3MU5#0007</v>
+        <v>GBP_YC3MRH_FUT3MU5#0000</v>
       </c>
       <c r="F42" s="29">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
-        <v>99.305000000000007</v>
+        <v>99.415000000000006</v>
       </c>
       <c r="G42" s="7">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E42,Trigger)</f>
-        <v>5.3610802592238644E-5</v>
+        <v>5.2091086317702287E-5</v>
       </c>
       <c r="H42" s="177" t="b">
         <v>0</v>
@@ -4335,15 +4342,15 @@
       </c>
       <c r="E43" s="8" t="str">
         <f>'3M_Futures'!I18</f>
-        <v>GBP_YC3MRH_FUT3MZ5#0007</v>
+        <v>GBP_YC3MRH_FUT3MZ5#0000</v>
       </c>
       <c r="F43" s="29">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
-        <v>99.234999999999999</v>
+        <v>99.375</v>
       </c>
       <c r="G43" s="7">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E43,Trigger)</f>
-        <v>6.8198371780715521E-5</v>
+        <v>6.700107653191937E-5</v>
       </c>
       <c r="H43" s="177" t="b">
         <v>0</v>
@@ -4377,15 +4384,15 @@
       </c>
       <c r="E44" s="8" t="str">
         <f>'3M_Futures'!I19</f>
-        <v>GBP_YC3MRH_FUT3MH6#0007</v>
+        <v>GBP_YC3MRH_FUT3MH6#0000</v>
       </c>
       <c r="F44" s="29">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
-        <v>99.164999999999992</v>
+        <v>99.325000000000003</v>
       </c>
       <c r="G44" s="7">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E44,Trigger)</f>
-        <v>8.4557340455810107E-5</v>
+        <v>8.379960789348612E-5</v>
       </c>
       <c r="H44" s="177" t="b">
         <v>0</v>
@@ -4419,15 +4426,15 @@
       </c>
       <c r="E45" s="8" t="str">
         <f>'3M_Futures'!I20</f>
-        <v>GBP_YC3MRH_FUT3MM6#0007</v>
+        <v>GBP_YC3MRH_FUT3MM6#0000</v>
       </c>
       <c r="F45" s="29">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
-        <v>99.074999999999989</v>
+        <v>99.275000000000006</v>
       </c>
       <c r="G45" s="7">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E45,Trigger)</f>
-        <v>1.0233355146663395E-4</v>
+        <v>1.0211700670251034E-4</v>
       </c>
       <c r="H45" s="177" t="b">
         <v>0</v>
@@ -4461,15 +4468,15 @@
       </c>
       <c r="E46" s="8" t="str">
         <f>'3M_Futures'!I21</f>
-        <v>GBP_YC3MRH_FUT3MU6#0007</v>
+        <v>GBP_YC3MRH_FUT3MU6#0000</v>
       </c>
       <c r="F46" s="29">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
-        <v>98.974999999999994</v>
+        <v>99.204999999999998</v>
       </c>
       <c r="G46" s="7">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E46,Trigger)</f>
-        <v>1.2298009269079831E-4</v>
+        <v>1.2346160768210142E-4</v>
       </c>
       <c r="H46" s="177" t="b">
         <v>0</v>
@@ -4503,15 +4510,15 @@
       </c>
       <c r="E47" s="8" t="str">
         <f>'3M_Futures'!I22</f>
-        <v>GBP_YC3MRH_FUT3MZ6#0007</v>
+        <v>GBP_YC3MRH_FUT3MZ6#0000</v>
       </c>
       <c r="F47" s="29">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
-        <v>98.865000000000009</v>
+        <v>99.135000000000005</v>
       </c>
       <c r="G47" s="7">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E47,Trigger)</f>
-        <v>1.4365853870375688E-4</v>
+        <v>1.4488861458733464E-4</v>
       </c>
       <c r="H47" s="177" t="b">
         <v>0</v>
@@ -4545,15 +4552,15 @@
       </c>
       <c r="E48" s="8" t="str">
         <f>'3M_Futures'!I23</f>
-        <v>GBP_YC3MRH_FUT3MH7#0007</v>
+        <v>GBP_YC3MRH_FUT3MH7#0000</v>
       </c>
       <c r="F48" s="29">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
-        <v>98.754999999999995</v>
+        <v>99.04</v>
       </c>
       <c r="G48" s="7">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E48,Trigger)</f>
-        <v>1.6472603077439979E-4</v>
+        <v>1.6676456928142548E-4</v>
       </c>
       <c r="H48" s="177" t="b">
         <v>0</v>
@@ -4587,15 +4594,15 @@
       </c>
       <c r="E49" s="8" t="str">
         <f>'3M_Futures'!I24</f>
-        <v>GBP_YC3MRH_FUT3MM7#0007</v>
+        <v>GBP_YC3MRH_FUT3MM7#0000</v>
       </c>
       <c r="F49" s="29">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
-        <v>98.634999999999991</v>
+        <v>98.95</v>
       </c>
       <c r="G49" s="7">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E49,Trigger)</f>
-        <v>1.9031139310161588E-4</v>
+        <v>1.9337816776571689E-4</v>
       </c>
       <c r="H49" s="177" t="b">
         <v>0</v>
@@ -4629,15 +4636,15 @@
       </c>
       <c r="E50" s="8" t="str">
         <f>'3M_Futures'!I25</f>
-        <v>GBP_YC3MRH_FUT3MU7#0007</v>
+        <v>GBP_YC3MRH_FUT3MU7#0000</v>
       </c>
       <c r="F50" s="29">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
-        <v>98.52000000000001</v>
+        <v>98.84</v>
       </c>
       <c r="G50" s="7">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E50,Trigger)</f>
-        <v>2.1524035239512188E-4</v>
+        <v>2.1936405751329062E-4</v>
       </c>
       <c r="H50" s="177" t="b">
         <v>0</v>
@@ -4671,15 +4678,15 @@
       </c>
       <c r="E51" s="8" t="str">
         <f>'3M_Futures'!I26</f>
-        <v>GBP_YC3MRH_FUT3MZ7#0007</v>
+        <v>GBP_YC3MRH_FUT3MZ7#0000</v>
       </c>
       <c r="F51" s="29">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
-        <v>98.38</v>
+        <v>98.724999999999994</v>
       </c>
       <c r="G51" s="7">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E51,Trigger)</f>
-        <v>2.4151168956712443E-4</v>
+        <v>2.467745607713469E-4</v>
       </c>
       <c r="H51" s="177" t="b">
         <v>0</v>
@@ -4713,15 +4720,15 @@
       </c>
       <c r="E52" s="8" t="str">
         <f>'3M_Futures'!I27</f>
-        <v>GBP_YC3MRH_FUT3MH8#0007</v>
+        <v>GBP_YC3MRH_FUT3MH8#0000</v>
       </c>
       <c r="F52" s="29">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
-        <v>98.259999999999991</v>
+        <v>98.59</v>
       </c>
       <c r="G52" s="7">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E52,Trigger)</f>
-        <v>2.7001520002261118E-4</v>
+        <v>2.7656648916420535E-4</v>
       </c>
       <c r="H52" s="177" t="b">
         <v>0</v>
@@ -4755,15 +4762,15 @@
       </c>
       <c r="E53" s="8" t="str">
         <f>'3M_Futures'!I28</f>
-        <v>GBP_YC3MRH_FUT3MM8#0007</v>
+        <v>GBP_YC3MRH_FUT3MM8#0000</v>
       </c>
       <c r="F53" s="29">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
-        <v>98.14</v>
+        <v>98.474999999999994</v>
       </c>
       <c r="G53" s="7">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E53,Trigger)</f>
-        <v>2.9922387628462461E-4</v>
+        <v>3.0712238262756186E-4</v>
       </c>
       <c r="H53" s="177" t="b">
         <v>0</v>
@@ -4797,7 +4804,7 @@
       </c>
       <c r="E54" s="8" t="str">
         <f>'3M_Futures'!I29</f>
-        <v>GBP_YC3MRH_FUT3MU8#0007</v>
+        <v>GBP_YC3MRH_FUT3MU8#0000</v>
       </c>
       <c r="F54" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
@@ -4839,7 +4846,7 @@
       </c>
       <c r="E55" s="8" t="str">
         <f>'3M_Futures'!I30</f>
-        <v>GBP_YC3MRH_FUT3MZ8#0007</v>
+        <v>GBP_YC3MRH_FUT3MZ8#0000</v>
       </c>
       <c r="F55" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
@@ -4881,7 +4888,7 @@
       </c>
       <c r="E56" s="8" t="str">
         <f>'3M_Futures'!I31</f>
-        <v>GBP_YC3MRH_FUT3MH9#0007</v>
+        <v>GBP_YC3MRH_FUT3MH9#0000</v>
       </c>
       <c r="F56" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
@@ -4923,7 +4930,7 @@
       </c>
       <c r="E57" s="8" t="str">
         <f>'3M_Futures'!I32</f>
-        <v>GBP_YC3MRH_FUT3MM9#0007</v>
+        <v>GBP_YC3MRH_FUT3MM9#0000</v>
       </c>
       <c r="F57" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
@@ -4965,7 +4972,7 @@
       </c>
       <c r="E58" s="8" t="str">
         <f>'3M_Futures'!I33</f>
-        <v>GBP_YC3MRH_FUT3MU9#0007</v>
+        <v>GBP_YC3MRH_FUT3MU9#0000</v>
       </c>
       <c r="F58" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
@@ -5007,7 +5014,7 @@
       </c>
       <c r="E59" s="8" t="str">
         <f>'3M_Futures'!I34</f>
-        <v>GBP_YC3MRH_FUT3MZ9#0007</v>
+        <v>GBP_YC3MRH_FUT3MZ9#0000</v>
       </c>
       <c r="F59" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
@@ -5049,7 +5056,7 @@
       </c>
       <c r="E60" s="8" t="str">
         <f>'3M_Futures'!I35</f>
-        <v>GBP_YC3MRH_FUT3MH0#0007</v>
+        <v>GBP_YC3MRH_FUT3MH0#0000</v>
       </c>
       <c r="F60" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
@@ -5091,7 +5098,7 @@
       </c>
       <c r="E61" s="8" t="str">
         <f>'3M_Futures'!I36</f>
-        <v>GBP_YC3MRH_FUT3MM0#0007</v>
+        <v>GBP_YC3MRH_FUT3MM0#0000</v>
       </c>
       <c r="F61" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
@@ -5133,7 +5140,7 @@
       </c>
       <c r="E62" s="8" t="str">
         <f>'3M_Futures'!I37</f>
-        <v>GBP_YC3MRH_FUT3MU0#0007</v>
+        <v>GBP_YC3MRH_FUT3MU0#0000</v>
       </c>
       <c r="F62" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
@@ -5175,7 +5182,7 @@
       </c>
       <c r="E63" s="8" t="str">
         <f>'3M_Futures'!I38</f>
-        <v>GBP_YC3MRH_FUT3MZ0#0007</v>
+        <v>GBP_YC3MRH_FUT3MZ0#0000</v>
       </c>
       <c r="F63" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
@@ -5217,7 +5224,7 @@
       </c>
       <c r="E64" s="8" t="str">
         <f>'3M_Futures'!I39</f>
-        <v>GBP_YC3MRH_FUT3MH1#0007</v>
+        <v>GBP_YC3MRH_FUT3MH1#0000</v>
       </c>
       <c r="F64" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
@@ -5259,7 +5266,7 @@
       </c>
       <c r="E65" s="8" t="str">
         <f>'3M_Futures'!I40</f>
-        <v>GBP_YC3MRH_FUT3MM1#0007</v>
+        <v>GBP_YC3MRH_FUT3MM1#0000</v>
       </c>
       <c r="F65" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
@@ -5301,7 +5308,7 @@
       </c>
       <c r="E66" s="8" t="str">
         <f>'3M_Futures'!I41</f>
-        <v>GBP_YC3MRH_FUT3MU1#0007</v>
+        <v>GBP_YC3MRH_FUT3MU1#0000</v>
       </c>
       <c r="F66" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
@@ -5343,7 +5350,7 @@
       </c>
       <c r="E67" s="8" t="str">
         <f>'3M_Futures'!I42</f>
-        <v>GBP_YC3MRH_FUT3MZ1#0007</v>
+        <v>GBP_YC3MRH_FUT3MZ1#0000</v>
       </c>
       <c r="F67" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
@@ -5385,7 +5392,7 @@
       </c>
       <c r="E68" s="8" t="str">
         <f>'3M_Futures'!I43</f>
-        <v>GBP_YC3MRH_FUT3MH2#0007</v>
+        <v>GBP_YC3MRH_FUT3MH2#0000</v>
       </c>
       <c r="F68" s="29" t="e">
         <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
@@ -5427,7 +5434,7 @@
       </c>
       <c r="E69" s="9" t="str">
         <f>'3M_Futures'!I44</f>
-        <v>GBP_YC3MRH_FUT3MM2#0007</v>
+        <v>GBP_YC3MRH_FUT3MM2#0000</v>
       </c>
       <c r="F69" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
@@ -7858,7 +7865,7 @@
       </c>
       <c r="E125" s="8" t="str">
         <f>'3M_SwapsFromBasis'!L6</f>
-        <v>GBP_YC3MRH_SB3LBASIS1Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS1Y#0000</v>
       </c>
       <c r="F125" s="7" t="e">
         <f>_xll.qlRateHelperQuoteValue($E125,Trigger)</f>
@@ -7866,7 +7873,7 @@
       </c>
       <c r="G125" s="7">
         <f>_xll.qlSwapRateHelperSpread($E125,Trigger)</f>
-        <v>1.2625E-3</v>
+        <v>1.4250000000000001E-3</v>
       </c>
       <c r="H125" s="6" t="b">
         <v>0</v>
@@ -7879,11 +7886,11 @@
       </c>
       <c r="K125" s="5">
         <f>_xll.qlRateHelperEarliestDate($E125,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L125" s="4">
         <f>_xll.qlRateHelperLatestDate($E125,Trigger)</f>
-        <v>42018</v>
+        <v>42051</v>
       </c>
     </row>
     <row r="126" spans="2:14" x14ac:dyDescent="0.2">
@@ -7900,7 +7907,7 @@
       </c>
       <c r="E126" s="8" t="str">
         <f>'3M_SwapsFromBasis'!L7</f>
-        <v>GBP_YC3MRH_SB3LBASIS2Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS2Y#0000</v>
       </c>
       <c r="F126" s="7">
         <f>_xll.qlRateHelperQuoteValue($E126,Trigger)</f>
@@ -7908,7 +7915,7 @@
       </c>
       <c r="G126" s="7">
         <f>_xll.qlSwapRateHelperSpread($E126,Trigger)</f>
-        <v>1.25E-3</v>
+        <v>1.325E-3</v>
       </c>
       <c r="H126" s="6" t="b">
         <v>0</v>
@@ -7921,11 +7928,11 @@
       </c>
       <c r="K126" s="5">
         <f>_xll.qlRateHelperEarliestDate($E126,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L126" s="4">
         <f>_xll.qlRateHelperLatestDate($E126,Trigger)</f>
-        <v>42383</v>
+        <v>42415</v>
       </c>
     </row>
     <row r="127" spans="2:14" x14ac:dyDescent="0.2">
@@ -7942,7 +7949,7 @@
       </c>
       <c r="E127" s="8" t="str">
         <f>'3M_SwapsFromBasis'!L8</f>
-        <v>GBP_YC3MRH_SB3LBASIS3Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS3Y#0000</v>
       </c>
       <c r="F127" s="7">
         <f>_xll.qlRateHelperQuoteValue($E127,Trigger)</f>
@@ -7950,7 +7957,7 @@
       </c>
       <c r="G127" s="7">
         <f>_xll.qlSwapRateHelperSpread($E127,Trigger)</f>
-        <v>1.2375000000000001E-3</v>
+        <v>1.2750000000000001E-3</v>
       </c>
       <c r="H127" s="6" t="b">
         <v>1</v>
@@ -7963,11 +7970,11 @@
       </c>
       <c r="K127" s="5">
         <f>_xll.qlRateHelperEarliestDate($E127,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L127" s="4">
         <f>_xll.qlRateHelperLatestDate($E127,Trigger)</f>
-        <v>42751</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="128" spans="2:14" x14ac:dyDescent="0.2">
@@ -7984,7 +7991,7 @@
       </c>
       <c r="E128" s="8" t="str">
         <f>'3M_SwapsFromBasis'!L9</f>
-        <v>GBP_YC3MRH_SB3LBASIS4Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS4Y#0000</v>
       </c>
       <c r="F128" s="7">
         <f>_xll.qlRateHelperQuoteValue($E128,Trigger)</f>
@@ -8005,11 +8012,11 @@
       </c>
       <c r="K128" s="5">
         <f>_xll.qlRateHelperEarliestDate($E128,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L128" s="4">
         <f>_xll.qlRateHelperLatestDate($E128,Trigger)</f>
-        <v>43115</v>
+        <v>43145</v>
       </c>
     </row>
     <row r="129" spans="2:12" x14ac:dyDescent="0.2">
@@ -8026,7 +8033,7 @@
       </c>
       <c r="E129" s="8" t="str">
         <f>'3M_SwapsFromBasis'!L10</f>
-        <v>GBP_YC3MRH_SB3LBASIS5Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS5Y#0000</v>
       </c>
       <c r="F129" s="7">
         <f>_xll.qlRateHelperQuoteValue($E129,Trigger)</f>
@@ -8047,11 +8054,11 @@
       </c>
       <c r="K129" s="5">
         <f>_xll.qlRateHelperEarliestDate($E129,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L129" s="4">
         <f>_xll.qlRateHelperLatestDate($E129,Trigger)</f>
-        <v>43479</v>
+        <v>43510</v>
       </c>
     </row>
     <row r="130" spans="2:12" x14ac:dyDescent="0.2">
@@ -8068,7 +8075,7 @@
       </c>
       <c r="E130" s="8" t="str">
         <f>'3M_SwapsFromBasis'!L11</f>
-        <v>GBP_YC3MRH_SB3LBASIS6Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS6Y#0000</v>
       </c>
       <c r="F130" s="7">
         <f>_xll.qlRateHelperQuoteValue($E130,Trigger)</f>
@@ -8089,11 +8096,11 @@
       </c>
       <c r="K130" s="5">
         <f>_xll.qlRateHelperEarliestDate($E130,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L130" s="4">
         <f>_xll.qlRateHelperLatestDate($E130,Trigger)</f>
-        <v>43844</v>
+        <v>43875</v>
       </c>
     </row>
     <row r="131" spans="2:12" x14ac:dyDescent="0.2">
@@ -8110,7 +8117,7 @@
       </c>
       <c r="E131" s="8" t="str">
         <f>'3M_SwapsFromBasis'!L12</f>
-        <v>GBP_YC3MRH_SB3LBASIS7Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS7Y#0000</v>
       </c>
       <c r="F131" s="7">
         <f>_xll.qlRateHelperQuoteValue($E131,Trigger)</f>
@@ -8118,7 +8125,7 @@
       </c>
       <c r="G131" s="7">
         <f>_xll.qlSwapRateHelperSpread($E131,Trigger)</f>
-        <v>1.1375000000000001E-3</v>
+        <v>1.1249999999999999E-3</v>
       </c>
       <c r="H131" s="6" t="b">
         <v>1</v>
@@ -8131,11 +8138,11 @@
       </c>
       <c r="K131" s="5">
         <f>_xll.qlRateHelperEarliestDate($E131,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L131" s="4">
         <f>_xll.qlRateHelperLatestDate($E131,Trigger)</f>
-        <v>44210</v>
+        <v>44242</v>
       </c>
     </row>
     <row r="132" spans="2:12" x14ac:dyDescent="0.2">
@@ -8152,7 +8159,7 @@
       </c>
       <c r="E132" s="8" t="str">
         <f>'3M_SwapsFromBasis'!L13</f>
-        <v>GBP_YC3MRH_SB3LBASIS8Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS8Y#0000</v>
       </c>
       <c r="F132" s="7">
         <f>_xll.qlRateHelperQuoteValue($E132,Trigger)</f>
@@ -8160,7 +8167,7 @@
       </c>
       <c r="G132" s="7">
         <f>_xll.qlSwapRateHelperSpread($E132,Trigger)</f>
-        <v>1.0874999999999999E-3</v>
+        <v>1.075E-3</v>
       </c>
       <c r="H132" s="6" t="b">
         <v>1</v>
@@ -8173,11 +8180,11 @@
       </c>
       <c r="K132" s="5">
         <f>_xll.qlRateHelperEarliestDate($E132,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L132" s="4">
         <f>_xll.qlRateHelperLatestDate($E132,Trigger)</f>
-        <v>44575</v>
+        <v>44606</v>
       </c>
     </row>
     <row r="133" spans="2:12" x14ac:dyDescent="0.2">
@@ -8194,7 +8201,7 @@
       </c>
       <c r="E133" s="8" t="str">
         <f>'3M_SwapsFromBasis'!L14</f>
-        <v>GBP_YC3MRH_SB3LBASIS9Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS9Y#0000</v>
       </c>
       <c r="F133" s="7">
         <f>_xll.qlRateHelperQuoteValue($E133,Trigger)</f>
@@ -8202,7 +8209,7 @@
       </c>
       <c r="G133" s="7">
         <f>_xll.qlSwapRateHelperSpread($E133,Trigger)</f>
-        <v>1.0499999999999999E-3</v>
+        <v>1.0250000000000001E-3</v>
       </c>
       <c r="H133" s="6" t="b">
         <v>1</v>
@@ -8215,11 +8222,11 @@
       </c>
       <c r="K133" s="5">
         <f>_xll.qlRateHelperEarliestDate($E133,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L133" s="4">
         <f>_xll.qlRateHelperLatestDate($E133,Trigger)</f>
-        <v>44942</v>
+        <v>44971</v>
       </c>
     </row>
     <row r="134" spans="2:12" x14ac:dyDescent="0.2">
@@ -8236,7 +8243,7 @@
       </c>
       <c r="E134" s="8" t="str">
         <f>'3M_SwapsFromBasis'!L15</f>
-        <v>GBP_YC3MRH_SB3LBASIS10Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS10Y#0000</v>
       </c>
       <c r="F134" s="7">
         <f>_xll.qlRateHelperQuoteValue($E134,Trigger)</f>
@@ -8244,7 +8251,7 @@
       </c>
       <c r="G134" s="7">
         <f>_xll.qlSwapRateHelperSpread($E134,Trigger)</f>
-        <v>1.0124999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="H134" s="6" t="b">
         <v>1</v>
@@ -8257,11 +8264,11 @@
       </c>
       <c r="K134" s="5">
         <f>_xll.qlRateHelperEarliestDate($E134,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L134" s="4">
         <f>_xll.qlRateHelperLatestDate($E134,Trigger)</f>
-        <v>45306</v>
+        <v>45336</v>
       </c>
     </row>
     <row r="135" spans="2:12" x14ac:dyDescent="0.2">
@@ -8278,7 +8285,7 @@
       </c>
       <c r="E135" s="8" t="str">
         <f>'3M_SwapsFromBasis'!L16</f>
-        <v>GBP_YC3MRH_SB3LBASIS11Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS11Y#0000</v>
       </c>
       <c r="F135" s="7" t="e">
         <f>_xll.qlRateHelperQuoteValue($E135,Trigger)</f>
@@ -8286,7 +8293,7 @@
       </c>
       <c r="G135" s="7">
         <f>_xll.qlSwapRateHelperSpread($E135,Trigger)</f>
-        <v>9.7895284739868763E-4</v>
+        <v>9.7547990014653719E-4</v>
       </c>
       <c r="H135" s="6" t="b">
         <v>0</v>
@@ -8299,11 +8306,11 @@
       </c>
       <c r="K135" s="5">
         <f>_xll.qlRateHelperEarliestDate($E135,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L135" s="4">
         <f>_xll.qlRateHelperLatestDate($E135,Trigger)</f>
-        <v>45671</v>
+        <v>45702</v>
       </c>
     </row>
     <row r="136" spans="2:12" x14ac:dyDescent="0.2">
@@ -8320,7 +8327,7 @@
       </c>
       <c r="E136" s="8" t="str">
         <f>'3M_SwapsFromBasis'!L17</f>
-        <v>GBP_YC3MRH_SB3LBASIS12Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS12Y#0000</v>
       </c>
       <c r="F136" s="7">
         <f>_xll.qlRateHelperQuoteValue($E136,Trigger)</f>
@@ -8341,11 +8348,11 @@
       </c>
       <c r="K136" s="5">
         <f>_xll.qlRateHelperEarliestDate($E136,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L136" s="4">
         <f>_xll.qlRateHelperLatestDate($E136,Trigger)</f>
-        <v>46036</v>
+        <v>46069</v>
       </c>
     </row>
     <row r="137" spans="2:12" x14ac:dyDescent="0.2">
@@ -8362,7 +8369,7 @@
       </c>
       <c r="E137" s="8" t="str">
         <f>'3M_SwapsFromBasis'!L18</f>
-        <v>GBP_YC3MRH_SB3LBASIS13Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS13Y#0000</v>
       </c>
       <c r="F137" s="7" t="e">
         <f>_xll.qlRateHelperQuoteValue($E137,Trigger)</f>
@@ -8370,7 +8377,7 @@
       </c>
       <c r="G137" s="7">
         <f>_xll.qlSwapRateHelperSpread($E137,Trigger)</f>
-        <v>9.2364426637802949E-4</v>
+        <v>9.3040145468121019E-4</v>
       </c>
       <c r="H137" s="6" t="b">
         <v>0</v>
@@ -8383,11 +8390,11 @@
       </c>
       <c r="K137" s="5">
         <f>_xll.qlRateHelperEarliestDate($E137,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L137" s="4">
         <f>_xll.qlRateHelperLatestDate($E137,Trigger)</f>
-        <v>46401</v>
+        <v>46433</v>
       </c>
     </row>
     <row r="138" spans="2:12" x14ac:dyDescent="0.2">
@@ -8404,7 +8411,7 @@
       </c>
       <c r="E138" s="8" t="str">
         <f>'3M_SwapsFromBasis'!L19</f>
-        <v>GBP_YC3MRH_SB3LBASIS14Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS14Y#0000</v>
       </c>
       <c r="F138" s="7" t="e">
         <f>_xll.qlRateHelperQuoteValue($E138,Trigger)</f>
@@ -8412,7 +8419,7 @@
       </c>
       <c r="G138" s="7">
         <f>_xll.qlSwapRateHelperSpread($E138,Trigger)</f>
-        <v>8.9889189633966641E-4</v>
+        <v>9.1500470189683424E-4</v>
       </c>
       <c r="H138" s="6" t="b">
         <v>0</v>
@@ -8425,11 +8432,11 @@
       </c>
       <c r="K138" s="5">
         <f>_xll.qlRateHelperEarliestDate($E138,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L138" s="4">
         <f>_xll.qlRateHelperLatestDate($E138,Trigger)</f>
-        <v>46766</v>
+        <v>46797</v>
       </c>
     </row>
     <row r="139" spans="2:12" x14ac:dyDescent="0.2">
@@ -8446,7 +8453,7 @@
       </c>
       <c r="E139" s="8" t="str">
         <f>'3M_SwapsFromBasis'!L20</f>
-        <v>GBP_YC3MRH_SB3LBASIS15Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS15Y#0000</v>
       </c>
       <c r="F139" s="7">
         <f>_xll.qlRateHelperQuoteValue($E139,Trigger)</f>
@@ -8454,7 +8461,7 @@
       </c>
       <c r="G139" s="7">
         <f>_xll.qlSwapRateHelperSpread($E139,Trigger)</f>
-        <v>8.7500000000000002E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="H139" s="6" t="b">
         <v>1</v>
@@ -8467,11 +8474,11 @@
       </c>
       <c r="K139" s="5">
         <f>_xll.qlRateHelperEarliestDate($E139,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L139" s="4">
         <f>_xll.qlRateHelperLatestDate($E139,Trigger)</f>
-        <v>47133</v>
+        <v>47163</v>
       </c>
     </row>
     <row r="140" spans="2:12" x14ac:dyDescent="0.2">
@@ -8488,7 +8495,7 @@
       </c>
       <c r="E140" s="8" t="str">
         <f>'3M_SwapsFromBasis'!L21</f>
-        <v>GBP_YC3MRH_SB3LBASIS16Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS16Y#0000</v>
       </c>
       <c r="F140" s="7" t="e">
         <f>_xll.qlRateHelperQuoteValue($E140,Trigger)</f>
@@ -8496,7 +8503,7 @@
       </c>
       <c r="G140" s="7">
         <f>_xll.qlSwapRateHelperSpread($E140,Trigger)</f>
-        <v>8.5138611565163788E-4</v>
+        <v>8.8239747697432792E-4</v>
       </c>
       <c r="H140" s="6" t="b">
         <v>0</v>
@@ -8509,11 +8516,11 @@
       </c>
       <c r="K140" s="5">
         <f>_xll.qlRateHelperEarliestDate($E140,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L140" s="4">
         <f>_xll.qlRateHelperLatestDate($E140,Trigger)</f>
-        <v>47497</v>
+        <v>47528</v>
       </c>
     </row>
     <row r="141" spans="2:12" x14ac:dyDescent="0.2">
@@ -8530,7 +8537,7 @@
       </c>
       <c r="E141" s="8" t="str">
         <f>'3M_SwapsFromBasis'!L22</f>
-        <v>GBP_YC3MRH_SB3LBASIS17Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS17Y#0000</v>
       </c>
       <c r="F141" s="7" t="e">
         <f>_xll.qlRateHelperQuoteValue($E141,Trigger)</f>
@@ -8538,7 +8545,7 @@
       </c>
       <c r="G141" s="7">
         <f>_xll.qlSwapRateHelperSpread($E141,Trigger)</f>
-        <v>8.2810949429725942E-4</v>
+        <v>8.6248673932540849E-4</v>
       </c>
       <c r="H141" s="6" t="b">
         <v>0</v>
@@ -8551,11 +8558,11 @@
       </c>
       <c r="K141" s="5">
         <f>_xll.qlRateHelperEarliestDate($E141,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L141" s="4">
         <f>_xll.qlRateHelperLatestDate($E141,Trigger)</f>
-        <v>47862</v>
+        <v>47893</v>
       </c>
     </row>
     <row r="142" spans="2:12" x14ac:dyDescent="0.2">
@@ -8572,7 +8579,7 @@
       </c>
       <c r="E142" s="8" t="str">
         <f>'3M_SwapsFromBasis'!L23</f>
-        <v>GBP_YC3MRH_SB3LBASIS18Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS18Y#0000</v>
       </c>
       <c r="F142" s="7" t="e">
         <f>_xll.qlRateHelperQuoteValue($E142,Trigger)</f>
@@ -8580,7 +8587,7 @@
       </c>
       <c r="G142" s="7">
         <f>_xll.qlSwapRateHelperSpread($E142,Trigger)</f>
-        <v>8.0538981511706173E-4</v>
+        <v>8.4137726318932518E-4</v>
       </c>
       <c r="H142" s="6" t="b">
         <v>0</v>
@@ -8593,11 +8600,11 @@
       </c>
       <c r="K142" s="5">
         <f>_xll.qlRateHelperEarliestDate($E142,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L142" s="4">
         <f>_xll.qlRateHelperLatestDate($E142,Trigger)</f>
-        <v>48227</v>
+        <v>48260</v>
       </c>
     </row>
     <row r="143" spans="2:12" x14ac:dyDescent="0.2">
@@ -8614,7 +8621,7 @@
       </c>
       <c r="E143" s="8" t="str">
         <f>'3M_SwapsFromBasis'!L24</f>
-        <v>GBP_YC3MRH_SB3LBASIS19Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS19Y#0000</v>
       </c>
       <c r="F143" s="7" t="e">
         <f>_xll.qlRateHelperQuoteValue($E143,Trigger)</f>
@@ -8622,7 +8629,7 @@
       </c>
       <c r="G143" s="7">
         <f>_xll.qlSwapRateHelperSpread($E143,Trigger)</f>
-        <v>7.8344675729124288E-4</v>
+        <v>8.2017852470216135E-4</v>
       </c>
       <c r="H143" s="6" t="b">
         <v>0</v>
@@ -8635,11 +8642,11 @@
       </c>
       <c r="K143" s="5">
         <f>_xll.qlRateHelperEarliestDate($E143,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L143" s="4">
         <f>_xll.qlRateHelperLatestDate($E143,Trigger)</f>
-        <v>48593</v>
+        <v>48624</v>
       </c>
     </row>
     <row r="144" spans="2:12" x14ac:dyDescent="0.2">
@@ -8656,7 +8663,7 @@
       </c>
       <c r="E144" s="8" t="str">
         <f>'3M_SwapsFromBasis'!L25</f>
-        <v>GBP_YC3MRH_SB3LBASIS20Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS20Y#0000</v>
       </c>
       <c r="F144" s="7">
         <f>_xll.qlRateHelperQuoteValue($E144,Trigger)</f>
@@ -8664,7 +8671,7 @@
       </c>
       <c r="G144" s="7">
         <f>_xll.qlSwapRateHelperSpread($E144,Trigger)</f>
-        <v>7.6250000000000005E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="H144" s="6" t="b">
         <v>1</v>
@@ -8677,11 +8684,11 @@
       </c>
       <c r="K144" s="5">
         <f>_xll.qlRateHelperEarliestDate($E144,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L144" s="4">
         <f>_xll.qlRateHelperLatestDate($E144,Trigger)</f>
-        <v>48960</v>
+        <v>48989</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.2">
@@ -8698,7 +8705,7 @@
       </c>
       <c r="E145" s="8" t="str">
         <f>'3M_SwapsFromBasis'!L26</f>
-        <v>GBP_YC3MRH_SB3LBASIS21Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS21Y#0000</v>
       </c>
       <c r="F145" s="7" t="e">
         <f>_xll.qlRateHelperQuoteValue($E145,Trigger)</f>
@@ -8706,7 +8713,7 @@
       </c>
       <c r="G145" s="7">
         <f>_xll.qlSwapRateHelperSpread($E145,Trigger)</f>
-        <v>7.4272602648057585E-4</v>
+        <v>7.8172522723470733E-4</v>
       </c>
       <c r="H145" s="6" t="b">
         <v>0</v>
@@ -8719,11 +8726,11 @@
       </c>
       <c r="K145" s="5">
         <f>_xll.qlRateHelperEarliestDate($E145,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L145" s="4">
         <f>_xll.qlRateHelperLatestDate($E145,Trigger)</f>
-        <v>49324</v>
+        <v>49354</v>
       </c>
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.2">
@@ -8740,7 +8747,7 @@
       </c>
       <c r="E146" s="8" t="str">
         <f>'3M_SwapsFromBasis'!L27</f>
-        <v>GBP_YC3MRH_SB3LBASIS22Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS22Y#0000</v>
       </c>
       <c r="F146" s="7" t="e">
         <f>_xll.qlRateHelperQuoteValue($E146,Trigger)</f>
@@ -8748,7 +8755,7 @@
       </c>
       <c r="G146" s="7">
         <f>_xll.qlSwapRateHelperSpread($E146,Trigger)</f>
-        <v>7.2412853619839449E-4</v>
+        <v>7.6533399262128073E-4</v>
       </c>
       <c r="H146" s="6" t="b">
         <v>0</v>
@@ -8761,11 +8768,11 @@
       </c>
       <c r="K146" s="5">
         <f>_xll.qlRateHelperEarliestDate($E146,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L146" s="4">
         <f>_xll.qlRateHelperLatestDate($E146,Trigger)</f>
-        <v>49688</v>
+        <v>49719</v>
       </c>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.2">
@@ -8782,7 +8789,7 @@
       </c>
       <c r="E147" s="8" t="str">
         <f>'3M_SwapsFromBasis'!L28</f>
-        <v>GBP_YC3MRH_SB3LBASIS23Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS23Y#0000</v>
       </c>
       <c r="F147" s="7" t="e">
         <f>_xll.qlRateHelperQuoteValue($E147,Trigger)</f>
@@ -8790,7 +8797,7 @@
       </c>
       <c r="G147" s="7">
         <f>_xll.qlSwapRateHelperSpread($E147,Trigger)</f>
-        <v>7.0666803267592504E-4</v>
+        <v>7.5058014439050046E-4</v>
       </c>
       <c r="H147" s="6" t="b">
         <v>0</v>
@@ -8803,11 +8810,11 @@
       </c>
       <c r="K147" s="5">
         <f>_xll.qlRateHelperEarliestDate($E147,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L147" s="4">
         <f>_xll.qlRateHelperLatestDate($E147,Trigger)</f>
-        <v>50054</v>
+        <v>50087</v>
       </c>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.2">
@@ -8824,7 +8831,7 @@
       </c>
       <c r="E148" s="8" t="str">
         <f>'3M_SwapsFromBasis'!L29</f>
-        <v>GBP_YC3MRH_SB3LBASIS24Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS24Y#0000</v>
       </c>
       <c r="F148" s="7" t="e">
         <f>_xll.qlRateHelperQuoteValue($E148,Trigger)</f>
@@ -8832,7 +8839,7 @@
       </c>
       <c r="G148" s="7">
         <f>_xll.qlSwapRateHelperSpread($E148,Trigger)</f>
-        <v>6.9030501943563723E-4</v>
+        <v>7.3721753077314687E-4</v>
       </c>
       <c r="H148" s="6" t="b">
         <v>0</v>
@@ -8845,11 +8852,11 @@
       </c>
       <c r="K148" s="5">
         <f>_xll.qlRateHelperEarliestDate($E148,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L148" s="4">
         <f>_xll.qlRateHelperLatestDate($E148,Trigger)</f>
-        <v>50419</v>
+        <v>50451</v>
       </c>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.2">
@@ -8866,7 +8873,7 @@
       </c>
       <c r="E149" s="8" t="str">
         <f>'3M_SwapsFromBasis'!L30</f>
-        <v>GBP_YC3MRH_SB3LBASIS25Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS25Y#0000</v>
       </c>
       <c r="F149" s="7">
         <f>_xll.qlRateHelperQuoteValue($E149,Trigger)</f>
@@ -8874,7 +8881,7 @@
       </c>
       <c r="G149" s="7">
         <f>_xll.qlSwapRateHelperSpread($E149,Trigger)</f>
-        <v>6.7500000000000004E-4</v>
+        <v>7.2499999999999995E-4</v>
       </c>
       <c r="H149" s="6" t="b">
         <v>1</v>
@@ -8887,11 +8894,11 @@
       </c>
       <c r="K149" s="5">
         <f>_xll.qlRateHelperEarliestDate($E149,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L149" s="4">
         <f>_xll.qlRateHelperLatestDate($E149,Trigger)</f>
-        <v>50784</v>
+        <v>50815</v>
       </c>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.2">
@@ -8908,7 +8915,7 @@
       </c>
       <c r="E150" s="8" t="str">
         <f>'3M_SwapsFromBasis'!L31</f>
-        <v>GBP_YC3MRH_SB3LBASIS26Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS26Y#0000</v>
       </c>
       <c r="F150" s="7" t="e">
         <f>_xll.qlRateHelperQuoteValue($E150,Trigger)</f>
@@ -8916,7 +8923,7 @@
       </c>
       <c r="G150" s="7">
         <f>_xll.qlSwapRateHelperSpread($E150,Trigger)</f>
-        <v>6.6070977842605885E-4</v>
+        <v>7.1370161408684286E-4</v>
       </c>
       <c r="H150" s="6" t="b">
         <v>0</v>
@@ -8929,11 +8936,11 @@
       </c>
       <c r="K150" s="5">
         <f>_xll.qlRateHelperEarliestDate($E150,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L150" s="4">
         <f>_xll.qlRateHelperLatestDate($E150,Trigger)</f>
-        <v>51151</v>
+        <v>51180</v>
       </c>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.2">
@@ -8950,7 +8957,7 @@
       </c>
       <c r="E151" s="8" t="str">
         <f>'3M_SwapsFromBasis'!L32</f>
-        <v>GBP_YC3MRH_SB3LBASIS27Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS27Y#0000</v>
       </c>
       <c r="F151" s="7" t="e">
         <f>_xll.qlRateHelperQuoteValue($E151,Trigger)</f>
@@ -8958,7 +8965,7 @@
       </c>
       <c r="G151" s="7">
         <f>_xll.qlSwapRateHelperSpread($E151,Trigger)</f>
-        <v>6.4737636090916309E-4</v>
+        <v>7.0317729018946852E-4</v>
       </c>
       <c r="H151" s="6" t="b">
         <v>0</v>
@@ -8971,11 +8978,11 @@
       </c>
       <c r="K151" s="5">
         <f>_xll.qlRateHelperEarliestDate($E151,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L151" s="4">
         <f>_xll.qlRateHelperLatestDate($E151,Trigger)</f>
-        <v>51515</v>
+        <v>51546</v>
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.2">
@@ -8992,7 +8999,7 @@
       </c>
       <c r="E152" s="8" t="str">
         <f>'3M_SwapsFromBasis'!L33</f>
-        <v>GBP_YC3MRH_SB3LBASIS28Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS28Y#0000</v>
       </c>
       <c r="F152" s="7" t="e">
         <f>_xll.qlRateHelperQuoteValue($E152,Trigger)</f>
@@ -9000,7 +9007,7 @@
       </c>
       <c r="G152" s="7">
         <f>_xll.qlSwapRateHelperSpread($E152,Trigger)</f>
-        <v>6.3493805417923785E-4</v>
+        <v>6.9330215924867287E-4</v>
       </c>
       <c r="H152" s="6" t="b">
         <v>0</v>
@@ -9013,11 +9020,11 @@
       </c>
       <c r="K152" s="5">
         <f>_xll.qlRateHelperEarliestDate($E152,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L152" s="4">
         <f>_xll.qlRateHelperLatestDate($E152,Trigger)</f>
-        <v>51880</v>
+        <v>51911</v>
       </c>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.2">
@@ -9034,7 +9041,7 @@
       </c>
       <c r="E153" s="8" t="str">
         <f>'3M_SwapsFromBasis'!L34</f>
-        <v>GBP_YC3MRH_SB3LBASIS29Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS29Y#0000</v>
       </c>
       <c r="F153" s="7" t="e">
         <f>_xll.qlRateHelperQuoteValue($E153,Trigger)</f>
@@ -9042,7 +9049,7 @@
       </c>
       <c r="G153" s="7">
         <f>_xll.qlSwapRateHelperSpread($E153,Trigger)</f>
-        <v>6.2333316496620834E-4</v>
+        <v>6.8395135220525132E-4</v>
       </c>
       <c r="H153" s="6" t="b">
         <v>0</v>
@@ -9055,11 +9062,11 @@
       </c>
       <c r="K153" s="5">
         <f>_xll.qlRateHelperEarliestDate($E153,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L153" s="4">
         <f>_xll.qlRateHelperLatestDate($E153,Trigger)</f>
-        <v>52245</v>
+        <v>52278</v>
       </c>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.2">
@@ -9076,7 +9083,7 @@
       </c>
       <c r="E154" s="8" t="str">
         <f>'3M_SwapsFromBasis'!L35</f>
-        <v>GBP_YC3MRH_SB3LBASIS30Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS30Y#0000</v>
       </c>
       <c r="F154" s="7">
         <f>_xll.qlRateHelperQuoteValue($E154,Trigger)</f>
@@ -9084,7 +9091,7 @@
       </c>
       <c r="G154" s="7">
         <f>_xll.qlSwapRateHelperSpread($E154,Trigger)</f>
-        <v>6.1249999999999998E-4</v>
+        <v>6.7500000000000004E-4</v>
       </c>
       <c r="H154" s="6" t="b">
         <v>1</v>
@@ -9097,11 +9104,11 @@
       </c>
       <c r="K154" s="5">
         <f>_xll.qlRateHelperEarliestDate($E154,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L154" s="4">
         <f>_xll.qlRateHelperLatestDate($E154,Trigger)</f>
-        <v>52610</v>
+        <v>52642</v>
       </c>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.2">
@@ -9118,7 +9125,7 @@
       </c>
       <c r="E155" s="8" t="str">
         <f>'3M_SwapsFromBasis'!L36</f>
-        <v>GBP_YC3MRH_SB3LBASIS35Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS35Y#0000</v>
       </c>
       <c r="F155" s="7" t="e">
         <f>_xll.qlRateHelperQuoteValue($E155,Trigger)</f>
@@ -9126,7 +9133,7 @@
       </c>
       <c r="G155" s="7">
         <f>_xll.qlSwapRateHelperSpread($E155,Trigger)</f>
-        <v>6.1249999999999998E-4</v>
+        <v>6.7500000000000004E-4</v>
       </c>
       <c r="H155" s="6" t="b">
         <v>0</v>
@@ -9139,11 +9146,11 @@
       </c>
       <c r="K155" s="5">
         <f>_xll.qlRateHelperEarliestDate($E155,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L155" s="4">
         <f>_xll.qlRateHelperLatestDate($E155,Trigger)</f>
-        <v>54437</v>
+        <v>54469</v>
       </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.2">
@@ -9160,7 +9167,7 @@
       </c>
       <c r="E156" s="8" t="str">
         <f>'3M_SwapsFromBasis'!L37</f>
-        <v>GBP_YC3MRH_SB3LBASIS40Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS40Y#0000</v>
       </c>
       <c r="F156" s="7">
         <f>_xll.qlRateHelperQuoteValue($E156,Trigger)</f>
@@ -9168,7 +9175,7 @@
       </c>
       <c r="G156" s="7">
         <f>_xll.qlSwapRateHelperSpread($E156,Trigger)</f>
-        <v>6.1249999999999998E-4</v>
+        <v>6.7500000000000004E-4</v>
       </c>
       <c r="H156" s="6" t="b">
         <v>1</v>
@@ -9181,11 +9188,11 @@
       </c>
       <c r="K156" s="5">
         <f>_xll.qlRateHelperEarliestDate($E156,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L156" s="4">
         <f>_xll.qlRateHelperLatestDate($E156,Trigger)</f>
-        <v>56263</v>
+        <v>56296</v>
       </c>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.2">
@@ -9202,7 +9209,7 @@
       </c>
       <c r="E157" s="8" t="str">
         <f>'3M_SwapsFromBasis'!L38</f>
-        <v>GBP_YC3MRH_SB3LBASIS50Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS50Y#0000</v>
       </c>
       <c r="F157" s="7">
         <f>_xll.qlRateHelperQuoteValue($E157,Trigger)</f>
@@ -9210,7 +9217,7 @@
       </c>
       <c r="G157" s="7">
         <f>_xll.qlSwapRateHelperSpread($E157,Trigger)</f>
-        <v>6.1249999999999998E-4</v>
+        <v>6.7500000000000004E-4</v>
       </c>
       <c r="H157" s="6" t="b">
         <v>1</v>
@@ -9223,11 +9230,11 @@
       </c>
       <c r="K157" s="5">
         <f>_xll.qlRateHelperEarliestDate($E157,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L157" s="4">
         <f>_xll.qlRateHelperLatestDate($E157,Trigger)</f>
-        <v>59915</v>
+        <v>59946</v>
       </c>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.2">
@@ -9244,7 +9251,7 @@
       </c>
       <c r="E158" s="8" t="str">
         <f>'3M_SwapsFromBasis'!L39</f>
-        <v>GBP_YC3MRH_SB3LBASIS60Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS60Y#0000</v>
       </c>
       <c r="F158" s="7">
         <f>_xll.qlRateHelperQuoteValue($E158,Trigger)</f>
@@ -9252,7 +9259,7 @@
       </c>
       <c r="G158" s="7">
         <f>_xll.qlSwapRateHelperSpread($E158,Trigger)</f>
-        <v>6.1249999999999998E-4</v>
+        <v>6.7500000000000004E-4</v>
       </c>
       <c r="H158" s="6" t="b">
         <v>1</v>
@@ -9265,11 +9272,11 @@
       </c>
       <c r="K158" s="5">
         <f>_xll.qlRateHelperEarliestDate($E158,Trigger)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="L158" s="4">
         <f>_xll.qlRateHelperLatestDate($E158,Trigger)</f>
-        <v>63569</v>
+        <v>63599</v>
       </c>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.2">
@@ -9318,10 +9325,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="188" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="184"/>
+      <c r="B1" s="189"/>
       <c r="D1" s="52" t="s">
         <v>75</v>
       </c>
@@ -9361,11 +9368,11 @@
       </c>
       <c r="G2" s="38">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="H2" s="37">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41667</v>
+        <v>41698</v>
       </c>
       <c r="I2" s="32">
         <v>0.99982328602785375</v>
@@ -9397,14 +9404,14 @@
       </c>
       <c r="G3" s="38">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="H3" s="37">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41684</v>
+        <v>41712</v>
       </c>
       <c r="I3" s="32">
-        <v>0.99959571967322192</v>
+        <v>0.99963482928857794</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>110</v>
@@ -9433,14 +9440,14 @@
       </c>
       <c r="G4" s="38">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="H4" s="37">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41712</v>
+        <v>41743</v>
       </c>
       <c r="I4" s="32">
-        <v>0.99919743640649661</v>
+        <v>0.99919743640649672</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>111</v>
@@ -9469,14 +9476,14 @@
       </c>
       <c r="G5" s="38">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="H5" s="37">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41743</v>
+        <v>41773</v>
       </c>
       <c r="I5" s="32">
-        <v>0.99873961796485766</v>
+        <v>0.9987536047548683</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>112</v>
@@ -9502,18 +9509,18 @@
       </c>
       <c r="F6" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
-        <v>1.2375000000000001E-3</v>
+        <v>1.2750000000000001E-3</v>
       </c>
       <c r="G6" s="38">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="H6" s="37">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>42751</v>
+        <v>42780</v>
       </c>
       <c r="I6" s="32">
-        <v>0.98186979626845461</v>
+        <v>0.98201277637884787</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>113</v>
@@ -9525,7 +9532,7 @@
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_RateHelpersSelected#0007</v>
+        <v>GBP_YC3MRH_RateHelpersSelected#0000</v>
       </c>
       <c r="B7" s="42" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -9544,14 +9551,14 @@
       </c>
       <c r="G7" s="38">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="H7" s="37">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>43115</v>
+        <v>43145</v>
       </c>
       <c r="I7" s="32">
-        <v>0.97146313432801967</v>
+        <v>0.9714807551536303</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>114</v>
@@ -9574,14 +9581,14 @@
       </c>
       <c r="G8" s="38">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="H8" s="37">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>43479</v>
+        <v>43510</v>
       </c>
       <c r="I8" s="32">
-        <v>0.95705605222946821</v>
+        <v>0.9570543994193218</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>115</v>
@@ -9604,14 +9611,14 @@
       </c>
       <c r="G9" s="38">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="H9" s="37">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>43844</v>
+        <v>43875</v>
       </c>
       <c r="I9" s="32">
-        <v>0.93870769731658754</v>
+        <v>0.93870570680125498</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>116</v>
@@ -9630,18 +9637,18 @@
       </c>
       <c r="F10" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
-        <v>1.1375000000000001E-3</v>
+        <v>1.1249999999999999E-3</v>
       </c>
       <c r="G10" s="38">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="H10" s="37">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>44210</v>
+        <v>44242</v>
       </c>
       <c r="I10" s="32">
-        <v>0.91640205503835614</v>
+        <v>0.91628479599058454</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>117</v>
@@ -9660,18 +9667,18 @@
       </c>
       <c r="F11" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
-        <v>1.0874999999999999E-3</v>
+        <v>1.075E-3</v>
       </c>
       <c r="G11" s="38">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="H11" s="37">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>44575</v>
+        <v>44606</v>
       </c>
       <c r="I11" s="32">
-        <v>0.89094294030880539</v>
+        <v>0.89084576548521799</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>118</v>
@@ -9691,18 +9698,18 @@
       </c>
       <c r="F12" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
-        <v>1.0499999999999999E-3</v>
+        <v>1.0250000000000001E-3</v>
       </c>
       <c r="G12" s="38">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="H12" s="37">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>44942</v>
+        <v>44971</v>
       </c>
       <c r="I12" s="32">
-        <v>0.86301616885398136</v>
+        <v>0.86287943079091045</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>119</v>
@@ -9722,18 +9729,18 @@
       </c>
       <c r="F13" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
-        <v>1.0124999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="G13" s="38">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="H13" s="37">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>45306</v>
+        <v>45336</v>
       </c>
       <c r="I13" s="32">
-        <v>0.83373507044060136</v>
+        <v>0.83366390284298786</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>120</v>
@@ -9756,14 +9763,14 @@
       </c>
       <c r="G14" s="38">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="H14" s="37">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>46036</v>
+        <v>46069</v>
       </c>
       <c r="I14" s="32">
-        <v>0.77516842690501775</v>
+        <v>0.7750903386298662</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>121</v>
@@ -9782,18 +9789,18 @@
       </c>
       <c r="F15" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
-        <v>8.7500000000000002E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="G15" s="38">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="H15" s="37">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>47133</v>
+        <v>47163</v>
       </c>
       <c r="I15" s="32">
-        <v>0.69135231395862051</v>
+        <v>0.69171946439047172</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>122</v>
@@ -9812,18 +9819,18 @@
       </c>
       <c r="F16" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
-        <v>7.6250000000000005E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="G16" s="38">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="H16" s="37">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>48960</v>
+        <v>48989</v>
       </c>
       <c r="I16" s="32">
-        <v>0.56813066203658402</v>
+        <v>0.56876143500991283</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>123</v>
@@ -9842,18 +9849,18 @@
       </c>
       <c r="F17" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
-        <v>6.7500000000000004E-4</v>
+        <v>7.2499999999999995E-4</v>
       </c>
       <c r="G17" s="38">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="H17" s="37">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>50784</v>
+        <v>50815</v>
       </c>
       <c r="I17" s="32">
-        <v>0.46899507386455919</v>
+        <v>0.46978136711924573</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>124</v>
@@ -9872,18 +9879,18 @@
       </c>
       <c r="F18" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
-        <v>6.1249999999999998E-4</v>
+        <v>6.7500000000000004E-4</v>
       </c>
       <c r="G18" s="38">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="H18" s="37">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>52610</v>
+        <v>52642</v>
       </c>
       <c r="I18" s="32">
-        <v>0.39295228419235056</v>
+        <v>0.393938815982878</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>125</v>
@@ -9902,18 +9909,18 @@
       </c>
       <c r="F19" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
-        <v>6.1249999999999998E-4</v>
+        <v>6.7500000000000004E-4</v>
       </c>
       <c r="G19" s="38">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="H19" s="37">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>56263</v>
+        <v>56296</v>
       </c>
       <c r="I19" s="32">
-        <v>0.27823821501870299</v>
+        <v>0.27911093294251699</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>126</v>
@@ -9932,18 +9939,18 @@
       </c>
       <c r="F20" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
-        <v>6.1249999999999998E-4</v>
+        <v>6.7500000000000004E-4</v>
       </c>
       <c r="G20" s="38">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="H20" s="37">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>59915</v>
+        <v>59946</v>
       </c>
       <c r="I20" s="32">
-        <v>0.2030984597328008</v>
+        <v>0.20390498767066467</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>127</v>
@@ -9962,18 +9969,18 @@
       </c>
       <c r="F21" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
-        <v>6.1249999999999998E-4</v>
+        <v>6.7500000000000004E-4</v>
       </c>
       <c r="G21" s="38">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="H21" s="37">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>63569</v>
+        <v>63599</v>
       </c>
       <c r="I21" s="32">
-        <v>0.1447159760074084</v>
+        <v>0.14541073415800332</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>128</v>
@@ -12647,7 +12654,7 @@
       </c>
       <c r="F3" s="97" t="str">
         <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SWD#0007</v>
+        <v>GBP_YC3MRH_SWD#0000</v>
       </c>
       <c r="G3" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -12656,7 +12663,7 @@
       <c r="H3" s="95"/>
       <c r="J3" s="94">
         <f>_xll.qlRateHelperEarliestDate(F3)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -12678,7 +12685,7 @@
       </c>
       <c r="F4" s="97" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_2WD#0007</v>
+        <v>GBP_YC3MRH_2WD#0000</v>
       </c>
       <c r="G4" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -12687,7 +12694,7 @@
       <c r="H4" s="95"/>
       <c r="J4" s="94">
         <f>_xll.qlRateHelperEarliestDate(F4)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -12709,7 +12716,7 @@
       </c>
       <c r="F5" s="97" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_3WD#0007</v>
+        <v>GBP_YC3MRH_3WD#0000</v>
       </c>
       <c r="G5" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -12718,7 +12725,7 @@
       <c r="H5" s="95"/>
       <c r="J5" s="94">
         <f>_xll.qlRateHelperEarliestDate(F5)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -12740,7 +12747,7 @@
       </c>
       <c r="F6" s="97" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_1MD#0007</v>
+        <v>GBP_YC3MRH_1MD#0000</v>
       </c>
       <c r="G6" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -12749,7 +12756,7 @@
       <c r="H6" s="95"/>
       <c r="J6" s="94">
         <f>_xll.qlRateHelperEarliestDate(F6)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -12771,7 +12778,7 @@
       </c>
       <c r="F7" s="97" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_2MD#0007</v>
+        <v>GBP_YC3MRH_2MD#0000</v>
       </c>
       <c r="G7" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -12780,7 +12787,7 @@
       <c r="H7" s="95"/>
       <c r="J7" s="94">
         <f>_xll.qlRateHelperEarliestDate(F7)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -12802,7 +12809,7 @@
       </c>
       <c r="F8" s="97" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_3MD#0007</v>
+        <v>GBP_YC3MRH_3MD#0000</v>
       </c>
       <c r="G8" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -12811,7 +12818,7 @@
       <c r="H8" s="95"/>
       <c r="J8" s="94">
         <f>_xll.qlRateHelperEarliestDate(F8)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -12918,7 +12925,7 @@
       </c>
       <c r="D3" s="134" t="str">
         <f t="array" ref="D3:D44">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,C3:C44)</f>
-        <v>F4</v>
+        <v>G4</v>
       </c>
       <c r="E3" s="134" t="str">
         <f t="shared" ref="E3:E34" si="0">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
@@ -12926,19 +12933,19 @@
       </c>
       <c r="F3" s="133" t="str">
         <f t="shared" ref="F3:F34" si="1">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;QuoteSuffix</f>
-        <v>GBPFUT3MF4_Quote</v>
+        <v>GBPFUT3MG4_Quote</v>
       </c>
       <c r="G3" s="133" t="str">
         <f t="shared" ref="G3:G34" si="2">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>GBPFUT3MF4ConvAdj_Quote</v>
+        <v>GBPFUT3MG4ConvAdj_Quote</v>
       </c>
       <c r="H3" s="133" t="str">
         <f t="shared" ref="H3:H34" si="3">$H$1&amp;"_FUT"&amp;$E$1&amp;$D3</f>
-        <v>GBP_YC3MRH_FUT3MF4</v>
+        <v>GBP_YC3MRH_FUT3MG4</v>
       </c>
       <c r="I3" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(H3,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MF4#0007</v>
+        <v>GBP_YC3MRH_FUT3MG4#0000</v>
       </c>
       <c r="J3" s="138" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -12956,7 +12963,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="135" t="str">
-        <v>G4</v>
+        <v>H4</v>
       </c>
       <c r="E4" s="134" t="str">
         <f t="shared" si="0"/>
@@ -12964,19 +12971,19 @@
       </c>
       <c r="F4" s="133" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MG4_Quote</v>
+        <v>GBPFUT3MH4_Quote</v>
       </c>
       <c r="G4" s="133" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MG4ConvAdj_Quote</v>
+        <v>GBPFUT3MH4ConvAdj_Quote</v>
       </c>
       <c r="H4" s="133" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YC3MRH_FUT3MG4</v>
+        <v>GBP_YC3MRH_FUT3MH4</v>
       </c>
       <c r="I4" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H4,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MG4#0007</v>
+        <v>GBP_YC3MRH_FUT3MH4#0000</v>
       </c>
       <c r="J4" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -12994,7 +13001,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="135" t="str">
-        <v>H4</v>
+        <v>J4</v>
       </c>
       <c r="E5" s="134" t="str">
         <f t="shared" si="0"/>
@@ -13002,19 +13009,19 @@
       </c>
       <c r="F5" s="133" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MH4_Quote</v>
+        <v>GBPFUT3MJ4_Quote</v>
       </c>
       <c r="G5" s="133" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MH4ConvAdj_Quote</v>
+        <v>GBPFUT3MJ4ConvAdj_Quote</v>
       </c>
       <c r="H5" s="133" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YC3MRH_FUT3MH4</v>
+        <v>GBP_YC3MRH_FUT3MJ4</v>
       </c>
       <c r="I5" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H5,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MH4#0007</v>
+        <v>GBP_YC3MRH_FUT3MJ4#0000</v>
       </c>
       <c r="J5" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -13032,7 +13039,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="135" t="str">
-        <v>J4</v>
+        <v>K4</v>
       </c>
       <c r="E6" s="134" t="str">
         <f t="shared" si="0"/>
@@ -13040,19 +13047,19 @@
       </c>
       <c r="F6" s="133" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MJ4_Quote</v>
+        <v>GBPFUT3MK4_Quote</v>
       </c>
       <c r="G6" s="133" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MJ4ConvAdj_Quote</v>
+        <v>GBPFUT3MK4ConvAdj_Quote</v>
       </c>
       <c r="H6" s="133" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YC3MRH_FUT3MJ4</v>
+        <v>GBP_YC3MRH_FUT3MK4</v>
       </c>
       <c r="I6" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H6,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MJ4#0007</v>
+        <v>GBP_YC3MRH_FUT3MK4#0000</v>
       </c>
       <c r="J6" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -13070,7 +13077,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="135" t="str">
-        <v>K4</v>
+        <v>M4</v>
       </c>
       <c r="E7" s="134" t="str">
         <f t="shared" si="0"/>
@@ -13078,19 +13085,19 @@
       </c>
       <c r="F7" s="133" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MK4_Quote</v>
+        <v>GBPFUT3MM4_Quote</v>
       </c>
       <c r="G7" s="133" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MK4ConvAdj_Quote</v>
+        <v>GBPFUT3MM4ConvAdj_Quote</v>
       </c>
       <c r="H7" s="133" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YC3MRH_FUT3MK4</v>
+        <v>GBP_YC3MRH_FUT3MM4</v>
       </c>
       <c r="I7" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H7,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MK4#0007</v>
+        <v>GBP_YC3MRH_FUT3MM4#0000</v>
       </c>
       <c r="J7" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -13108,7 +13115,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="135" t="str">
-        <v>M4</v>
+        <v>N4</v>
       </c>
       <c r="E8" s="134" t="str">
         <f t="shared" si="0"/>
@@ -13116,19 +13123,19 @@
       </c>
       <c r="F8" s="133" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MM4_Quote</v>
+        <v>GBPFUT3MN4_Quote</v>
       </c>
       <c r="G8" s="133" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MM4ConvAdj_Quote</v>
+        <v>GBPFUT3MN4ConvAdj_Quote</v>
       </c>
       <c r="H8" s="133" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YC3MRH_FUT3MM4</v>
+        <v>GBP_YC3MRH_FUT3MN4</v>
       </c>
       <c r="I8" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H8,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MM4#0007</v>
+        <v>GBP_YC3MRH_FUT3MN4#0000</v>
       </c>
       <c r="J8" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -13146,7 +13153,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="135" t="str">
-        <v>N4</v>
+        <v>Q4</v>
       </c>
       <c r="E9" s="134" t="str">
         <f t="shared" si="0"/>
@@ -13154,19 +13161,19 @@
       </c>
       <c r="F9" s="133" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MN4_Quote</v>
+        <v>GBPFUT3MQ4_Quote</v>
       </c>
       <c r="G9" s="133" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MN4ConvAdj_Quote</v>
+        <v>GBPFUT3MQ4ConvAdj_Quote</v>
       </c>
       <c r="H9" s="133" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YC3MRH_FUT3MN4</v>
+        <v>GBP_YC3MRH_FUT3MQ4</v>
       </c>
       <c r="I9" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H9,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MN4#0007</v>
+        <v>GBP_YC3MRH_FUT3MQ4#0000</v>
       </c>
       <c r="J9" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -13184,7 +13191,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="135" t="str">
-        <v>Q4</v>
+        <v>U4</v>
       </c>
       <c r="E10" s="134" t="str">
         <f t="shared" si="0"/>
@@ -13192,19 +13199,19 @@
       </c>
       <c r="F10" s="133" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MQ4_Quote</v>
+        <v>GBPFUT3MU4_Quote</v>
       </c>
       <c r="G10" s="133" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MQ4ConvAdj_Quote</v>
+        <v>GBPFUT3MU4ConvAdj_Quote</v>
       </c>
       <c r="H10" s="133" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YC3MRH_FUT3MQ4</v>
+        <v>GBP_YC3MRH_FUT3MU4</v>
       </c>
       <c r="I10" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H10,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MQ4#0007</v>
+        <v>GBP_YC3MRH_FUT3MU4#0000</v>
       </c>
       <c r="J10" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -13222,7 +13229,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="135" t="str">
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="E11" s="134" t="str">
         <f t="shared" si="0"/>
@@ -13230,19 +13237,19 @@
       </c>
       <c r="F11" s="133" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MU4_Quote</v>
+        <v>GBPFUT3MV4_Quote</v>
       </c>
       <c r="G11" s="133" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MU4ConvAdj_Quote</v>
+        <v>GBPFUT3MV4ConvAdj_Quote</v>
       </c>
       <c r="H11" s="133" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YC3MRH_FUT3MU4</v>
+        <v>GBP_YC3MRH_FUT3MV4</v>
       </c>
       <c r="I11" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H11,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MU4#0007</v>
+        <v>GBP_YC3MRH_FUT3MV4#0000</v>
       </c>
       <c r="J11" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -13260,7 +13267,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="135" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="E12" s="134" t="str">
         <f t="shared" si="0"/>
@@ -13268,19 +13275,19 @@
       </c>
       <c r="F12" s="133" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MV4_Quote</v>
+        <v>GBPFUT3MX4_Quote</v>
       </c>
       <c r="G12" s="133" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MV4ConvAdj_Quote</v>
+        <v>GBPFUT3MX4ConvAdj_Quote</v>
       </c>
       <c r="H12" s="133" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YC3MRH_FUT3MV4</v>
+        <v>GBP_YC3MRH_FUT3MX4</v>
       </c>
       <c r="I12" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H12,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MV4#0007</v>
+        <v>GBP_YC3MRH_FUT3MX4#0000</v>
       </c>
       <c r="J12" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -13298,7 +13305,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="135" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="E13" s="134" t="str">
         <f t="shared" si="0"/>
@@ -13306,19 +13313,19 @@
       </c>
       <c r="F13" s="133" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MX4_Quote</v>
+        <v>GBPFUT3MZ4_Quote</v>
       </c>
       <c r="G13" s="133" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MX4ConvAdj_Quote</v>
+        <v>GBPFUT3MZ4ConvAdj_Quote</v>
       </c>
       <c r="H13" s="133" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YC3MRH_FUT3MX4</v>
+        <v>GBP_YC3MRH_FUT3MZ4</v>
       </c>
       <c r="I13" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H13,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MX4#0007</v>
+        <v>GBP_YC3MRH_FUT3MZ4#0000</v>
       </c>
       <c r="J13" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -13336,7 +13343,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="135" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="E14" s="134" t="str">
         <f t="shared" si="0"/>
@@ -13344,19 +13351,19 @@
       </c>
       <c r="F14" s="133" t="str">
         <f t="shared" si="1"/>
-        <v>GBPFUT3MZ4_Quote</v>
+        <v>GBPFUT3MF5_Quote</v>
       </c>
       <c r="G14" s="133" t="str">
         <f t="shared" si="2"/>
-        <v>GBPFUT3MZ4ConvAdj_Quote</v>
+        <v>GBPFUT3MF5ConvAdj_Quote</v>
       </c>
       <c r="H14" s="133" t="str">
         <f t="shared" si="3"/>
-        <v>GBP_YC3MRH_FUT3MZ4</v>
+        <v>GBP_YC3MRH_FUT3MF5</v>
       </c>
       <c r="I14" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H14,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MZ4#0007</v>
+        <v>GBP_YC3MRH_FUT3MF5#0000</v>
       </c>
       <c r="J14" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -13394,7 +13401,7 @@
       </c>
       <c r="I15" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H15,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MH5#0007</v>
+        <v>GBP_YC3MRH_FUT3MH5#0000</v>
       </c>
       <c r="J15" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
@@ -13432,7 +13439,7 @@
       </c>
       <c r="I16" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H16,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MM5#0007</v>
+        <v>GBP_YC3MRH_FUT3MM5#0000</v>
       </c>
       <c r="J16" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -13470,7 +13477,7 @@
       </c>
       <c r="I17" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H17,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MU5#0007</v>
+        <v>GBP_YC3MRH_FUT3MU5#0000</v>
       </c>
       <c r="J17" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -13508,7 +13515,7 @@
       </c>
       <c r="I18" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H18,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MZ5#0007</v>
+        <v>GBP_YC3MRH_FUT3MZ5#0000</v>
       </c>
       <c r="J18" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
@@ -13546,7 +13553,7 @@
       </c>
       <c r="I19" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H19,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MH6#0007</v>
+        <v>GBP_YC3MRH_FUT3MH6#0000</v>
       </c>
       <c r="J19" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -13584,7 +13591,7 @@
       </c>
       <c r="I20" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H20,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MM6#0007</v>
+        <v>GBP_YC3MRH_FUT3MM6#0000</v>
       </c>
       <c r="J20" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -13622,7 +13629,7 @@
       </c>
       <c r="I21" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H21,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MU6#0007</v>
+        <v>GBP_YC3MRH_FUT3MU6#0000</v>
       </c>
       <c r="J21" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -13660,7 +13667,7 @@
       </c>
       <c r="I22" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H22,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MZ6#0007</v>
+        <v>GBP_YC3MRH_FUT3MZ6#0000</v>
       </c>
       <c r="J22" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -13698,7 +13705,7 @@
       </c>
       <c r="I23" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H23,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MH7#0007</v>
+        <v>GBP_YC3MRH_FUT3MH7#0000</v>
       </c>
       <c r="J23" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
@@ -13736,7 +13743,7 @@
       </c>
       <c r="I24" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H24,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MM7#0007</v>
+        <v>GBP_YC3MRH_FUT3MM7#0000</v>
       </c>
       <c r="J24" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I24)</f>
@@ -13774,7 +13781,7 @@
       </c>
       <c r="I25" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H25,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MU7#0007</v>
+        <v>GBP_YC3MRH_FUT3MU7#0000</v>
       </c>
       <c r="J25" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I25)</f>
@@ -13812,7 +13819,7 @@
       </c>
       <c r="I26" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H26,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MZ7#0007</v>
+        <v>GBP_YC3MRH_FUT3MZ7#0000</v>
       </c>
       <c r="J26" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
@@ -13850,7 +13857,7 @@
       </c>
       <c r="I27" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H27,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MH8#0007</v>
+        <v>GBP_YC3MRH_FUT3MH8#0000</v>
       </c>
       <c r="J27" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I27)</f>
@@ -13888,7 +13895,7 @@
       </c>
       <c r="I28" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H28,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MM8#0007</v>
+        <v>GBP_YC3MRH_FUT3MM8#0000</v>
       </c>
       <c r="J28" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I28)</f>
@@ -13926,7 +13933,7 @@
       </c>
       <c r="I29" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H29,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MU8#0007</v>
+        <v>GBP_YC3MRH_FUT3MU8#0000</v>
       </c>
       <c r="J29" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I29)</f>
@@ -13964,7 +13971,7 @@
       </c>
       <c r="I30" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H30,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MZ8#0007</v>
+        <v>GBP_YC3MRH_FUT3MZ8#0000</v>
       </c>
       <c r="J30" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I30)</f>
@@ -14002,7 +14009,7 @@
       </c>
       <c r="I31" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H31,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MH9#0007</v>
+        <v>GBP_YC3MRH_FUT3MH9#0000</v>
       </c>
       <c r="J31" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I31)</f>
@@ -14040,7 +14047,7 @@
       </c>
       <c r="I32" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H32,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MM9#0007</v>
+        <v>GBP_YC3MRH_FUT3MM9#0000</v>
       </c>
       <c r="J32" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I32)</f>
@@ -14079,7 +14086,7 @@
       </c>
       <c r="I33" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H33,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MU9#0007</v>
+        <v>GBP_YC3MRH_FUT3MU9#0000</v>
       </c>
       <c r="J33" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I33)</f>
@@ -14117,7 +14124,7 @@
       </c>
       <c r="I34" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H34,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MZ9#0007</v>
+        <v>GBP_YC3MRH_FUT3MZ9#0000</v>
       </c>
       <c r="J34" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I34)</f>
@@ -14155,7 +14162,7 @@
       </c>
       <c r="I35" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H35,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MH0#0007</v>
+        <v>GBP_YC3MRH_FUT3MH0#0000</v>
       </c>
       <c r="J35" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
@@ -14193,7 +14200,7 @@
       </c>
       <c r="I36" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H36,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MM0#0007</v>
+        <v>GBP_YC3MRH_FUT3MM0#0000</v>
       </c>
       <c r="J36" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I36)</f>
@@ -14231,7 +14238,7 @@
       </c>
       <c r="I37" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H37,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MU0#0007</v>
+        <v>GBP_YC3MRH_FUT3MU0#0000</v>
       </c>
       <c r="J37" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I37)</f>
@@ -14269,7 +14276,7 @@
       </c>
       <c r="I38" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H38,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MZ0#0007</v>
+        <v>GBP_YC3MRH_FUT3MZ0#0000</v>
       </c>
       <c r="J38" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
@@ -14307,7 +14314,7 @@
       </c>
       <c r="I39" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H39,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MH1#0007</v>
+        <v>GBP_YC3MRH_FUT3MH1#0000</v>
       </c>
       <c r="J39" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I39)</f>
@@ -14345,7 +14352,7 @@
       </c>
       <c r="I40" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H40,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MM1#0007</v>
+        <v>GBP_YC3MRH_FUT3MM1#0000</v>
       </c>
       <c r="J40" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I40)</f>
@@ -14382,7 +14389,7 @@
       </c>
       <c r="I41" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H41,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MU1#0007</v>
+        <v>GBP_YC3MRH_FUT3MU1#0000</v>
       </c>
       <c r="J41" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
@@ -14419,7 +14426,7 @@
       </c>
       <c r="I42" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H42,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MZ1#0007</v>
+        <v>GBP_YC3MRH_FUT3MZ1#0000</v>
       </c>
       <c r="J42" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I42)</f>
@@ -14456,7 +14463,7 @@
       </c>
       <c r="I43" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H43,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MH2#0007</v>
+        <v>GBP_YC3MRH_FUT3MH2#0000</v>
       </c>
       <c r="J43" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I43)</f>
@@ -14493,7 +14500,7 @@
       </c>
       <c r="I44" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(H44,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_FUT3MM2#0007</v>
+        <v>GBP_YC3MRH_FUT3MM2#0000</v>
       </c>
       <c r="J44" s="96" t="str">
         <f>_xll.ohRangeRetrieveError(I44)</f>
@@ -14650,7 +14657,7 @@
       </c>
       <c r="L4" s="168" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>GBP_YC3MRH_SB3LBASIS_Libor3M#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS_Libor3M#0000</v>
       </c>
       <c r="M4" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -14715,7 +14722,7 @@
       </c>
       <c r="L6" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS1Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS1Y#0000</v>
       </c>
       <c r="M6" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -14781,7 +14788,7 @@
       </c>
       <c r="L7" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS2Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS2Y#0000</v>
       </c>
       <c r="M7" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -14856,7 +14863,7 @@
       </c>
       <c r="L8" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS3Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS3Y#0000</v>
       </c>
       <c r="M8" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -14931,7 +14938,7 @@
       </c>
       <c r="L9" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS4Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS4Y#0000</v>
       </c>
       <c r="M9" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -15006,7 +15013,7 @@
       </c>
       <c r="L10" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS5Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS5Y#0000</v>
       </c>
       <c r="M10" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -15081,7 +15088,7 @@
       </c>
       <c r="L11" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS6Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS6Y#0000</v>
       </c>
       <c r="M11" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -15156,7 +15163,7 @@
       </c>
       <c r="L12" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS7Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS7Y#0000</v>
       </c>
       <c r="M12" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -15225,7 +15232,7 @@
       </c>
       <c r="L13" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS8Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS8Y#0000</v>
       </c>
       <c r="M13" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -15291,7 +15298,7 @@
       </c>
       <c r="L14" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS9Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS9Y#0000</v>
       </c>
       <c r="M14" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -15357,7 +15364,7 @@
       </c>
       <c r="L15" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS10Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS10Y#0000</v>
       </c>
       <c r="M15" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -15423,7 +15430,7 @@
       </c>
       <c r="L16" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS11Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS11Y#0000</v>
       </c>
       <c r="M16" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -15489,7 +15496,7 @@
       </c>
       <c r="L17" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS12Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS12Y#0000</v>
       </c>
       <c r="M17" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -15555,7 +15562,7 @@
       </c>
       <c r="L18" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS13Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS13Y#0000</v>
       </c>
       <c r="M18" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -15621,7 +15628,7 @@
       </c>
       <c r="L19" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS14Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS14Y#0000</v>
       </c>
       <c r="M19" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -15687,7 +15694,7 @@
       </c>
       <c r="L20" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS15Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS15Y#0000</v>
       </c>
       <c r="M20" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -15753,7 +15760,7 @@
       </c>
       <c r="L21" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS16Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS16Y#0000</v>
       </c>
       <c r="M21" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -15819,7 +15826,7 @@
       </c>
       <c r="L22" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS17Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS17Y#0000</v>
       </c>
       <c r="M22" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -15885,7 +15892,7 @@
       </c>
       <c r="L23" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS18Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS18Y#0000</v>
       </c>
       <c r="M23" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -15951,7 +15958,7 @@
       </c>
       <c r="L24" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS19Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS19Y#0000</v>
       </c>
       <c r="M24" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -16017,7 +16024,7 @@
       </c>
       <c r="L25" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS20Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS20Y#0000</v>
       </c>
       <c r="M25" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -16083,7 +16090,7 @@
       </c>
       <c r="L26" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS21Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS21Y#0000</v>
       </c>
       <c r="M26" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -16149,7 +16156,7 @@
       </c>
       <c r="L27" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS22Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS22Y#0000</v>
       </c>
       <c r="M27" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -16215,7 +16222,7 @@
       </c>
       <c r="L28" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS23Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS23Y#0000</v>
       </c>
       <c r="M28" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -16281,7 +16288,7 @@
       </c>
       <c r="L29" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS24Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS24Y#0000</v>
       </c>
       <c r="M29" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -16347,7 +16354,7 @@
       </c>
       <c r="L30" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS25Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS25Y#0000</v>
       </c>
       <c r="M30" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -16413,7 +16420,7 @@
       </c>
       <c r="L31" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS26Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS26Y#0000</v>
       </c>
       <c r="M31" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -16479,7 +16486,7 @@
       </c>
       <c r="L32" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS27Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS27Y#0000</v>
       </c>
       <c r="M32" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -16545,7 +16552,7 @@
       </c>
       <c r="L33" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS28Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS28Y#0000</v>
       </c>
       <c r="M33" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -16611,7 +16618,7 @@
       </c>
       <c r="L34" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS29Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS29Y#0000</v>
       </c>
       <c r="M34" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -16677,7 +16684,7 @@
       </c>
       <c r="L35" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS30Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS30Y#0000</v>
       </c>
       <c r="M35" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -16743,7 +16750,7 @@
       </c>
       <c r="L36" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS35Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS35Y#0000</v>
       </c>
       <c r="M36" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -16809,7 +16816,7 @@
       </c>
       <c r="L37" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS40Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS40Y#0000</v>
       </c>
       <c r="M37" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -16875,7 +16882,7 @@
       </c>
       <c r="L38" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS50Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS50Y#0000</v>
       </c>
       <c r="M38" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -16941,7 +16948,7 @@
       </c>
       <c r="L39" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC3MRH_SB3LBASIS60Y#0007</v>
+        <v>GBP_YC3MRH_SB3LBASIS60Y#0000</v>
       </c>
       <c r="M39" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
